--- a/X. Visualization/test_timeseries.xlsx
+++ b/X. Visualization/test_timeseries.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="macro" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -76287,11 +76287,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -76318,7 +76316,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>37631</v>
+        <v>37652</v>
       </c>
       <c r="C2" s="3">
         <v>82</v>
@@ -76329,7 +76327,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>37662</v>
+        <v>37680</v>
       </c>
       <c r="C3" s="3">
         <v>73</v>
@@ -76340,7 +76338,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>37690</v>
+        <v>37711</v>
       </c>
       <c r="C4" s="3">
         <v>71</v>
@@ -76351,7 +76349,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>37721</v>
+        <v>37741</v>
       </c>
       <c r="C5" s="3">
         <v>76</v>
@@ -76362,7 +76360,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>37751</v>
+        <v>37772</v>
       </c>
       <c r="C6" s="3">
         <v>74</v>
@@ -76373,7 +76371,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>37782</v>
+        <v>37802</v>
       </c>
       <c r="C7" s="3">
         <v>71</v>
@@ -76384,7 +76382,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>37812</v>
+        <v>37833</v>
       </c>
       <c r="C8" s="3">
         <v>66</v>
@@ -76395,7 +76393,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>37843</v>
+        <v>37864</v>
       </c>
       <c r="C9" s="3">
         <v>68</v>
@@ -76406,7 +76404,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>37874</v>
+        <v>37894</v>
       </c>
       <c r="C10" s="3">
         <v>70</v>
@@ -76417,7 +76415,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>37904</v>
+        <v>37925</v>
       </c>
       <c r="C11" s="3">
         <v>77</v>
@@ -76428,7 +76426,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>37935</v>
+        <v>37955</v>
       </c>
       <c r="C12" s="3">
         <v>80</v>
@@ -76439,7 +76437,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>37965</v>
+        <v>37986</v>
       </c>
       <c r="C13" s="3">
         <v>81</v>
@@ -76450,7 +76448,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>37996</v>
+        <v>38017</v>
       </c>
       <c r="B14" s="3">
         <v>100.3022</v>
@@ -76464,7 +76462,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>38027</v>
+        <v>38046</v>
       </c>
       <c r="B15" s="3">
         <v>100.40309999999999</v>
@@ -76478,7 +76476,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>38056</v>
+        <v>38077</v>
       </c>
       <c r="B16" s="3">
         <v>100.4387</v>
@@ -76492,7 +76490,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>38087</v>
+        <v>38107</v>
       </c>
       <c r="B17" s="3">
         <v>100.43559999999999</v>
@@ -76506,7 +76504,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>38117</v>
+        <v>38138</v>
       </c>
       <c r="B18" s="3">
         <v>100.3875</v>
@@ -76520,7 +76518,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>38148</v>
+        <v>38168</v>
       </c>
       <c r="B19" s="3">
         <v>100.3233</v>
@@ -76534,7 +76532,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <v>38178</v>
+        <v>38199</v>
       </c>
       <c r="B20" s="3">
         <v>100.2598</v>
@@ -76548,7 +76546,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>38209</v>
+        <v>38230</v>
       </c>
       <c r="B21" s="3">
         <v>100.1917</v>
@@ -76562,7 +76560,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>38240</v>
+        <v>38260</v>
       </c>
       <c r="B22" s="3">
         <v>100.1144</v>
@@ -76576,7 +76574,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>38270</v>
+        <v>38291</v>
       </c>
       <c r="B23" s="3">
         <v>100.0258</v>
@@ -76590,7 +76588,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>38301</v>
+        <v>38321</v>
       </c>
       <c r="B24" s="3">
         <v>99.944500000000005</v>
@@ -76604,7 +76602,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <v>38331</v>
+        <v>38352</v>
       </c>
       <c r="B25" s="3">
         <v>99.890910000000005</v>
@@ -76618,7 +76616,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <v>38362</v>
+        <v>38383</v>
       </c>
       <c r="B26" s="3">
         <v>99.892179999999996</v>
@@ -76632,7 +76630,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>38393</v>
+        <v>38411</v>
       </c>
       <c r="B27" s="3">
         <v>99.945099999999996</v>
@@ -76646,7 +76644,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>38421</v>
+        <v>38442</v>
       </c>
       <c r="B28" s="3">
         <v>100.00839999999999</v>
@@ -76660,7 +76658,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>38452</v>
+        <v>38472</v>
       </c>
       <c r="B29" s="3">
         <v>100.0663</v>
@@ -76674,7 +76672,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>38482</v>
+        <v>38503</v>
       </c>
       <c r="B30" s="3">
         <v>100.1465</v>
@@ -76688,7 +76686,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>38513</v>
+        <v>38533</v>
       </c>
       <c r="B31" s="3">
         <v>100.2795</v>
@@ -76702,7 +76700,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>38543</v>
+        <v>38564</v>
       </c>
       <c r="B32" s="3">
         <v>100.468</v>
@@ -76716,7 +76714,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>38574</v>
+        <v>38595</v>
       </c>
       <c r="B33" s="3">
         <v>100.69450000000001</v>
@@ -76730,7 +76728,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>38605</v>
+        <v>38625</v>
       </c>
       <c r="B34" s="3">
         <v>100.9204</v>
@@ -76744,7 +76742,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>38635</v>
+        <v>38656</v>
       </c>
       <c r="B35" s="3">
         <v>101.1108</v>
@@ -76758,7 +76756,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>38666</v>
+        <v>38686</v>
       </c>
       <c r="B36" s="3">
         <v>101.2266</v>
@@ -76772,7 +76770,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>38696</v>
+        <v>38717</v>
       </c>
       <c r="B37" s="3">
         <v>101.2461</v>
@@ -76786,7 +76784,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>38727</v>
+        <v>38748</v>
       </c>
       <c r="B38" s="3">
         <v>101.1679</v>
@@ -76800,7 +76798,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>38758</v>
+        <v>38776</v>
       </c>
       <c r="B39" s="3">
         <v>101.01479999999999</v>
@@ -76814,7 +76812,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <v>38786</v>
+        <v>38807</v>
       </c>
       <c r="B40" s="3">
         <v>100.8165</v>
@@ -76828,7 +76826,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <v>38817</v>
+        <v>38837</v>
       </c>
       <c r="B41" s="3">
         <v>100.6066</v>
@@ -76842,7 +76840,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <v>38847</v>
+        <v>38868</v>
       </c>
       <c r="B42" s="3">
         <v>100.414</v>
@@ -76856,7 +76854,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <v>38878</v>
+        <v>38898</v>
       </c>
       <c r="B43" s="3">
         <v>100.2779</v>
@@ -76870,7 +76868,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>38908</v>
+        <v>38929</v>
       </c>
       <c r="B44" s="3">
         <v>100.2396</v>
@@ -76884,7 +76882,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>38939</v>
+        <v>38960</v>
       </c>
       <c r="B45" s="3">
         <v>100.295</v>
@@ -76898,7 +76896,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>38970</v>
+        <v>38990</v>
       </c>
       <c r="B46" s="3">
         <v>100.3817</v>
@@ -76912,7 +76910,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>39000</v>
+        <v>39021</v>
       </c>
       <c r="B47" s="3">
         <v>100.4491</v>
@@ -76926,7 +76924,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>39031</v>
+        <v>39051</v>
       </c>
       <c r="B48" s="3">
         <v>100.47629999999999</v>
@@ -76940,7 +76938,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>39061</v>
+        <v>39082</v>
       </c>
       <c r="B49" s="3">
         <v>100.4824</v>
@@ -76954,7 +76952,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>39092</v>
+        <v>39113</v>
       </c>
       <c r="B50" s="3">
         <v>100.50620000000001</v>
@@ -76968,7 +76966,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>39123</v>
+        <v>39141</v>
       </c>
       <c r="B51" s="3">
         <v>100.5762</v>
@@ -76982,7 +76980,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>39151</v>
+        <v>39172</v>
       </c>
       <c r="B52" s="3">
         <v>100.69410000000001</v>
@@ -76996,7 +76994,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>39182</v>
+        <v>39202</v>
       </c>
       <c r="B53" s="3">
         <v>100.8634</v>
@@ -77010,7 +77008,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>39212</v>
+        <v>39233</v>
       </c>
       <c r="B54" s="3">
         <v>101.05670000000001</v>
@@ -77024,7 +77022,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>39243</v>
+        <v>39263</v>
       </c>
       <c r="B55" s="3">
         <v>101.23650000000001</v>
@@ -77038,7 +77036,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>39273</v>
+        <v>39294</v>
       </c>
       <c r="B56" s="3">
         <v>101.3567</v>
@@ -77052,7 +77050,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>39304</v>
+        <v>39325</v>
       </c>
       <c r="B57" s="3">
         <v>101.3687</v>
@@ -77066,7 +77064,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>39335</v>
+        <v>39355</v>
       </c>
       <c r="B58" s="3">
         <v>101.25920000000001</v>
@@ -77080,7 +77078,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>39365</v>
+        <v>39386</v>
       </c>
       <c r="B59" s="3">
         <v>101.0133</v>
@@ -77094,7 +77092,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>39396</v>
+        <v>39416</v>
       </c>
       <c r="B60" s="3">
         <v>100.64239999999999</v>
@@ -77108,7 +77106,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>39426</v>
+        <v>39447</v>
       </c>
       <c r="B61" s="3">
         <v>100.182</v>
@@ -77122,7 +77120,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>39457</v>
+        <v>39478</v>
       </c>
       <c r="B62" s="3">
         <v>99.675629999999998</v>
@@ -77136,7 +77134,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>39488</v>
+        <v>39507</v>
       </c>
       <c r="B63" s="3">
         <v>99.160399999999996</v>
@@ -77150,7 +77148,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>39517</v>
+        <v>39538</v>
       </c>
       <c r="B64" s="3">
         <v>98.666600000000003</v>
@@ -77164,7 +77162,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>39548</v>
+        <v>39568</v>
       </c>
       <c r="B65" s="3">
         <v>98.204740000000001</v>
@@ -77178,7 +77176,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>39578</v>
+        <v>39599</v>
       </c>
       <c r="B66" s="3">
         <v>97.77722</v>
@@ -77192,7 +77190,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>39609</v>
+        <v>39629</v>
       </c>
       <c r="B67" s="3">
         <v>97.389099999999999</v>
@@ -77206,7 +77204,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>39639</v>
+        <v>39660</v>
       </c>
       <c r="B68" s="3">
         <v>97.067629999999994</v>
@@ -77220,7 +77218,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>39670</v>
+        <v>39691</v>
       </c>
       <c r="B69" s="3">
         <v>96.813059999999993</v>
@@ -77234,7 +77232,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>39701</v>
+        <v>39721</v>
       </c>
       <c r="B70" s="3">
         <v>96.619</v>
@@ -77248,7 +77246,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>39731</v>
+        <v>39752</v>
       </c>
       <c r="B71" s="3">
         <v>96.522760000000005</v>
@@ -77262,7 +77260,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>39762</v>
+        <v>39782</v>
       </c>
       <c r="B72" s="3">
         <v>96.616780000000006</v>
@@ -77276,7 +77274,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>39792</v>
+        <v>39813</v>
       </c>
       <c r="B73" s="3">
         <v>96.958089999999999</v>
@@ -77290,7 +77288,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>39823</v>
+        <v>39844</v>
       </c>
       <c r="B74" s="3">
         <v>97.553359999999998</v>
@@ -77304,7 +77302,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>39854</v>
+        <v>39872</v>
       </c>
       <c r="B75" s="3">
         <v>98.346850000000003</v>
@@ -77318,7 +77316,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>39882</v>
+        <v>39903</v>
       </c>
       <c r="B76" s="3">
         <v>99.20438</v>
@@ -77332,7 +77330,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>39913</v>
+        <v>39933</v>
       </c>
       <c r="B77" s="3">
         <v>100.0411</v>
@@ -77346,7 +77344,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>39943</v>
+        <v>39964</v>
       </c>
       <c r="B78" s="3">
         <v>100.7863</v>
@@ -77360,7 +77358,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>39974</v>
+        <v>39994</v>
       </c>
       <c r="B79" s="3">
         <v>101.4267</v>
@@ -77374,7 +77372,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>40004</v>
+        <v>40025</v>
       </c>
       <c r="B80" s="3">
         <v>101.96720000000001</v>
@@ -77388,7 +77386,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>40035</v>
+        <v>40056</v>
       </c>
       <c r="B81" s="3">
         <v>102.39149999999999</v>
@@ -77402,7 +77400,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>40066</v>
+        <v>40086</v>
       </c>
       <c r="B82" s="3">
         <v>102.678</v>
@@ -77416,7 +77414,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>40096</v>
+        <v>40117</v>
       </c>
       <c r="B83" s="3">
         <v>102.81910000000001</v>
@@ -77430,7 +77428,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>40127</v>
+        <v>40147</v>
       </c>
       <c r="B84" s="3">
         <v>102.84229999999999</v>
@@ -77444,7 +77442,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>40157</v>
+        <v>40178</v>
       </c>
       <c r="B85" s="3">
         <v>102.7709</v>
@@ -77458,7 +77456,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>40188</v>
+        <v>40209</v>
       </c>
       <c r="B86" s="3">
         <v>102.6305</v>
@@ -77472,7 +77470,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>40219</v>
+        <v>40237</v>
       </c>
       <c r="B87" s="3">
         <v>102.45310000000001</v>
@@ -77486,7 +77484,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>40247</v>
+        <v>40268</v>
       </c>
       <c r="B88" s="3">
         <v>102.2698</v>
@@ -77500,7 +77498,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>40278</v>
+        <v>40298</v>
       </c>
       <c r="B89" s="3">
         <v>102.0879</v>
@@ -77514,7 +77512,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>40308</v>
+        <v>40329</v>
       </c>
       <c r="B90" s="3">
         <v>101.9051</v>
@@ -77528,7 +77526,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>40339</v>
+        <v>40359</v>
       </c>
       <c r="B91" s="3">
         <v>101.7152</v>
@@ -77542,7 +77540,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>40369</v>
+        <v>40390</v>
       </c>
       <c r="B92" s="3">
         <v>101.51179999999999</v>
@@ -77556,7 +77554,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>40400</v>
+        <v>40421</v>
       </c>
       <c r="B93" s="3">
         <v>101.30459999999999</v>
@@ -77570,7 +77568,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>40431</v>
+        <v>40451</v>
       </c>
       <c r="B94" s="3">
         <v>101.10980000000001</v>
@@ -77584,7 +77582,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>40461</v>
+        <v>40482</v>
       </c>
       <c r="B95" s="3">
         <v>100.9585</v>
@@ -77598,7 +77596,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>40492</v>
+        <v>40512</v>
       </c>
       <c r="B96" s="3">
         <v>100.8772</v>
@@ -77612,7 +77610,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>40522</v>
+        <v>40543</v>
       </c>
       <c r="B97" s="3">
         <v>100.8588</v>
@@ -77626,7 +77624,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>40553</v>
+        <v>40574</v>
       </c>
       <c r="B98" s="3">
         <v>100.8746</v>
@@ -77640,7 +77638,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>40584</v>
+        <v>40602</v>
       </c>
       <c r="B99" s="3">
         <v>100.8524</v>
@@ -77654,7 +77652,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>40612</v>
+        <v>40633</v>
       </c>
       <c r="B100" s="3">
         <v>100.74339999999999</v>
@@ -77668,7 +77666,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>40643</v>
+        <v>40663</v>
       </c>
       <c r="B101" s="3">
         <v>100.551</v>
@@ -77682,7 +77680,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>40673</v>
+        <v>40694</v>
       </c>
       <c r="B102" s="3">
         <v>100.2873</v>
@@ -77696,7 +77694,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>40704</v>
+        <v>40724</v>
       </c>
       <c r="B103" s="3">
         <v>99.977710000000002</v>
@@ -77710,7 +77708,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>40734</v>
+        <v>40755</v>
       </c>
       <c r="B104" s="3">
         <v>99.652240000000006</v>
@@ -77724,7 +77722,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>40765</v>
+        <v>40786</v>
       </c>
       <c r="B105" s="3">
         <v>99.320229999999995</v>
@@ -77738,7 +77736,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>40796</v>
+        <v>40816</v>
       </c>
       <c r="B106" s="3">
         <v>99.008870000000002</v>
@@ -77752,7 +77750,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>40826</v>
+        <v>40847</v>
       </c>
       <c r="B107" s="3">
         <v>98.742739999999998</v>
@@ -77766,7 +77764,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>40857</v>
+        <v>40877</v>
       </c>
       <c r="B108" s="3">
         <v>98.549850000000006</v>
@@ -77780,7 +77778,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>40887</v>
+        <v>40908</v>
       </c>
       <c r="B109" s="3">
         <v>98.464860000000002</v>
@@ -77794,7 +77792,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>40918</v>
+        <v>40939</v>
       </c>
       <c r="B110" s="3">
         <v>98.488169999999997</v>
@@ -77808,7 +77806,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>40949</v>
+        <v>40968</v>
       </c>
       <c r="B111" s="3">
         <v>98.586129999999997</v>
@@ -77822,7 +77820,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>40978</v>
+        <v>40999</v>
       </c>
       <c r="B112" s="3">
         <v>98.704030000000003</v>
@@ -77836,7 +77834,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>41009</v>
+        <v>41029</v>
       </c>
       <c r="B113" s="3">
         <v>98.812119999999993</v>
@@ -77850,7 +77848,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>41039</v>
+        <v>41060</v>
       </c>
       <c r="B114" s="3">
         <v>98.885739999999998</v>
@@ -77864,7 +77862,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>41070</v>
+        <v>41090</v>
       </c>
       <c r="B115" s="3">
         <v>98.922539999999998</v>
@@ -77878,7 +77876,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>41100</v>
+        <v>41121</v>
       </c>
       <c r="B116" s="3">
         <v>98.92998</v>
@@ -77892,7 +77890,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>41131</v>
+        <v>41152</v>
       </c>
       <c r="B117" s="3">
         <v>98.938100000000006</v>
@@ -77906,7 +77904,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>41162</v>
+        <v>41182</v>
       </c>
       <c r="B118" s="3">
         <v>98.965990000000005</v>
@@ -77920,7 +77918,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>41192</v>
+        <v>41213</v>
       </c>
       <c r="B119" s="3">
         <v>99.010090000000005</v>
@@ -77934,7 +77932,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>41223</v>
+        <v>41243</v>
       </c>
       <c r="B120" s="3">
         <v>99.07105</v>
@@ -77948,7 +77946,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>41253</v>
+        <v>41274</v>
       </c>
       <c r="B121" s="3">
         <v>99.155820000000006</v>
@@ -77962,7 +77960,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>41284</v>
+        <v>41305</v>
       </c>
       <c r="B122" s="3">
         <v>99.257570000000001</v>
@@ -77976,7 +77974,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>41315</v>
+        <v>41333</v>
       </c>
       <c r="B123" s="3">
         <v>99.384429999999995</v>
@@ -77990,7 +77988,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>41343</v>
+        <v>41364</v>
       </c>
       <c r="B124" s="3">
         <v>99.53922</v>
@@ -78004,7 +78002,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>41374</v>
+        <v>41394</v>
       </c>
       <c r="B125" s="3">
         <v>99.684460000000001</v>
@@ -78018,7 +78016,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>41404</v>
+        <v>41425</v>
       </c>
       <c r="B126" s="3">
         <v>99.791179999999997</v>
@@ -78032,7 +78030,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>41435</v>
+        <v>41455</v>
       </c>
       <c r="B127" s="3">
         <v>99.842730000000003</v>
@@ -78046,7 +78044,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
-        <v>41465</v>
+        <v>41486</v>
       </c>
       <c r="B128" s="3">
         <v>99.839230000000001</v>
@@ -78060,7 +78058,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
-        <v>41496</v>
+        <v>41517</v>
       </c>
       <c r="B129" s="3">
         <v>99.807990000000004</v>
@@ -78074,7 +78072,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>41527</v>
+        <v>41547</v>
       </c>
       <c r="B130" s="3">
         <v>99.761840000000007</v>
@@ -78088,7 +78086,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>41557</v>
+        <v>41578</v>
       </c>
       <c r="B131" s="3">
         <v>99.72681</v>
@@ -78102,7 +78100,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>41588</v>
+        <v>41608</v>
       </c>
       <c r="B132" s="3">
         <v>99.709639999999993</v>
@@ -78116,7 +78114,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
-        <v>41618</v>
+        <v>41639</v>
       </c>
       <c r="B133" s="3">
         <v>99.71011</v>
@@ -78130,7 +78128,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>41649</v>
+        <v>41670</v>
       </c>
       <c r="B134" s="3">
         <v>99.715289999999996</v>
@@ -78144,7 +78142,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
-        <v>41680</v>
+        <v>41698</v>
       </c>
       <c r="B135" s="3">
         <v>99.706100000000006</v>
@@ -78158,7 +78156,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>41708</v>
+        <v>41729</v>
       </c>
       <c r="B136" s="3">
         <v>99.675899999999999</v>
@@ -78172,7 +78170,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
-        <v>41739</v>
+        <v>41759</v>
       </c>
       <c r="B137" s="3">
         <v>99.626549999999995</v>
@@ -78186,7 +78184,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>41769</v>
+        <v>41790</v>
       </c>
       <c r="B138" s="3">
         <v>99.574780000000004</v>
@@ -78200,7 +78198,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
-        <v>41800</v>
+        <v>41820</v>
       </c>
       <c r="B139" s="3">
         <v>99.546809999999994</v>
@@ -78214,7 +78212,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>41830</v>
+        <v>41851</v>
       </c>
       <c r="B140" s="3">
         <v>99.56908</v>
@@ -78228,7 +78226,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>41861</v>
+        <v>41882</v>
       </c>
       <c r="B141" s="3">
         <v>99.653059999999996</v>
@@ -78242,7 +78240,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
-        <v>41892</v>
+        <v>41912</v>
       </c>
       <c r="B142" s="3">
         <v>99.79128</v>
@@ -78256,7 +78254,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>41922</v>
+        <v>41943</v>
       </c>
       <c r="B143" s="3">
         <v>99.969480000000004</v>
@@ -78270,7 +78268,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>41953</v>
+        <v>41973</v>
       </c>
       <c r="B144" s="3">
         <v>100.16249999999999</v>
@@ -78284,7 +78282,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>41983</v>
+        <v>42004</v>
       </c>
       <c r="B145" s="3">
         <v>100.3293</v>
@@ -78298,7 +78296,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
-        <v>42014</v>
+        <v>42035</v>
       </c>
       <c r="B146" s="3">
         <v>100.44329999999999</v>
@@ -78312,7 +78310,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
-        <v>42045</v>
+        <v>42063</v>
       </c>
       <c r="B147" s="3">
         <v>100.5167</v>
@@ -78326,7 +78324,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
-        <v>42073</v>
+        <v>42094</v>
       </c>
       <c r="B148" s="3">
         <v>100.5586</v>
@@ -78340,7 +78338,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
-        <v>42104</v>
+        <v>42124</v>
       </c>
       <c r="B149" s="3">
         <v>100.57299999999999</v>
@@ -78354,7 +78352,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
-        <v>42134</v>
+        <v>42155</v>
       </c>
       <c r="B150" s="3">
         <v>100.5664</v>
@@ -78368,7 +78366,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
-        <v>42165</v>
+        <v>42185</v>
       </c>
       <c r="B151" s="3">
         <v>100.55</v>
@@ -78382,7 +78380,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
-        <v>42195</v>
+        <v>42216</v>
       </c>
       <c r="B152" s="3">
         <v>100.54900000000001</v>
@@ -78396,7 +78394,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
-        <v>42226</v>
+        <v>42247</v>
       </c>
       <c r="B153" s="3">
         <v>100.5577</v>
@@ -78410,7 +78408,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
-        <v>42257</v>
+        <v>42277</v>
       </c>
       <c r="B154" s="3">
         <v>100.5702</v>
@@ -78424,7 +78422,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
-        <v>42287</v>
+        <v>42308</v>
       </c>
       <c r="B155" s="3">
         <v>100.5658</v>
@@ -78438,7 +78436,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
-        <v>42318</v>
+        <v>42338</v>
       </c>
       <c r="B156" s="3">
         <v>100.5316</v>
@@ -78452,7 +78450,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
-        <v>42348</v>
+        <v>42369</v>
       </c>
       <c r="B157" s="3">
         <v>100.4717</v>
@@ -78466,7 +78464,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
-        <v>42379</v>
+        <v>42400</v>
       </c>
       <c r="B158" s="3">
         <v>100.4063</v>
@@ -78480,7 +78478,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
-        <v>42410</v>
+        <v>42429</v>
       </c>
       <c r="B159" s="3">
         <v>100.364</v>
@@ -78494,7 +78492,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
-        <v>42439</v>
+        <v>42460</v>
       </c>
       <c r="B160" s="3">
         <v>100.3584</v>
@@ -78508,7 +78506,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
-        <v>42470</v>
+        <v>42490</v>
       </c>
       <c r="B161" s="3">
         <v>100.3873</v>
@@ -78522,7 +78520,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
-        <v>42500</v>
+        <v>42521</v>
       </c>
       <c r="B162" s="3">
         <v>100.44970000000001</v>
@@ -78536,7 +78534,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
-        <v>42531</v>
+        <v>42551</v>
       </c>
       <c r="B163" s="3">
         <v>100.54259999999999</v>
@@ -78550,7 +78548,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
-        <v>42561</v>
+        <v>42582</v>
       </c>
       <c r="B164" s="3">
         <v>100.6601</v>
@@ -78564,7 +78562,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
-        <v>42592</v>
+        <v>42613</v>
       </c>
       <c r="B165" s="3">
         <v>100.7886</v>
@@ -78578,7 +78576,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
-        <v>42623</v>
+        <v>42643</v>
       </c>
       <c r="B166" s="3">
         <v>100.9038</v>
@@ -78592,7 +78590,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
-        <v>42653</v>
+        <v>42674</v>
       </c>
       <c r="B167" s="3">
         <v>100.9986</v>
@@ -78606,7 +78604,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
-        <v>42684</v>
+        <v>42704</v>
       </c>
       <c r="B168" s="3">
         <v>101.0942</v>
@@ -78620,7 +78618,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
-        <v>42714</v>
+        <v>42735</v>
       </c>
       <c r="B169" s="3">
         <v>101.20740000000001</v>
@@ -78634,7 +78632,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
-        <v>42745</v>
+        <v>42766</v>
       </c>
       <c r="B170" s="3">
         <v>101.3353</v>
@@ -78648,7 +78646,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
-        <v>42776</v>
+        <v>42794</v>
       </c>
       <c r="B171" s="3">
         <v>101.4567</v>
@@ -78662,7 +78660,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
-        <v>42804</v>
+        <v>42825</v>
       </c>
       <c r="B172" s="3">
         <v>101.5485</v>
@@ -78676,7 +78674,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
-        <v>42835</v>
+        <v>42855</v>
       </c>
       <c r="B173" s="3">
         <v>101.5954</v>
@@ -78690,7 +78688,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
-        <v>42865</v>
+        <v>42886</v>
       </c>
       <c r="B174" s="3">
         <v>101.5938</v>
@@ -78704,7 +78702,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
-        <v>42896</v>
+        <v>42916</v>
       </c>
       <c r="B175" s="3">
         <v>101.554</v>
@@ -78718,7 +78716,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
-        <v>42926</v>
+        <v>42947</v>
       </c>
       <c r="B176" s="3">
         <v>101.4774</v>
@@ -78732,7 +78730,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
-        <v>42957</v>
+        <v>42978</v>
       </c>
       <c r="B177" s="3">
         <v>101.3719</v>
@@ -78746,7 +78744,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
-        <v>42988</v>
+        <v>43008</v>
       </c>
       <c r="B178" s="3">
         <v>101.2448</v>
@@ -78760,7 +78758,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
-        <v>43018</v>
+        <v>43039</v>
       </c>
       <c r="B179" s="3">
         <v>101.10550000000001</v>
@@ -78774,7 +78772,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
-        <v>43049</v>
+        <v>43069</v>
       </c>
       <c r="B180" s="3">
         <v>100.9427</v>
@@ -78788,7 +78786,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
-        <v>43079</v>
+        <v>43100</v>
       </c>
       <c r="B181" s="3">
         <v>100.7624</v>
@@ -78802,7 +78800,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
-        <v>43110</v>
+        <v>43131</v>
       </c>
       <c r="B182" s="3">
         <v>100.58150000000001</v>
@@ -78816,7 +78814,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
-        <v>43141</v>
+        <v>43159</v>
       </c>
       <c r="B183" s="3">
         <v>100.4019</v>
@@ -78830,7 +78828,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
-        <v>43169</v>
+        <v>43190</v>
       </c>
       <c r="B184" s="3">
         <v>100.2208</v>
@@ -78844,7 +78842,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
-        <v>43200</v>
+        <v>43220</v>
       </c>
       <c r="B185" s="3">
         <v>100.0484</v>
@@ -78858,7 +78856,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
-        <v>43230</v>
+        <v>43251</v>
       </c>
       <c r="B186" s="3">
         <v>99.881050000000002</v>
@@ -78872,7 +78870,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
-        <v>43261</v>
+        <v>43281</v>
       </c>
       <c r="B187" s="3">
         <v>99.712320000000005</v>
@@ -78886,7 +78884,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
-        <v>43291</v>
+        <v>43312</v>
       </c>
       <c r="B188" s="3">
         <v>99.555729999999997</v>
@@ -78900,7 +78898,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
-        <v>43322</v>
+        <v>43343</v>
       </c>
       <c r="B189" s="3">
         <v>99.414510000000007</v>
@@ -78914,7 +78912,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
-        <v>43353</v>
+        <v>43373</v>
       </c>
       <c r="B190" s="3">
         <v>99.283789999999996</v>
@@ -78928,7 +78926,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
-        <v>43383</v>
+        <v>43404</v>
       </c>
       <c r="B191" s="3">
         <v>99.166079999999994</v>
@@ -78942,7 +78940,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
-        <v>43414</v>
+        <v>43434</v>
       </c>
       <c r="B192" s="3">
         <v>99.075310000000002</v>
@@ -78956,7 +78954,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
-        <v>43444</v>
+        <v>43465</v>
       </c>
       <c r="B193" s="3">
         <v>99.022019999999998</v>
@@ -78970,7 +78968,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
-        <v>43475</v>
+        <v>43496</v>
       </c>
       <c r="B194" s="3">
         <v>98.998180000000005</v>
@@ -78984,7 +78982,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
-        <v>43506</v>
+        <v>43524</v>
       </c>
       <c r="B195" s="3">
         <v>98.994450000000001</v>
@@ -78998,7 +78996,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
-        <v>43534</v>
+        <v>43555</v>
       </c>
       <c r="B196" s="3">
         <v>98.990889999999993</v>
@@ -79012,7 +79010,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
-        <v>43565</v>
+        <v>43585</v>
       </c>
       <c r="C197" s="3">
         <v>74</v>
@@ -79023,13 +79021,21 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
-        <v>43595</v>
+        <v>43616</v>
       </c>
       <c r="C198" s="3">
         <v>73</v>
       </c>
       <c r="D198" s="3">
         <v>91.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="4">
+        <v>43646</v>
+      </c>
+      <c r="D199" s="3">
+        <v>92.4</v>
       </c>
     </row>
   </sheetData>

--- a/X. Visualization/test_timeseries.xlsx
+++ b/X. Visualization/test_timeseries.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="macro" sheetId="2" r:id="rId2"/>
+    <sheet name="price" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>long</t>
   </si>
@@ -49,6 +50,36 @@
   <si>
     <t>ESI</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A000030</t>
+  </si>
+  <si>
+    <t>A000050</t>
+  </si>
+  <si>
+    <t>A000060</t>
+  </si>
+  <si>
+    <t>A000070</t>
+  </si>
+  <si>
+    <t>A000080</t>
+  </si>
+  <si>
+    <t>A000100</t>
+  </si>
+  <si>
+    <t>A000120</t>
+  </si>
+  <si>
+    <t>A000150</t>
+  </si>
+  <si>
+    <t>A000210</t>
+  </si>
+  <si>
+    <t>A000240</t>
   </si>
 </sst>
 </file>
@@ -76289,7 +76320,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -79042,4 +79075,8595 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K245"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B2">
+        <v>15900</v>
+      </c>
+      <c r="C2">
+        <v>13850</v>
+      </c>
+      <c r="D2">
+        <v>23350</v>
+      </c>
+      <c r="E2">
+        <v>121500</v>
+      </c>
+      <c r="F2">
+        <v>24400</v>
+      </c>
+      <c r="G2">
+        <v>207651</v>
+      </c>
+      <c r="H2">
+        <v>144000</v>
+      </c>
+      <c r="I2">
+        <v>113500</v>
+      </c>
+      <c r="J2">
+        <v>81800</v>
+      </c>
+      <c r="K2">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B3">
+        <v>15800</v>
+      </c>
+      <c r="C3">
+        <v>13750</v>
+      </c>
+      <c r="D3">
+        <v>23350</v>
+      </c>
+      <c r="E3">
+        <v>123500</v>
+      </c>
+      <c r="F3">
+        <v>24800</v>
+      </c>
+      <c r="G3">
+        <v>206215</v>
+      </c>
+      <c r="H3">
+        <v>145000</v>
+      </c>
+      <c r="I3">
+        <v>115000</v>
+      </c>
+      <c r="J3">
+        <v>81600</v>
+      </c>
+      <c r="K3">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B4">
+        <v>15650</v>
+      </c>
+      <c r="C4">
+        <v>13750</v>
+      </c>
+      <c r="D4">
+        <v>22700</v>
+      </c>
+      <c r="E4">
+        <v>122000</v>
+      </c>
+      <c r="F4">
+        <v>24550</v>
+      </c>
+      <c r="G4">
+        <v>203345</v>
+      </c>
+      <c r="H4">
+        <v>145000</v>
+      </c>
+      <c r="I4">
+        <v>119000</v>
+      </c>
+      <c r="J4">
+        <v>84700</v>
+      </c>
+      <c r="K4">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>43105</v>
+      </c>
+      <c r="B5">
+        <v>15750</v>
+      </c>
+      <c r="C5">
+        <v>13550</v>
+      </c>
+      <c r="D5">
+        <v>23250</v>
+      </c>
+      <c r="E5">
+        <v>129500</v>
+      </c>
+      <c r="F5">
+        <v>24400</v>
+      </c>
+      <c r="G5">
+        <v>208129</v>
+      </c>
+      <c r="H5">
+        <v>141500</v>
+      </c>
+      <c r="I5">
+        <v>117500</v>
+      </c>
+      <c r="J5">
+        <v>84200</v>
+      </c>
+      <c r="K5">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>43108</v>
+      </c>
+      <c r="B6">
+        <v>16300</v>
+      </c>
+      <c r="C6">
+        <v>13450</v>
+      </c>
+      <c r="D6">
+        <v>23000</v>
+      </c>
+      <c r="E6">
+        <v>129000</v>
+      </c>
+      <c r="F6">
+        <v>23850</v>
+      </c>
+      <c r="G6">
+        <v>205737</v>
+      </c>
+      <c r="H6">
+        <v>139000</v>
+      </c>
+      <c r="I6">
+        <v>115000</v>
+      </c>
+      <c r="J6">
+        <v>85000</v>
+      </c>
+      <c r="K6">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>43109</v>
+      </c>
+      <c r="B7">
+        <v>16650</v>
+      </c>
+      <c r="C7">
+        <v>13600</v>
+      </c>
+      <c r="D7">
+        <v>23150</v>
+      </c>
+      <c r="E7">
+        <v>128500</v>
+      </c>
+      <c r="F7">
+        <v>24500</v>
+      </c>
+      <c r="G7">
+        <v>211000</v>
+      </c>
+      <c r="H7">
+        <v>139500</v>
+      </c>
+      <c r="I7">
+        <v>119000</v>
+      </c>
+      <c r="J7">
+        <v>85800</v>
+      </c>
+      <c r="K7">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B8">
+        <v>16800</v>
+      </c>
+      <c r="C8">
+        <v>13600</v>
+      </c>
+      <c r="D8">
+        <v>22850</v>
+      </c>
+      <c r="E8">
+        <v>129000</v>
+      </c>
+      <c r="F8">
+        <v>24800</v>
+      </c>
+      <c r="G8">
+        <v>209565</v>
+      </c>
+      <c r="H8">
+        <v>139000</v>
+      </c>
+      <c r="I8">
+        <v>125000</v>
+      </c>
+      <c r="J8">
+        <v>87200</v>
+      </c>
+      <c r="K8">
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>43111</v>
+      </c>
+      <c r="B9">
+        <v>16950</v>
+      </c>
+      <c r="C9">
+        <v>13750</v>
+      </c>
+      <c r="D9">
+        <v>23600</v>
+      </c>
+      <c r="E9">
+        <v>125000</v>
+      </c>
+      <c r="F9">
+        <v>24900</v>
+      </c>
+      <c r="G9">
+        <v>210043</v>
+      </c>
+      <c r="H9">
+        <v>139500</v>
+      </c>
+      <c r="I9">
+        <v>126000</v>
+      </c>
+      <c r="J9">
+        <v>86200</v>
+      </c>
+      <c r="K9">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B10">
+        <v>17150</v>
+      </c>
+      <c r="C10">
+        <v>13900</v>
+      </c>
+      <c r="D10">
+        <v>23650</v>
+      </c>
+      <c r="E10">
+        <v>127000</v>
+      </c>
+      <c r="F10">
+        <v>24500</v>
+      </c>
+      <c r="G10">
+        <v>217220</v>
+      </c>
+      <c r="H10">
+        <v>138000</v>
+      </c>
+      <c r="I10">
+        <v>127000</v>
+      </c>
+      <c r="J10">
+        <v>85400</v>
+      </c>
+      <c r="K10">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B11">
+        <v>16850</v>
+      </c>
+      <c r="C11">
+        <v>14100</v>
+      </c>
+      <c r="D11">
+        <v>24450</v>
+      </c>
+      <c r="E11">
+        <v>125500</v>
+      </c>
+      <c r="F11">
+        <v>22900</v>
+      </c>
+      <c r="G11">
+        <v>217698</v>
+      </c>
+      <c r="H11">
+        <v>137000</v>
+      </c>
+      <c r="I11">
+        <v>125500</v>
+      </c>
+      <c r="J11">
+        <v>86200</v>
+      </c>
+      <c r="K11">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B12">
+        <v>16450</v>
+      </c>
+      <c r="C12">
+        <v>14150</v>
+      </c>
+      <c r="D12">
+        <v>24450</v>
+      </c>
+      <c r="E12">
+        <v>125000</v>
+      </c>
+      <c r="F12">
+        <v>23550</v>
+      </c>
+      <c r="G12">
+        <v>218655</v>
+      </c>
+      <c r="H12">
+        <v>138000</v>
+      </c>
+      <c r="I12">
+        <v>121000</v>
+      </c>
+      <c r="J12">
+        <v>84000</v>
+      </c>
+      <c r="K12">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B13">
+        <v>16800</v>
+      </c>
+      <c r="C13">
+        <v>13800</v>
+      </c>
+      <c r="D13">
+        <v>24100</v>
+      </c>
+      <c r="E13">
+        <v>122500</v>
+      </c>
+      <c r="F13">
+        <v>23200</v>
+      </c>
+      <c r="G13">
+        <v>215785</v>
+      </c>
+      <c r="H13">
+        <v>135500</v>
+      </c>
+      <c r="I13">
+        <v>122000</v>
+      </c>
+      <c r="J13">
+        <v>84400</v>
+      </c>
+      <c r="K13">
+        <v>19350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B14">
+        <v>16500</v>
+      </c>
+      <c r="C14">
+        <v>13750</v>
+      </c>
+      <c r="D14">
+        <v>24000</v>
+      </c>
+      <c r="E14">
+        <v>124000</v>
+      </c>
+      <c r="F14">
+        <v>23000</v>
+      </c>
+      <c r="G14">
+        <v>217220</v>
+      </c>
+      <c r="H14">
+        <v>134000</v>
+      </c>
+      <c r="I14">
+        <v>116500</v>
+      </c>
+      <c r="J14">
+        <v>84000</v>
+      </c>
+      <c r="K14">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B15">
+        <v>16750</v>
+      </c>
+      <c r="C15">
+        <v>13700</v>
+      </c>
+      <c r="D15">
+        <v>24000</v>
+      </c>
+      <c r="E15">
+        <v>125000</v>
+      </c>
+      <c r="F15">
+        <v>22900</v>
+      </c>
+      <c r="G15">
+        <v>212435</v>
+      </c>
+      <c r="H15">
+        <v>135000</v>
+      </c>
+      <c r="I15">
+        <v>117500</v>
+      </c>
+      <c r="J15">
+        <v>85600</v>
+      </c>
+      <c r="K15">
+        <v>19450</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B16">
+        <v>16650</v>
+      </c>
+      <c r="C16">
+        <v>13650</v>
+      </c>
+      <c r="D16">
+        <v>23900</v>
+      </c>
+      <c r="E16">
+        <v>121500</v>
+      </c>
+      <c r="F16">
+        <v>22900</v>
+      </c>
+      <c r="G16">
+        <v>214349</v>
+      </c>
+      <c r="H16">
+        <v>135000</v>
+      </c>
+      <c r="I16">
+        <v>116000</v>
+      </c>
+      <c r="J16">
+        <v>86200</v>
+      </c>
+      <c r="K16">
+        <v>19550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B17">
+        <v>17200</v>
+      </c>
+      <c r="C17">
+        <v>13850</v>
+      </c>
+      <c r="D17">
+        <v>23950</v>
+      </c>
+      <c r="E17">
+        <v>121500</v>
+      </c>
+      <c r="F17">
+        <v>23050</v>
+      </c>
+      <c r="G17">
+        <v>213871</v>
+      </c>
+      <c r="H17">
+        <v>134000</v>
+      </c>
+      <c r="I17">
+        <v>115500</v>
+      </c>
+      <c r="J17">
+        <v>87000</v>
+      </c>
+      <c r="K17">
+        <v>19450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B18">
+        <v>17000</v>
+      </c>
+      <c r="C18">
+        <v>14200</v>
+      </c>
+      <c r="D18">
+        <v>23850</v>
+      </c>
+      <c r="E18">
+        <v>123000</v>
+      </c>
+      <c r="F18">
+        <v>23450</v>
+      </c>
+      <c r="G18">
+        <v>208608</v>
+      </c>
+      <c r="H18">
+        <v>134000</v>
+      </c>
+      <c r="I18">
+        <v>113500</v>
+      </c>
+      <c r="J18">
+        <v>87000</v>
+      </c>
+      <c r="K18">
+        <v>19850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B19">
+        <v>16900</v>
+      </c>
+      <c r="C19">
+        <v>14650</v>
+      </c>
+      <c r="D19">
+        <v>23700</v>
+      </c>
+      <c r="E19">
+        <v>117500</v>
+      </c>
+      <c r="F19">
+        <v>23000</v>
+      </c>
+      <c r="G19">
+        <v>209565</v>
+      </c>
+      <c r="H19">
+        <v>134000</v>
+      </c>
+      <c r="I19">
+        <v>116500</v>
+      </c>
+      <c r="J19">
+        <v>89400</v>
+      </c>
+      <c r="K19">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B20">
+        <v>17000</v>
+      </c>
+      <c r="C20">
+        <v>14900</v>
+      </c>
+      <c r="D20">
+        <v>23950</v>
+      </c>
+      <c r="E20">
+        <v>121500</v>
+      </c>
+      <c r="F20">
+        <v>23300</v>
+      </c>
+      <c r="G20">
+        <v>211478</v>
+      </c>
+      <c r="H20">
+        <v>136000</v>
+      </c>
+      <c r="I20">
+        <v>115000</v>
+      </c>
+      <c r="J20">
+        <v>81200</v>
+      </c>
+      <c r="K20">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B21">
+        <v>17050</v>
+      </c>
+      <c r="C21">
+        <v>14450</v>
+      </c>
+      <c r="D21">
+        <v>24800</v>
+      </c>
+      <c r="E21">
+        <v>123000</v>
+      </c>
+      <c r="F21">
+        <v>23500</v>
+      </c>
+      <c r="G21">
+        <v>220569</v>
+      </c>
+      <c r="H21">
+        <v>140500</v>
+      </c>
+      <c r="I21">
+        <v>118500</v>
+      </c>
+      <c r="J21">
+        <v>81400</v>
+      </c>
+      <c r="K21">
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B22">
+        <v>16950</v>
+      </c>
+      <c r="C22">
+        <v>14650</v>
+      </c>
+      <c r="D22">
+        <v>24600</v>
+      </c>
+      <c r="E22">
+        <v>145500</v>
+      </c>
+      <c r="F22">
+        <v>23200</v>
+      </c>
+      <c r="G22">
+        <v>223918</v>
+      </c>
+      <c r="H22">
+        <v>144500</v>
+      </c>
+      <c r="I22">
+        <v>118500</v>
+      </c>
+      <c r="J22">
+        <v>82400</v>
+      </c>
+      <c r="K22">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B23">
+        <v>16850</v>
+      </c>
+      <c r="C23">
+        <v>14500</v>
+      </c>
+      <c r="D23">
+        <v>24900</v>
+      </c>
+      <c r="E23">
+        <v>121500</v>
+      </c>
+      <c r="F23">
+        <v>23000</v>
+      </c>
+      <c r="G23">
+        <v>222961</v>
+      </c>
+      <c r="H23">
+        <v>145000</v>
+      </c>
+      <c r="I23">
+        <v>118500</v>
+      </c>
+      <c r="J23">
+        <v>81300</v>
+      </c>
+      <c r="K23">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B24">
+        <v>16750</v>
+      </c>
+      <c r="C24">
+        <v>14450</v>
+      </c>
+      <c r="D24">
+        <v>25300</v>
+      </c>
+      <c r="E24">
+        <v>121500</v>
+      </c>
+      <c r="F24">
+        <v>23050</v>
+      </c>
+      <c r="G24">
+        <v>219612</v>
+      </c>
+      <c r="H24">
+        <v>143500</v>
+      </c>
+      <c r="I24">
+        <v>116500</v>
+      </c>
+      <c r="J24">
+        <v>81600</v>
+      </c>
+      <c r="K24">
+        <v>19850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B25">
+        <v>16800</v>
+      </c>
+      <c r="C25">
+        <v>14450</v>
+      </c>
+      <c r="D25">
+        <v>25250</v>
+      </c>
+      <c r="E25">
+        <v>117000</v>
+      </c>
+      <c r="F25">
+        <v>22750</v>
+      </c>
+      <c r="G25">
+        <v>217698</v>
+      </c>
+      <c r="H25">
+        <v>144500</v>
+      </c>
+      <c r="I25">
+        <v>114000</v>
+      </c>
+      <c r="J25">
+        <v>80700</v>
+      </c>
+      <c r="K25">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B26">
+        <v>16800</v>
+      </c>
+      <c r="C26">
+        <v>14000</v>
+      </c>
+      <c r="D26">
+        <v>24700</v>
+      </c>
+      <c r="E26">
+        <v>114500</v>
+      </c>
+      <c r="F26">
+        <v>22350</v>
+      </c>
+      <c r="G26">
+        <v>208608</v>
+      </c>
+      <c r="H26">
+        <v>142000</v>
+      </c>
+      <c r="I26">
+        <v>110500</v>
+      </c>
+      <c r="J26">
+        <v>78600</v>
+      </c>
+      <c r="K26">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B27">
+        <v>16150</v>
+      </c>
+      <c r="C27">
+        <v>13900</v>
+      </c>
+      <c r="D27">
+        <v>24250</v>
+      </c>
+      <c r="E27">
+        <v>116500</v>
+      </c>
+      <c r="F27">
+        <v>21900</v>
+      </c>
+      <c r="G27">
+        <v>204302</v>
+      </c>
+      <c r="H27">
+        <v>140500</v>
+      </c>
+      <c r="I27">
+        <v>107500</v>
+      </c>
+      <c r="J27">
+        <v>76900</v>
+      </c>
+      <c r="K27">
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B28">
+        <v>15600</v>
+      </c>
+      <c r="C28">
+        <v>14050</v>
+      </c>
+      <c r="D28">
+        <v>23900</v>
+      </c>
+      <c r="E28">
+        <v>115000</v>
+      </c>
+      <c r="F28">
+        <v>21800</v>
+      </c>
+      <c r="G28">
+        <v>207651</v>
+      </c>
+      <c r="H28">
+        <v>137500</v>
+      </c>
+      <c r="I28">
+        <v>105500</v>
+      </c>
+      <c r="J28">
+        <v>76000</v>
+      </c>
+      <c r="K28">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B29">
+        <v>15550</v>
+      </c>
+      <c r="C29">
+        <v>14200</v>
+      </c>
+      <c r="D29">
+        <v>23700</v>
+      </c>
+      <c r="E29">
+        <v>114500</v>
+      </c>
+      <c r="F29">
+        <v>22050</v>
+      </c>
+      <c r="G29">
+        <v>204780</v>
+      </c>
+      <c r="H29">
+        <v>135000</v>
+      </c>
+      <c r="I29">
+        <v>108000</v>
+      </c>
+      <c r="J29">
+        <v>73800</v>
+      </c>
+      <c r="K29">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B30">
+        <v>15200</v>
+      </c>
+      <c r="C30">
+        <v>15600</v>
+      </c>
+      <c r="D30">
+        <v>23400</v>
+      </c>
+      <c r="E30">
+        <v>114500</v>
+      </c>
+      <c r="F30">
+        <v>22200</v>
+      </c>
+      <c r="G30">
+        <v>201909</v>
+      </c>
+      <c r="H30">
+        <v>130500</v>
+      </c>
+      <c r="I30">
+        <v>113500</v>
+      </c>
+      <c r="J30">
+        <v>73900</v>
+      </c>
+      <c r="K30">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B31">
+        <v>15550</v>
+      </c>
+      <c r="C31">
+        <v>15900</v>
+      </c>
+      <c r="D31">
+        <v>24100</v>
+      </c>
+      <c r="E31">
+        <v>113000</v>
+      </c>
+      <c r="F31">
+        <v>21950</v>
+      </c>
+      <c r="G31">
+        <v>206215</v>
+      </c>
+      <c r="H31">
+        <v>130000</v>
+      </c>
+      <c r="I31">
+        <v>109000</v>
+      </c>
+      <c r="J31">
+        <v>73000</v>
+      </c>
+      <c r="K31">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B32">
+        <v>16300</v>
+      </c>
+      <c r="C32">
+        <v>15750</v>
+      </c>
+      <c r="D32">
+        <v>23750</v>
+      </c>
+      <c r="E32">
+        <v>109500</v>
+      </c>
+      <c r="F32">
+        <v>21850</v>
+      </c>
+      <c r="G32">
+        <v>203823</v>
+      </c>
+      <c r="H32">
+        <v>129500</v>
+      </c>
+      <c r="I32">
+        <v>105000</v>
+      </c>
+      <c r="J32">
+        <v>73000</v>
+      </c>
+      <c r="K32">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B33">
+        <v>16450</v>
+      </c>
+      <c r="C33">
+        <v>15400</v>
+      </c>
+      <c r="D33">
+        <v>23850</v>
+      </c>
+      <c r="E33">
+        <v>111000</v>
+      </c>
+      <c r="F33">
+        <v>21800</v>
+      </c>
+      <c r="G33">
+        <v>205737</v>
+      </c>
+      <c r="H33">
+        <v>129000</v>
+      </c>
+      <c r="I33">
+        <v>104500</v>
+      </c>
+      <c r="J33">
+        <v>73700</v>
+      </c>
+      <c r="K33">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>43150</v>
+      </c>
+      <c r="B34">
+        <v>16850</v>
+      </c>
+      <c r="C34">
+        <v>15550</v>
+      </c>
+      <c r="D34">
+        <v>23550</v>
+      </c>
+      <c r="E34">
+        <v>114500</v>
+      </c>
+      <c r="F34">
+        <v>21950</v>
+      </c>
+      <c r="G34">
+        <v>210043</v>
+      </c>
+      <c r="H34">
+        <v>131000</v>
+      </c>
+      <c r="I34">
+        <v>106000</v>
+      </c>
+      <c r="J34">
+        <v>75500</v>
+      </c>
+      <c r="K34">
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>43151</v>
+      </c>
+      <c r="B35">
+        <v>16700</v>
+      </c>
+      <c r="C35">
+        <v>14650</v>
+      </c>
+      <c r="D35">
+        <v>23500</v>
+      </c>
+      <c r="E35">
+        <v>110500</v>
+      </c>
+      <c r="F35">
+        <v>21700</v>
+      </c>
+      <c r="G35">
+        <v>208129</v>
+      </c>
+      <c r="H35">
+        <v>130000</v>
+      </c>
+      <c r="I35">
+        <v>106500</v>
+      </c>
+      <c r="J35">
+        <v>74700</v>
+      </c>
+      <c r="K35">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>43152</v>
+      </c>
+      <c r="B36">
+        <v>16400</v>
+      </c>
+      <c r="C36">
+        <v>14550</v>
+      </c>
+      <c r="D36">
+        <v>23650</v>
+      </c>
+      <c r="E36">
+        <v>112500</v>
+      </c>
+      <c r="F36">
+        <v>22000</v>
+      </c>
+      <c r="G36">
+        <v>206215</v>
+      </c>
+      <c r="H36">
+        <v>133000</v>
+      </c>
+      <c r="I36">
+        <v>106000</v>
+      </c>
+      <c r="J36">
+        <v>74500</v>
+      </c>
+      <c r="K36">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B37">
+        <v>16650</v>
+      </c>
+      <c r="C37">
+        <v>14400</v>
+      </c>
+      <c r="D37">
+        <v>23400</v>
+      </c>
+      <c r="E37">
+        <v>112500</v>
+      </c>
+      <c r="F37">
+        <v>22100</v>
+      </c>
+      <c r="G37">
+        <v>202866</v>
+      </c>
+      <c r="H37">
+        <v>132000</v>
+      </c>
+      <c r="I37">
+        <v>103500</v>
+      </c>
+      <c r="J37">
+        <v>73400</v>
+      </c>
+      <c r="K37">
+        <v>19850</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B38">
+        <v>16900</v>
+      </c>
+      <c r="C38">
+        <v>14550</v>
+      </c>
+      <c r="D38">
+        <v>23750</v>
+      </c>
+      <c r="E38">
+        <v>110500</v>
+      </c>
+      <c r="F38">
+        <v>22150</v>
+      </c>
+      <c r="G38">
+        <v>206694</v>
+      </c>
+      <c r="H38">
+        <v>133500</v>
+      </c>
+      <c r="I38">
+        <v>105000</v>
+      </c>
+      <c r="J38">
+        <v>74300</v>
+      </c>
+      <c r="K38">
+        <v>20050</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B39">
+        <v>17050</v>
+      </c>
+      <c r="C39">
+        <v>14600</v>
+      </c>
+      <c r="D39">
+        <v>23250</v>
+      </c>
+      <c r="E39">
+        <v>115000</v>
+      </c>
+      <c r="F39">
+        <v>22500</v>
+      </c>
+      <c r="G39">
+        <v>206694</v>
+      </c>
+      <c r="H39">
+        <v>136500</v>
+      </c>
+      <c r="I39">
+        <v>103500</v>
+      </c>
+      <c r="J39">
+        <v>75500</v>
+      </c>
+      <c r="K39">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B40">
+        <v>16950</v>
+      </c>
+      <c r="C40">
+        <v>14400</v>
+      </c>
+      <c r="D40">
+        <v>23100</v>
+      </c>
+      <c r="E40">
+        <v>116000</v>
+      </c>
+      <c r="F40">
+        <v>22350</v>
+      </c>
+      <c r="G40">
+        <v>203345</v>
+      </c>
+      <c r="H40">
+        <v>135000</v>
+      </c>
+      <c r="I40">
+        <v>102000</v>
+      </c>
+      <c r="J40">
+        <v>74600</v>
+      </c>
+      <c r="K40">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B41">
+        <v>16600</v>
+      </c>
+      <c r="C41">
+        <v>14050</v>
+      </c>
+      <c r="D41">
+        <v>22850</v>
+      </c>
+      <c r="E41">
+        <v>111500</v>
+      </c>
+      <c r="F41">
+        <v>22000</v>
+      </c>
+      <c r="G41">
+        <v>199039</v>
+      </c>
+      <c r="H41">
+        <v>132500</v>
+      </c>
+      <c r="I41">
+        <v>100000</v>
+      </c>
+      <c r="J41">
+        <v>74200</v>
+      </c>
+      <c r="K41">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B42">
+        <v>16400</v>
+      </c>
+      <c r="C42">
+        <v>13700</v>
+      </c>
+      <c r="D42">
+        <v>22700</v>
+      </c>
+      <c r="E42">
+        <v>110000</v>
+      </c>
+      <c r="F42">
+        <v>21500</v>
+      </c>
+      <c r="G42">
+        <v>199039</v>
+      </c>
+      <c r="H42">
+        <v>131500</v>
+      </c>
+      <c r="I42">
+        <v>98700</v>
+      </c>
+      <c r="J42">
+        <v>72000</v>
+      </c>
+      <c r="K42">
+        <v>19600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B43">
+        <v>16000</v>
+      </c>
+      <c r="C43">
+        <v>13450</v>
+      </c>
+      <c r="D43">
+        <v>22650</v>
+      </c>
+      <c r="E43">
+        <v>112500</v>
+      </c>
+      <c r="F43">
+        <v>21000</v>
+      </c>
+      <c r="G43">
+        <v>201431</v>
+      </c>
+      <c r="H43">
+        <v>128500</v>
+      </c>
+      <c r="I43">
+        <v>96200</v>
+      </c>
+      <c r="J43">
+        <v>71300</v>
+      </c>
+      <c r="K43">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B44">
+        <v>15650</v>
+      </c>
+      <c r="C44">
+        <v>13550</v>
+      </c>
+      <c r="D44">
+        <v>22200</v>
+      </c>
+      <c r="E44">
+        <v>110500</v>
+      </c>
+      <c r="F44">
+        <v>21100</v>
+      </c>
+      <c r="G44">
+        <v>199995</v>
+      </c>
+      <c r="H44">
+        <v>126000</v>
+      </c>
+      <c r="I44">
+        <v>97300</v>
+      </c>
+      <c r="J44">
+        <v>72400</v>
+      </c>
+      <c r="K44">
+        <v>19450</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B45">
+        <v>15450</v>
+      </c>
+      <c r="C45">
+        <v>13100</v>
+      </c>
+      <c r="D45">
+        <v>21900</v>
+      </c>
+      <c r="E45">
+        <v>105000</v>
+      </c>
+      <c r="F45">
+        <v>20900</v>
+      </c>
+      <c r="G45">
+        <v>196646</v>
+      </c>
+      <c r="H45">
+        <v>124000</v>
+      </c>
+      <c r="I45">
+        <v>95400</v>
+      </c>
+      <c r="J45">
+        <v>70200</v>
+      </c>
+      <c r="K45">
+        <v>19100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B46">
+        <v>15450</v>
+      </c>
+      <c r="C46">
+        <v>13300</v>
+      </c>
+      <c r="D46">
+        <v>22000</v>
+      </c>
+      <c r="E46">
+        <v>108000</v>
+      </c>
+      <c r="F46">
+        <v>21100</v>
+      </c>
+      <c r="G46">
+        <v>200474</v>
+      </c>
+      <c r="H46">
+        <v>122000</v>
+      </c>
+      <c r="I46">
+        <v>97800</v>
+      </c>
+      <c r="J46">
+        <v>70900</v>
+      </c>
+      <c r="K46">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B47">
+        <v>15550</v>
+      </c>
+      <c r="C47">
+        <v>13300</v>
+      </c>
+      <c r="D47">
+        <v>22050</v>
+      </c>
+      <c r="E47">
+        <v>107500</v>
+      </c>
+      <c r="F47">
+        <v>21100</v>
+      </c>
+      <c r="G47">
+        <v>203823</v>
+      </c>
+      <c r="H47">
+        <v>128000</v>
+      </c>
+      <c r="I47">
+        <v>101500</v>
+      </c>
+      <c r="J47">
+        <v>74300</v>
+      </c>
+      <c r="K47">
+        <v>19650</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B48">
+        <v>16200</v>
+      </c>
+      <c r="C48">
+        <v>13600</v>
+      </c>
+      <c r="D48">
+        <v>22050</v>
+      </c>
+      <c r="E48">
+        <v>106500</v>
+      </c>
+      <c r="F48">
+        <v>21300</v>
+      </c>
+      <c r="G48">
+        <v>205259</v>
+      </c>
+      <c r="H48">
+        <v>127500</v>
+      </c>
+      <c r="I48">
+        <v>105500</v>
+      </c>
+      <c r="J48">
+        <v>74500</v>
+      </c>
+      <c r="K48">
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B49">
+        <v>15850</v>
+      </c>
+      <c r="C49">
+        <v>13500</v>
+      </c>
+      <c r="D49">
+        <v>21850</v>
+      </c>
+      <c r="E49">
+        <v>105000</v>
+      </c>
+      <c r="F49">
+        <v>21050</v>
+      </c>
+      <c r="G49">
+        <v>206694</v>
+      </c>
+      <c r="H49">
+        <v>128000</v>
+      </c>
+      <c r="I49">
+        <v>104000</v>
+      </c>
+      <c r="J49">
+        <v>72600</v>
+      </c>
+      <c r="K49">
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B50">
+        <v>15500</v>
+      </c>
+      <c r="C50">
+        <v>13600</v>
+      </c>
+      <c r="D50">
+        <v>21750</v>
+      </c>
+      <c r="E50">
+        <v>103000</v>
+      </c>
+      <c r="F50">
+        <v>21200</v>
+      </c>
+      <c r="G50">
+        <v>206215</v>
+      </c>
+      <c r="H50">
+        <v>129000</v>
+      </c>
+      <c r="I50">
+        <v>104500</v>
+      </c>
+      <c r="J50">
+        <v>72000</v>
+      </c>
+      <c r="K50">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B51">
+        <v>15650</v>
+      </c>
+      <c r="C51">
+        <v>13850</v>
+      </c>
+      <c r="D51">
+        <v>21750</v>
+      </c>
+      <c r="E51">
+        <v>105500</v>
+      </c>
+      <c r="F51">
+        <v>21100</v>
+      </c>
+      <c r="G51">
+        <v>207651</v>
+      </c>
+      <c r="H51">
+        <v>130500</v>
+      </c>
+      <c r="I51">
+        <v>102000</v>
+      </c>
+      <c r="J51">
+        <v>73000</v>
+      </c>
+      <c r="K51">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B52">
+        <v>15600</v>
+      </c>
+      <c r="C52">
+        <v>13800</v>
+      </c>
+      <c r="D52">
+        <v>21700</v>
+      </c>
+      <c r="E52">
+        <v>105500</v>
+      </c>
+      <c r="F52">
+        <v>21100</v>
+      </c>
+      <c r="G52">
+        <v>204302</v>
+      </c>
+      <c r="H52">
+        <v>130500</v>
+      </c>
+      <c r="I52">
+        <v>103500</v>
+      </c>
+      <c r="J52">
+        <v>73200</v>
+      </c>
+      <c r="K52">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B53">
+        <v>15700</v>
+      </c>
+      <c r="C53">
+        <v>13650</v>
+      </c>
+      <c r="D53">
+        <v>21400</v>
+      </c>
+      <c r="E53">
+        <v>103000</v>
+      </c>
+      <c r="F53">
+        <v>21100</v>
+      </c>
+      <c r="G53">
+        <v>203345</v>
+      </c>
+      <c r="H53">
+        <v>136000</v>
+      </c>
+      <c r="I53">
+        <v>107000</v>
+      </c>
+      <c r="J53">
+        <v>73200</v>
+      </c>
+      <c r="K53">
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B54">
+        <v>15550</v>
+      </c>
+      <c r="C54">
+        <v>14250</v>
+      </c>
+      <c r="D54">
+        <v>21450</v>
+      </c>
+      <c r="E54">
+        <v>103000</v>
+      </c>
+      <c r="F54">
+        <v>22000</v>
+      </c>
+      <c r="G54">
+        <v>211957</v>
+      </c>
+      <c r="H54">
+        <v>137500</v>
+      </c>
+      <c r="I54">
+        <v>106500</v>
+      </c>
+      <c r="J54">
+        <v>74100</v>
+      </c>
+      <c r="K54">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B55">
+        <v>15550</v>
+      </c>
+      <c r="C55">
+        <v>14050</v>
+      </c>
+      <c r="D55">
+        <v>21650</v>
+      </c>
+      <c r="E55">
+        <v>101500</v>
+      </c>
+      <c r="F55">
+        <v>22350</v>
+      </c>
+      <c r="G55">
+        <v>212435</v>
+      </c>
+      <c r="H55">
+        <v>137000</v>
+      </c>
+      <c r="I55">
+        <v>105000</v>
+      </c>
+      <c r="J55">
+        <v>73900</v>
+      </c>
+      <c r="K55">
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B56">
+        <v>15550</v>
+      </c>
+      <c r="C56">
+        <v>13950</v>
+      </c>
+      <c r="D56">
+        <v>22000</v>
+      </c>
+      <c r="E56">
+        <v>100500</v>
+      </c>
+      <c r="F56">
+        <v>22000</v>
+      </c>
+      <c r="G56">
+        <v>209086</v>
+      </c>
+      <c r="H56">
+        <v>134500</v>
+      </c>
+      <c r="I56">
+        <v>109000</v>
+      </c>
+      <c r="J56">
+        <v>72700</v>
+      </c>
+      <c r="K56">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B57">
+        <v>14900</v>
+      </c>
+      <c r="C57">
+        <v>13450</v>
+      </c>
+      <c r="D57">
+        <v>21100</v>
+      </c>
+      <c r="E57">
+        <v>96300</v>
+      </c>
+      <c r="F57">
+        <v>21350</v>
+      </c>
+      <c r="G57">
+        <v>200474</v>
+      </c>
+      <c r="H57">
+        <v>130000</v>
+      </c>
+      <c r="I57">
+        <v>105000</v>
+      </c>
+      <c r="J57">
+        <v>70800</v>
+      </c>
+      <c r="K57">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B58">
+        <v>14750</v>
+      </c>
+      <c r="C58">
+        <v>13600</v>
+      </c>
+      <c r="D58">
+        <v>21300</v>
+      </c>
+      <c r="E58">
+        <v>96900</v>
+      </c>
+      <c r="F58">
+        <v>22250</v>
+      </c>
+      <c r="G58">
+        <v>206215</v>
+      </c>
+      <c r="H58">
+        <v>132000</v>
+      </c>
+      <c r="I58">
+        <v>105500</v>
+      </c>
+      <c r="J58">
+        <v>71500</v>
+      </c>
+      <c r="K58">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B59">
+        <v>14900</v>
+      </c>
+      <c r="C59">
+        <v>13700</v>
+      </c>
+      <c r="D59">
+        <v>21450</v>
+      </c>
+      <c r="E59">
+        <v>99500</v>
+      </c>
+      <c r="F59">
+        <v>22750</v>
+      </c>
+      <c r="G59">
+        <v>207172</v>
+      </c>
+      <c r="H59">
+        <v>134000</v>
+      </c>
+      <c r="I59">
+        <v>107000</v>
+      </c>
+      <c r="J59">
+        <v>74100</v>
+      </c>
+      <c r="K59">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B60">
+        <v>14250</v>
+      </c>
+      <c r="C60">
+        <v>13850</v>
+      </c>
+      <c r="D60">
+        <v>21200</v>
+      </c>
+      <c r="E60">
+        <v>95600</v>
+      </c>
+      <c r="F60">
+        <v>22900</v>
+      </c>
+      <c r="G60">
+        <v>205259</v>
+      </c>
+      <c r="H60">
+        <v>130500</v>
+      </c>
+      <c r="I60">
+        <v>106000</v>
+      </c>
+      <c r="J60">
+        <v>74800</v>
+      </c>
+      <c r="K60">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B61">
+        <v>14400</v>
+      </c>
+      <c r="C61">
+        <v>14050</v>
+      </c>
+      <c r="D61">
+        <v>21150</v>
+      </c>
+      <c r="E61">
+        <v>96400</v>
+      </c>
+      <c r="F61">
+        <v>22350</v>
+      </c>
+      <c r="G61">
+        <v>211478</v>
+      </c>
+      <c r="H61">
+        <v>137500</v>
+      </c>
+      <c r="I61">
+        <v>107000</v>
+      </c>
+      <c r="J61">
+        <v>73600</v>
+      </c>
+      <c r="K61">
+        <v>18900</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B62">
+        <v>14650</v>
+      </c>
+      <c r="C62">
+        <v>14050</v>
+      </c>
+      <c r="D62">
+        <v>21050</v>
+      </c>
+      <c r="E62">
+        <v>98000</v>
+      </c>
+      <c r="F62">
+        <v>22450</v>
+      </c>
+      <c r="G62">
+        <v>212435</v>
+      </c>
+      <c r="H62">
+        <v>137500</v>
+      </c>
+      <c r="I62">
+        <v>106500</v>
+      </c>
+      <c r="J62">
+        <v>74400</v>
+      </c>
+      <c r="K62">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B63">
+        <v>14050</v>
+      </c>
+      <c r="C63">
+        <v>14000</v>
+      </c>
+      <c r="D63">
+        <v>21050</v>
+      </c>
+      <c r="E63">
+        <v>98200</v>
+      </c>
+      <c r="F63">
+        <v>22600</v>
+      </c>
+      <c r="G63">
+        <v>213392</v>
+      </c>
+      <c r="H63">
+        <v>138000</v>
+      </c>
+      <c r="I63">
+        <v>102500</v>
+      </c>
+      <c r="J63">
+        <v>73300</v>
+      </c>
+      <c r="K63">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B64">
+        <v>13850</v>
+      </c>
+      <c r="C64">
+        <v>14350</v>
+      </c>
+      <c r="D64">
+        <v>20700</v>
+      </c>
+      <c r="E64">
+        <v>101000</v>
+      </c>
+      <c r="F64">
+        <v>23050</v>
+      </c>
+      <c r="G64">
+        <v>215306</v>
+      </c>
+      <c r="H64">
+        <v>139000</v>
+      </c>
+      <c r="I64">
+        <v>102500</v>
+      </c>
+      <c r="J64">
+        <v>74200</v>
+      </c>
+      <c r="K64">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B65">
+        <v>13700</v>
+      </c>
+      <c r="C65">
+        <v>14250</v>
+      </c>
+      <c r="D65">
+        <v>20500</v>
+      </c>
+      <c r="E65">
+        <v>97300</v>
+      </c>
+      <c r="F65">
+        <v>22350</v>
+      </c>
+      <c r="G65">
+        <v>218177</v>
+      </c>
+      <c r="H65">
+        <v>136000</v>
+      </c>
+      <c r="I65">
+        <v>101000</v>
+      </c>
+      <c r="J65">
+        <v>73500</v>
+      </c>
+      <c r="K65">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>43195</v>
+      </c>
+      <c r="B66">
+        <v>13900</v>
+      </c>
+      <c r="C66">
+        <v>14300</v>
+      </c>
+      <c r="D66">
+        <v>20550</v>
+      </c>
+      <c r="E66">
+        <v>96700</v>
+      </c>
+      <c r="F66">
+        <v>22300</v>
+      </c>
+      <c r="G66">
+        <v>222483</v>
+      </c>
+      <c r="H66">
+        <v>136000</v>
+      </c>
+      <c r="I66">
+        <v>102500</v>
+      </c>
+      <c r="J66">
+        <v>74100</v>
+      </c>
+      <c r="K66">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>43196</v>
+      </c>
+      <c r="B67">
+        <v>13800</v>
+      </c>
+      <c r="C67">
+        <v>14200</v>
+      </c>
+      <c r="D67">
+        <v>20800</v>
+      </c>
+      <c r="E67">
+        <v>95600</v>
+      </c>
+      <c r="F67">
+        <v>22350</v>
+      </c>
+      <c r="G67">
+        <v>224397</v>
+      </c>
+      <c r="H67">
+        <v>136500</v>
+      </c>
+      <c r="I67">
+        <v>102500</v>
+      </c>
+      <c r="J67">
+        <v>74500</v>
+      </c>
+      <c r="K67">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>43199</v>
+      </c>
+      <c r="B68">
+        <v>13800</v>
+      </c>
+      <c r="C68">
+        <v>14300</v>
+      </c>
+      <c r="D68">
+        <v>20600</v>
+      </c>
+      <c r="E68">
+        <v>94400</v>
+      </c>
+      <c r="F68">
+        <v>21800</v>
+      </c>
+      <c r="G68">
+        <v>243535</v>
+      </c>
+      <c r="H68">
+        <v>139000</v>
+      </c>
+      <c r="I68">
+        <v>100000</v>
+      </c>
+      <c r="J68">
+        <v>77300</v>
+      </c>
+      <c r="K68">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>43200</v>
+      </c>
+      <c r="B69">
+        <v>14250</v>
+      </c>
+      <c r="C69">
+        <v>14600</v>
+      </c>
+      <c r="D69">
+        <v>20550</v>
+      </c>
+      <c r="E69">
+        <v>91800</v>
+      </c>
+      <c r="F69">
+        <v>21600</v>
+      </c>
+      <c r="G69">
+        <v>246406</v>
+      </c>
+      <c r="H69">
+        <v>137500</v>
+      </c>
+      <c r="I69">
+        <v>100500</v>
+      </c>
+      <c r="J69">
+        <v>75900</v>
+      </c>
+      <c r="K69">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>43201</v>
+      </c>
+      <c r="B70">
+        <v>14350</v>
+      </c>
+      <c r="C70">
+        <v>14950</v>
+      </c>
+      <c r="D70">
+        <v>20350</v>
+      </c>
+      <c r="E70">
+        <v>93500</v>
+      </c>
+      <c r="F70">
+        <v>21450</v>
+      </c>
+      <c r="G70">
+        <v>244492</v>
+      </c>
+      <c r="H70">
+        <v>137000</v>
+      </c>
+      <c r="I70">
+        <v>103000</v>
+      </c>
+      <c r="J70">
+        <v>76000</v>
+      </c>
+      <c r="K70">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>43202</v>
+      </c>
+      <c r="B71">
+        <v>14500</v>
+      </c>
+      <c r="C71">
+        <v>14700</v>
+      </c>
+      <c r="D71">
+        <v>20300</v>
+      </c>
+      <c r="E71">
+        <v>92100</v>
+      </c>
+      <c r="F71">
+        <v>21100</v>
+      </c>
+      <c r="G71">
+        <v>237315</v>
+      </c>
+      <c r="H71">
+        <v>135000</v>
+      </c>
+      <c r="I71">
+        <v>106500</v>
+      </c>
+      <c r="J71">
+        <v>80000</v>
+      </c>
+      <c r="K71">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>43203</v>
+      </c>
+      <c r="B72">
+        <v>15150</v>
+      </c>
+      <c r="C72">
+        <v>14450</v>
+      </c>
+      <c r="D72">
+        <v>20400</v>
+      </c>
+      <c r="E72">
+        <v>91800</v>
+      </c>
+      <c r="F72">
+        <v>20600</v>
+      </c>
+      <c r="G72">
+        <v>242578</v>
+      </c>
+      <c r="H72">
+        <v>144000</v>
+      </c>
+      <c r="I72">
+        <v>105500</v>
+      </c>
+      <c r="J72">
+        <v>80200</v>
+      </c>
+      <c r="K72">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>43206</v>
+      </c>
+      <c r="B73">
+        <v>14950</v>
+      </c>
+      <c r="C73">
+        <v>14250</v>
+      </c>
+      <c r="D73">
+        <v>20400</v>
+      </c>
+      <c r="E73">
+        <v>94800</v>
+      </c>
+      <c r="F73">
+        <v>20700</v>
+      </c>
+      <c r="G73">
+        <v>236837</v>
+      </c>
+      <c r="H73">
+        <v>145000</v>
+      </c>
+      <c r="I73">
+        <v>106000</v>
+      </c>
+      <c r="J73">
+        <v>78400</v>
+      </c>
+      <c r="K73">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>43207</v>
+      </c>
+      <c r="B74">
+        <v>14950</v>
+      </c>
+      <c r="C74">
+        <v>14150</v>
+      </c>
+      <c r="D74">
+        <v>20150</v>
+      </c>
+      <c r="E74">
+        <v>97700</v>
+      </c>
+      <c r="F74">
+        <v>20800</v>
+      </c>
+      <c r="G74">
+        <v>241143</v>
+      </c>
+      <c r="H74">
+        <v>146500</v>
+      </c>
+      <c r="I74">
+        <v>107500</v>
+      </c>
+      <c r="J74">
+        <v>78300</v>
+      </c>
+      <c r="K74">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>43208</v>
+      </c>
+      <c r="B75">
+        <v>15100</v>
+      </c>
+      <c r="C75">
+        <v>14250</v>
+      </c>
+      <c r="D75">
+        <v>20700</v>
+      </c>
+      <c r="E75">
+        <v>97100</v>
+      </c>
+      <c r="F75">
+        <v>21100</v>
+      </c>
+      <c r="G75">
+        <v>227746</v>
+      </c>
+      <c r="H75">
+        <v>149500</v>
+      </c>
+      <c r="I75">
+        <v>108500</v>
+      </c>
+      <c r="J75">
+        <v>81700</v>
+      </c>
+      <c r="K75">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>43209</v>
+      </c>
+      <c r="B76">
+        <v>15250</v>
+      </c>
+      <c r="C76">
+        <v>14550</v>
+      </c>
+      <c r="D76">
+        <v>20600</v>
+      </c>
+      <c r="E76">
+        <v>102000</v>
+      </c>
+      <c r="F76">
+        <v>20900</v>
+      </c>
+      <c r="G76">
+        <v>230617</v>
+      </c>
+      <c r="H76">
+        <v>150500</v>
+      </c>
+      <c r="I76">
+        <v>111500</v>
+      </c>
+      <c r="J76">
+        <v>82700</v>
+      </c>
+      <c r="K76">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>43210</v>
+      </c>
+      <c r="B77">
+        <v>15300</v>
+      </c>
+      <c r="C77">
+        <v>14750</v>
+      </c>
+      <c r="D77">
+        <v>20450</v>
+      </c>
+      <c r="E77">
+        <v>105000</v>
+      </c>
+      <c r="F77">
+        <v>20750</v>
+      </c>
+      <c r="G77">
+        <v>230138</v>
+      </c>
+      <c r="H77">
+        <v>155000</v>
+      </c>
+      <c r="I77">
+        <v>109000</v>
+      </c>
+      <c r="J77">
+        <v>82800</v>
+      </c>
+      <c r="K77">
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>43213</v>
+      </c>
+      <c r="B78">
+        <v>15850</v>
+      </c>
+      <c r="C78">
+        <v>15150</v>
+      </c>
+      <c r="D78">
+        <v>20550</v>
+      </c>
+      <c r="E78">
+        <v>103000</v>
+      </c>
+      <c r="F78">
+        <v>21200</v>
+      </c>
+      <c r="G78">
+        <v>221048</v>
+      </c>
+      <c r="H78">
+        <v>155500</v>
+      </c>
+      <c r="I78">
+        <v>113000</v>
+      </c>
+      <c r="J78">
+        <v>83500</v>
+      </c>
+      <c r="K78">
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>43214</v>
+      </c>
+      <c r="B79">
+        <v>16100</v>
+      </c>
+      <c r="C79">
+        <v>15150</v>
+      </c>
+      <c r="D79">
+        <v>20600</v>
+      </c>
+      <c r="E79">
+        <v>104500</v>
+      </c>
+      <c r="F79">
+        <v>21750</v>
+      </c>
+      <c r="G79">
+        <v>221526</v>
+      </c>
+      <c r="H79">
+        <v>155000</v>
+      </c>
+      <c r="I79">
+        <v>112500</v>
+      </c>
+      <c r="J79">
+        <v>84500</v>
+      </c>
+      <c r="K79">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>43215</v>
+      </c>
+      <c r="B80">
+        <v>15950</v>
+      </c>
+      <c r="C80">
+        <v>15250</v>
+      </c>
+      <c r="D80">
+        <v>21050</v>
+      </c>
+      <c r="E80">
+        <v>101000</v>
+      </c>
+      <c r="F80">
+        <v>21400</v>
+      </c>
+      <c r="G80">
+        <v>219612</v>
+      </c>
+      <c r="H80">
+        <v>152000</v>
+      </c>
+      <c r="I80">
+        <v>111500</v>
+      </c>
+      <c r="J80">
+        <v>83900</v>
+      </c>
+      <c r="K80">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>43216</v>
+      </c>
+      <c r="B81">
+        <v>15950</v>
+      </c>
+      <c r="C81">
+        <v>14850</v>
+      </c>
+      <c r="D81">
+        <v>20850</v>
+      </c>
+      <c r="E81">
+        <v>101000</v>
+      </c>
+      <c r="F81">
+        <v>21550</v>
+      </c>
+      <c r="G81">
+        <v>224875</v>
+      </c>
+      <c r="H81">
+        <v>154500</v>
+      </c>
+      <c r="I81">
+        <v>113000</v>
+      </c>
+      <c r="J81">
+        <v>85500</v>
+      </c>
+      <c r="K81">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>43217</v>
+      </c>
+      <c r="B82">
+        <v>16000</v>
+      </c>
+      <c r="C82">
+        <v>14700</v>
+      </c>
+      <c r="D82">
+        <v>20500</v>
+      </c>
+      <c r="E82">
+        <v>104000</v>
+      </c>
+      <c r="F82">
+        <v>21650</v>
+      </c>
+      <c r="G82">
+        <v>225832</v>
+      </c>
+      <c r="H82">
+        <v>153000</v>
+      </c>
+      <c r="I82">
+        <v>115000</v>
+      </c>
+      <c r="J82">
+        <v>82800</v>
+      </c>
+      <c r="K82">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>43220</v>
+      </c>
+      <c r="B83">
+        <v>16050</v>
+      </c>
+      <c r="C83">
+        <v>14900</v>
+      </c>
+      <c r="D83">
+        <v>20950</v>
+      </c>
+      <c r="E83">
+        <v>111000</v>
+      </c>
+      <c r="F83">
+        <v>21800</v>
+      </c>
+      <c r="G83">
+        <v>219134</v>
+      </c>
+      <c r="H83">
+        <v>156500</v>
+      </c>
+      <c r="I83">
+        <v>121000</v>
+      </c>
+      <c r="J83">
+        <v>86000</v>
+      </c>
+      <c r="K83">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>43222</v>
+      </c>
+      <c r="B84">
+        <v>15800</v>
+      </c>
+      <c r="C84">
+        <v>15050</v>
+      </c>
+      <c r="D84">
+        <v>20800</v>
+      </c>
+      <c r="E84">
+        <v>115000</v>
+      </c>
+      <c r="F84">
+        <v>21500</v>
+      </c>
+      <c r="G84">
+        <v>220569</v>
+      </c>
+      <c r="H84">
+        <v>157000</v>
+      </c>
+      <c r="I84">
+        <v>121000</v>
+      </c>
+      <c r="J84">
+        <v>85900</v>
+      </c>
+      <c r="K84">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B85">
+        <v>15550</v>
+      </c>
+      <c r="C85">
+        <v>14800</v>
+      </c>
+      <c r="D85">
+        <v>20550</v>
+      </c>
+      <c r="E85">
+        <v>112500</v>
+      </c>
+      <c r="F85">
+        <v>21450</v>
+      </c>
+      <c r="G85">
+        <v>218655</v>
+      </c>
+      <c r="H85">
+        <v>153000</v>
+      </c>
+      <c r="I85">
+        <v>120000</v>
+      </c>
+      <c r="J85">
+        <v>85200</v>
+      </c>
+      <c r="K85">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B86">
+        <v>15400</v>
+      </c>
+      <c r="C86">
+        <v>14750</v>
+      </c>
+      <c r="D86">
+        <v>20450</v>
+      </c>
+      <c r="E86">
+        <v>114000</v>
+      </c>
+      <c r="F86">
+        <v>21550</v>
+      </c>
+      <c r="G86">
+        <v>216741</v>
+      </c>
+      <c r="H86">
+        <v>154000</v>
+      </c>
+      <c r="I86">
+        <v>120500</v>
+      </c>
+      <c r="J86">
+        <v>88200</v>
+      </c>
+      <c r="K86">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>43228</v>
+      </c>
+      <c r="B87">
+        <v>15450</v>
+      </c>
+      <c r="C87">
+        <v>14000</v>
+      </c>
+      <c r="D87">
+        <v>20600</v>
+      </c>
+      <c r="E87">
+        <v>108500</v>
+      </c>
+      <c r="F87">
+        <v>21050</v>
+      </c>
+      <c r="G87">
+        <v>214349</v>
+      </c>
+      <c r="H87">
+        <v>152000</v>
+      </c>
+      <c r="I87">
+        <v>118000</v>
+      </c>
+      <c r="J87">
+        <v>83900</v>
+      </c>
+      <c r="K87">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>43229</v>
+      </c>
+      <c r="B88">
+        <v>15550</v>
+      </c>
+      <c r="C88">
+        <v>13900</v>
+      </c>
+      <c r="D88">
+        <v>20350</v>
+      </c>
+      <c r="E88">
+        <v>108000</v>
+      </c>
+      <c r="F88">
+        <v>21100</v>
+      </c>
+      <c r="G88">
+        <v>221526</v>
+      </c>
+      <c r="H88">
+        <v>154000</v>
+      </c>
+      <c r="I88">
+        <v>117500</v>
+      </c>
+      <c r="J88">
+        <v>82300</v>
+      </c>
+      <c r="K88">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>43230</v>
+      </c>
+      <c r="B89">
+        <v>15700</v>
+      </c>
+      <c r="C89">
+        <v>14000</v>
+      </c>
+      <c r="D89">
+        <v>20400</v>
+      </c>
+      <c r="E89">
+        <v>112500</v>
+      </c>
+      <c r="F89">
+        <v>21000</v>
+      </c>
+      <c r="G89">
+        <v>217698</v>
+      </c>
+      <c r="H89">
+        <v>165500</v>
+      </c>
+      <c r="I89">
+        <v>119500</v>
+      </c>
+      <c r="J89">
+        <v>83100</v>
+      </c>
+      <c r="K89">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>43231</v>
+      </c>
+      <c r="B90">
+        <v>15600</v>
+      </c>
+      <c r="C90">
+        <v>14100</v>
+      </c>
+      <c r="D90">
+        <v>20700</v>
+      </c>
+      <c r="E90">
+        <v>115500</v>
+      </c>
+      <c r="F90">
+        <v>21400</v>
+      </c>
+      <c r="G90">
+        <v>221526</v>
+      </c>
+      <c r="H90">
+        <v>174500</v>
+      </c>
+      <c r="I90">
+        <v>117000</v>
+      </c>
+      <c r="J90">
+        <v>83000</v>
+      </c>
+      <c r="K90">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B91">
+        <v>15650</v>
+      </c>
+      <c r="C91">
+        <v>14650</v>
+      </c>
+      <c r="D91">
+        <v>20650</v>
+      </c>
+      <c r="E91">
+        <v>117500</v>
+      </c>
+      <c r="F91">
+        <v>21400</v>
+      </c>
+      <c r="G91">
+        <v>220569</v>
+      </c>
+      <c r="H91">
+        <v>175000</v>
+      </c>
+      <c r="I91">
+        <v>120000</v>
+      </c>
+      <c r="J91">
+        <v>87200</v>
+      </c>
+      <c r="K91">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B92">
+        <v>15400</v>
+      </c>
+      <c r="C92">
+        <v>14200</v>
+      </c>
+      <c r="D92">
+        <v>20350</v>
+      </c>
+      <c r="E92">
+        <v>116500</v>
+      </c>
+      <c r="F92">
+        <v>21550</v>
+      </c>
+      <c r="G92">
+        <v>225354</v>
+      </c>
+      <c r="H92">
+        <v>171500</v>
+      </c>
+      <c r="I92">
+        <v>120000</v>
+      </c>
+      <c r="J92">
+        <v>87500</v>
+      </c>
+      <c r="K92">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>43236</v>
+      </c>
+      <c r="B93">
+        <v>15650</v>
+      </c>
+      <c r="C93">
+        <v>14150</v>
+      </c>
+      <c r="D93">
+        <v>20200</v>
+      </c>
+      <c r="E93">
+        <v>120500</v>
+      </c>
+      <c r="F93">
+        <v>21100</v>
+      </c>
+      <c r="G93">
+        <v>227746</v>
+      </c>
+      <c r="H93">
+        <v>164500</v>
+      </c>
+      <c r="I93">
+        <v>118000</v>
+      </c>
+      <c r="J93">
+        <v>83000</v>
+      </c>
+      <c r="K93">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>43237</v>
+      </c>
+      <c r="B94">
+        <v>15450</v>
+      </c>
+      <c r="C94">
+        <v>14300</v>
+      </c>
+      <c r="D94">
+        <v>20300</v>
+      </c>
+      <c r="E94">
+        <v>119000</v>
+      </c>
+      <c r="F94">
+        <v>20950</v>
+      </c>
+      <c r="G94">
+        <v>223440</v>
+      </c>
+      <c r="H94">
+        <v>161500</v>
+      </c>
+      <c r="I94">
+        <v>117000</v>
+      </c>
+      <c r="J94">
+        <v>84000</v>
+      </c>
+      <c r="K94">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>43238</v>
+      </c>
+      <c r="B95">
+        <v>15200</v>
+      </c>
+      <c r="C95">
+        <v>14450</v>
+      </c>
+      <c r="D95">
+        <v>20000</v>
+      </c>
+      <c r="E95">
+        <v>117500</v>
+      </c>
+      <c r="F95">
+        <v>21000</v>
+      </c>
+      <c r="G95">
+        <v>228224</v>
+      </c>
+      <c r="H95">
+        <v>162000</v>
+      </c>
+      <c r="I95">
+        <v>117500</v>
+      </c>
+      <c r="J95">
+        <v>87900</v>
+      </c>
+      <c r="K95">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>43241</v>
+      </c>
+      <c r="B96">
+        <v>15750</v>
+      </c>
+      <c r="C96">
+        <v>14250</v>
+      </c>
+      <c r="D96">
+        <v>20200</v>
+      </c>
+      <c r="E96">
+        <v>119000</v>
+      </c>
+      <c r="F96">
+        <v>20750</v>
+      </c>
+      <c r="G96">
+        <v>225354</v>
+      </c>
+      <c r="H96">
+        <v>158000</v>
+      </c>
+      <c r="I96">
+        <v>115000</v>
+      </c>
+      <c r="J96">
+        <v>86500</v>
+      </c>
+      <c r="K96">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B97">
+        <v>15800</v>
+      </c>
+      <c r="C97">
+        <v>13800</v>
+      </c>
+      <c r="D97">
+        <v>19750</v>
+      </c>
+      <c r="E97">
+        <v>117500</v>
+      </c>
+      <c r="F97">
+        <v>20500</v>
+      </c>
+      <c r="G97">
+        <v>224875</v>
+      </c>
+      <c r="H97">
+        <v>156000</v>
+      </c>
+      <c r="I97">
+        <v>113500</v>
+      </c>
+      <c r="J97">
+        <v>86300</v>
+      </c>
+      <c r="K97">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B98">
+        <v>15850</v>
+      </c>
+      <c r="C98">
+        <v>13850</v>
+      </c>
+      <c r="D98">
+        <v>20300</v>
+      </c>
+      <c r="E98">
+        <v>116000</v>
+      </c>
+      <c r="F98">
+        <v>20150</v>
+      </c>
+      <c r="G98">
+        <v>229660</v>
+      </c>
+      <c r="H98">
+        <v>156000</v>
+      </c>
+      <c r="I98">
+        <v>110000</v>
+      </c>
+      <c r="J98">
+        <v>85400</v>
+      </c>
+      <c r="K98">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>43245</v>
+      </c>
+      <c r="B99">
+        <v>15800</v>
+      </c>
+      <c r="C99">
+        <v>13150</v>
+      </c>
+      <c r="D99">
+        <v>20300</v>
+      </c>
+      <c r="E99">
+        <v>115500</v>
+      </c>
+      <c r="F99">
+        <v>20100</v>
+      </c>
+      <c r="G99">
+        <v>232052</v>
+      </c>
+      <c r="H99">
+        <v>150500</v>
+      </c>
+      <c r="I99">
+        <v>109000</v>
+      </c>
+      <c r="J99">
+        <v>82900</v>
+      </c>
+      <c r="K99">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>43248</v>
+      </c>
+      <c r="B100">
+        <v>15550</v>
+      </c>
+      <c r="C100">
+        <v>13200</v>
+      </c>
+      <c r="D100">
+        <v>19950</v>
+      </c>
+      <c r="E100">
+        <v>118500</v>
+      </c>
+      <c r="F100">
+        <v>20150</v>
+      </c>
+      <c r="G100">
+        <v>233966</v>
+      </c>
+      <c r="H100">
+        <v>157000</v>
+      </c>
+      <c r="I100">
+        <v>110500</v>
+      </c>
+      <c r="J100">
+        <v>89700</v>
+      </c>
+      <c r="K100">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>43249</v>
+      </c>
+      <c r="B101">
+        <v>15600</v>
+      </c>
+      <c r="C101">
+        <v>13200</v>
+      </c>
+      <c r="D101">
+        <v>20000</v>
+      </c>
+      <c r="E101">
+        <v>113500</v>
+      </c>
+      <c r="F101">
+        <v>20350</v>
+      </c>
+      <c r="G101">
+        <v>232531</v>
+      </c>
+      <c r="H101">
+        <v>151000</v>
+      </c>
+      <c r="I101">
+        <v>108000</v>
+      </c>
+      <c r="J101">
+        <v>85800</v>
+      </c>
+      <c r="K101">
+        <v>18150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>43250</v>
+      </c>
+      <c r="B102">
+        <v>15200</v>
+      </c>
+      <c r="C102">
+        <v>13250</v>
+      </c>
+      <c r="D102">
+        <v>19750</v>
+      </c>
+      <c r="E102">
+        <v>116500</v>
+      </c>
+      <c r="F102">
+        <v>20100</v>
+      </c>
+      <c r="G102">
+        <v>227746</v>
+      </c>
+      <c r="H102">
+        <v>148000</v>
+      </c>
+      <c r="I102">
+        <v>105500</v>
+      </c>
+      <c r="J102">
+        <v>84200</v>
+      </c>
+      <c r="K102">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>43251</v>
+      </c>
+      <c r="B103">
+        <v>15300</v>
+      </c>
+      <c r="C103">
+        <v>13050</v>
+      </c>
+      <c r="D103">
+        <v>20500</v>
+      </c>
+      <c r="E103">
+        <v>114500</v>
+      </c>
+      <c r="F103">
+        <v>20150</v>
+      </c>
+      <c r="G103">
+        <v>227746</v>
+      </c>
+      <c r="H103">
+        <v>149500</v>
+      </c>
+      <c r="I103">
+        <v>104500</v>
+      </c>
+      <c r="J103">
+        <v>84000</v>
+      </c>
+      <c r="K103">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B104">
+        <v>15500</v>
+      </c>
+      <c r="C104">
+        <v>13200</v>
+      </c>
+      <c r="D104">
+        <v>20050</v>
+      </c>
+      <c r="E104">
+        <v>120000</v>
+      </c>
+      <c r="F104">
+        <v>20200</v>
+      </c>
+      <c r="G104">
+        <v>234923</v>
+      </c>
+      <c r="H104">
+        <v>148000</v>
+      </c>
+      <c r="I104">
+        <v>106000</v>
+      </c>
+      <c r="J104">
+        <v>84200</v>
+      </c>
+      <c r="K104">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>43255</v>
+      </c>
+      <c r="B105">
+        <v>15950</v>
+      </c>
+      <c r="C105">
+        <v>13550</v>
+      </c>
+      <c r="D105">
+        <v>20050</v>
+      </c>
+      <c r="E105">
+        <v>123000</v>
+      </c>
+      <c r="F105">
+        <v>20400</v>
+      </c>
+      <c r="G105">
+        <v>222961</v>
+      </c>
+      <c r="H105">
+        <v>153000</v>
+      </c>
+      <c r="I105">
+        <v>106500</v>
+      </c>
+      <c r="J105">
+        <v>82500</v>
+      </c>
+      <c r="K105">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>43256</v>
+      </c>
+      <c r="B106">
+        <v>16050</v>
+      </c>
+      <c r="C106">
+        <v>13600</v>
+      </c>
+      <c r="D106">
+        <v>20150</v>
+      </c>
+      <c r="E106">
+        <v>123500</v>
+      </c>
+      <c r="F106">
+        <v>20350</v>
+      </c>
+      <c r="G106">
+        <v>216263</v>
+      </c>
+      <c r="H106">
+        <v>152500</v>
+      </c>
+      <c r="I106">
+        <v>107500</v>
+      </c>
+      <c r="J106">
+        <v>85600</v>
+      </c>
+      <c r="K106">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>43258</v>
+      </c>
+      <c r="B107">
+        <v>16500</v>
+      </c>
+      <c r="C107">
+        <v>13800</v>
+      </c>
+      <c r="D107">
+        <v>20050</v>
+      </c>
+      <c r="E107">
+        <v>124500</v>
+      </c>
+      <c r="F107">
+        <v>21000</v>
+      </c>
+      <c r="G107">
+        <v>216741</v>
+      </c>
+      <c r="H107">
+        <v>154000</v>
+      </c>
+      <c r="I107">
+        <v>108500</v>
+      </c>
+      <c r="J107">
+        <v>85000</v>
+      </c>
+      <c r="K107">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>43259</v>
+      </c>
+      <c r="B108">
+        <v>16600</v>
+      </c>
+      <c r="C108">
+        <v>13800</v>
+      </c>
+      <c r="D108">
+        <v>20400</v>
+      </c>
+      <c r="E108">
+        <v>123500</v>
+      </c>
+      <c r="F108">
+        <v>20750</v>
+      </c>
+      <c r="G108">
+        <v>219134</v>
+      </c>
+      <c r="H108">
+        <v>154000</v>
+      </c>
+      <c r="I108">
+        <v>106500</v>
+      </c>
+      <c r="J108">
+        <v>84700</v>
+      </c>
+      <c r="K108">
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>43262</v>
+      </c>
+      <c r="B109">
+        <v>16650</v>
+      </c>
+      <c r="C109">
+        <v>13800</v>
+      </c>
+      <c r="D109">
+        <v>20150</v>
+      </c>
+      <c r="E109">
+        <v>125000</v>
+      </c>
+      <c r="F109">
+        <v>20850</v>
+      </c>
+      <c r="G109">
+        <v>220091</v>
+      </c>
+      <c r="H109">
+        <v>161500</v>
+      </c>
+      <c r="I109">
+        <v>109000</v>
+      </c>
+      <c r="J109">
+        <v>86000</v>
+      </c>
+      <c r="K109">
+        <v>18150</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>43263</v>
+      </c>
+      <c r="B110">
+        <v>16850</v>
+      </c>
+      <c r="C110">
+        <v>13650</v>
+      </c>
+      <c r="D110">
+        <v>20700</v>
+      </c>
+      <c r="E110">
+        <v>121500</v>
+      </c>
+      <c r="F110">
+        <v>20700</v>
+      </c>
+      <c r="G110">
+        <v>221526</v>
+      </c>
+      <c r="H110">
+        <v>161500</v>
+      </c>
+      <c r="I110">
+        <v>107500</v>
+      </c>
+      <c r="J110">
+        <v>84200</v>
+      </c>
+      <c r="K110">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>43265</v>
+      </c>
+      <c r="B111">
+        <v>16500</v>
+      </c>
+      <c r="C111">
+        <v>13850</v>
+      </c>
+      <c r="D111">
+        <v>20950</v>
+      </c>
+      <c r="E111">
+        <v>118000</v>
+      </c>
+      <c r="F111">
+        <v>20650</v>
+      </c>
+      <c r="G111">
+        <v>218177</v>
+      </c>
+      <c r="H111">
+        <v>156500</v>
+      </c>
+      <c r="I111">
+        <v>105500</v>
+      </c>
+      <c r="J111">
+        <v>80100</v>
+      </c>
+      <c r="K111">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>43266</v>
+      </c>
+      <c r="B112">
+        <v>16100</v>
+      </c>
+      <c r="C112">
+        <v>14500</v>
+      </c>
+      <c r="D112">
+        <v>20150</v>
+      </c>
+      <c r="E112">
+        <v>121000</v>
+      </c>
+      <c r="F112">
+        <v>20600</v>
+      </c>
+      <c r="G112">
+        <v>217220</v>
+      </c>
+      <c r="H112">
+        <v>152000</v>
+      </c>
+      <c r="I112">
+        <v>108000</v>
+      </c>
+      <c r="J112">
+        <v>80700</v>
+      </c>
+      <c r="K112">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>43269</v>
+      </c>
+      <c r="B113">
+        <v>16350</v>
+      </c>
+      <c r="C113">
+        <v>14550</v>
+      </c>
+      <c r="D113">
+        <v>20900</v>
+      </c>
+      <c r="E113">
+        <v>116500</v>
+      </c>
+      <c r="F113">
+        <v>20250</v>
+      </c>
+      <c r="G113">
+        <v>216263</v>
+      </c>
+      <c r="H113">
+        <v>153000</v>
+      </c>
+      <c r="I113">
+        <v>104500</v>
+      </c>
+      <c r="J113">
+        <v>80600</v>
+      </c>
+      <c r="K113">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>43270</v>
+      </c>
+      <c r="B114">
+        <v>16150</v>
+      </c>
+      <c r="C114">
+        <v>14250</v>
+      </c>
+      <c r="D114">
+        <v>21100</v>
+      </c>
+      <c r="E114">
+        <v>113000</v>
+      </c>
+      <c r="F114">
+        <v>19900</v>
+      </c>
+      <c r="G114">
+        <v>203345</v>
+      </c>
+      <c r="H114">
+        <v>154000</v>
+      </c>
+      <c r="I114">
+        <v>104500</v>
+      </c>
+      <c r="J114">
+        <v>77800</v>
+      </c>
+      <c r="K114">
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>43271</v>
+      </c>
+      <c r="B115">
+        <v>17100</v>
+      </c>
+      <c r="C115">
+        <v>14200</v>
+      </c>
+      <c r="D115">
+        <v>20700</v>
+      </c>
+      <c r="E115">
+        <v>113500</v>
+      </c>
+      <c r="F115">
+        <v>20100</v>
+      </c>
+      <c r="G115">
+        <v>205259</v>
+      </c>
+      <c r="H115">
+        <v>155500</v>
+      </c>
+      <c r="I115">
+        <v>104000</v>
+      </c>
+      <c r="J115">
+        <v>79900</v>
+      </c>
+      <c r="K115">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>43272</v>
+      </c>
+      <c r="B116">
+        <v>16300</v>
+      </c>
+      <c r="C116">
+        <v>14100</v>
+      </c>
+      <c r="D116">
+        <v>19700</v>
+      </c>
+      <c r="E116">
+        <v>112000</v>
+      </c>
+      <c r="F116">
+        <v>19700</v>
+      </c>
+      <c r="G116">
+        <v>205737</v>
+      </c>
+      <c r="H116">
+        <v>158500</v>
+      </c>
+      <c r="I116">
+        <v>101000</v>
+      </c>
+      <c r="J116">
+        <v>79300</v>
+      </c>
+      <c r="K116">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>43273</v>
+      </c>
+      <c r="B117">
+        <v>16350</v>
+      </c>
+      <c r="C117">
+        <v>13550</v>
+      </c>
+      <c r="D117">
+        <v>20000</v>
+      </c>
+      <c r="E117">
+        <v>110000</v>
+      </c>
+      <c r="F117">
+        <v>19500</v>
+      </c>
+      <c r="G117">
+        <v>209565</v>
+      </c>
+      <c r="H117">
+        <v>164000</v>
+      </c>
+      <c r="I117">
+        <v>100500</v>
+      </c>
+      <c r="J117">
+        <v>80000</v>
+      </c>
+      <c r="K117">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B118">
+        <v>16350</v>
+      </c>
+      <c r="C118">
+        <v>13800</v>
+      </c>
+      <c r="D118">
+        <v>19550</v>
+      </c>
+      <c r="E118">
+        <v>111000</v>
+      </c>
+      <c r="F118">
+        <v>20050</v>
+      </c>
+      <c r="G118">
+        <v>210043</v>
+      </c>
+      <c r="H118">
+        <v>164500</v>
+      </c>
+      <c r="I118">
+        <v>102500</v>
+      </c>
+      <c r="J118">
+        <v>81000</v>
+      </c>
+      <c r="K118">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>43277</v>
+      </c>
+      <c r="B119">
+        <v>16500</v>
+      </c>
+      <c r="C119">
+        <v>13900</v>
+      </c>
+      <c r="D119">
+        <v>19400</v>
+      </c>
+      <c r="E119">
+        <v>111500</v>
+      </c>
+      <c r="F119">
+        <v>19800</v>
+      </c>
+      <c r="G119">
+        <v>210522</v>
+      </c>
+      <c r="H119">
+        <v>160000</v>
+      </c>
+      <c r="I119">
+        <v>104000</v>
+      </c>
+      <c r="J119">
+        <v>80700</v>
+      </c>
+      <c r="K119">
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>43278</v>
+      </c>
+      <c r="B120">
+        <v>16100</v>
+      </c>
+      <c r="C120">
+        <v>14250</v>
+      </c>
+      <c r="D120">
+        <v>19200</v>
+      </c>
+      <c r="E120">
+        <v>114000</v>
+      </c>
+      <c r="F120">
+        <v>19750</v>
+      </c>
+      <c r="G120">
+        <v>208129</v>
+      </c>
+      <c r="H120">
+        <v>160000</v>
+      </c>
+      <c r="I120">
+        <v>102000</v>
+      </c>
+      <c r="J120">
+        <v>76000</v>
+      </c>
+      <c r="K120">
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>43279</v>
+      </c>
+      <c r="B121">
+        <v>15850</v>
+      </c>
+      <c r="C121">
+        <v>14200</v>
+      </c>
+      <c r="D121">
+        <v>19300</v>
+      </c>
+      <c r="E121">
+        <v>118000</v>
+      </c>
+      <c r="F121">
+        <v>20400</v>
+      </c>
+      <c r="G121">
+        <v>206694</v>
+      </c>
+      <c r="H121">
+        <v>163000</v>
+      </c>
+      <c r="I121">
+        <v>104500</v>
+      </c>
+      <c r="J121">
+        <v>76100</v>
+      </c>
+      <c r="K121">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>43280</v>
+      </c>
+      <c r="B122">
+        <v>16300</v>
+      </c>
+      <c r="C122">
+        <v>13850</v>
+      </c>
+      <c r="D122">
+        <v>19200</v>
+      </c>
+      <c r="E122">
+        <v>119000</v>
+      </c>
+      <c r="F122">
+        <v>19650</v>
+      </c>
+      <c r="G122">
+        <v>208129</v>
+      </c>
+      <c r="H122">
+        <v>168000</v>
+      </c>
+      <c r="I122">
+        <v>104000</v>
+      </c>
+      <c r="J122">
+        <v>76500</v>
+      </c>
+      <c r="K122">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>43283</v>
+      </c>
+      <c r="B123">
+        <v>16350</v>
+      </c>
+      <c r="C123">
+        <v>13800</v>
+      </c>
+      <c r="D123">
+        <v>19150</v>
+      </c>
+      <c r="E123">
+        <v>117000</v>
+      </c>
+      <c r="F123">
+        <v>19000</v>
+      </c>
+      <c r="G123">
+        <v>203345</v>
+      </c>
+      <c r="H123">
+        <v>163000</v>
+      </c>
+      <c r="I123">
+        <v>99900</v>
+      </c>
+      <c r="J123">
+        <v>73700</v>
+      </c>
+      <c r="K123">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>43284</v>
+      </c>
+      <c r="B124">
+        <v>16450</v>
+      </c>
+      <c r="C124">
+        <v>13550</v>
+      </c>
+      <c r="D124">
+        <v>19300</v>
+      </c>
+      <c r="E124">
+        <v>114500</v>
+      </c>
+      <c r="F124">
+        <v>18050</v>
+      </c>
+      <c r="G124">
+        <v>201909</v>
+      </c>
+      <c r="H124">
+        <v>167500</v>
+      </c>
+      <c r="I124">
+        <v>99800</v>
+      </c>
+      <c r="J124">
+        <v>74300</v>
+      </c>
+      <c r="K124">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>43285</v>
+      </c>
+      <c r="B125">
+        <v>16400</v>
+      </c>
+      <c r="C125">
+        <v>13800</v>
+      </c>
+      <c r="D125">
+        <v>19450</v>
+      </c>
+      <c r="E125">
+        <v>113500</v>
+      </c>
+      <c r="F125">
+        <v>18050</v>
+      </c>
+      <c r="G125">
+        <v>208608</v>
+      </c>
+      <c r="H125">
+        <v>172500</v>
+      </c>
+      <c r="I125">
+        <v>99000</v>
+      </c>
+      <c r="J125">
+        <v>73800</v>
+      </c>
+      <c r="K125">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>43286</v>
+      </c>
+      <c r="B126">
+        <v>16250</v>
+      </c>
+      <c r="C126">
+        <v>13800</v>
+      </c>
+      <c r="D126">
+        <v>19250</v>
+      </c>
+      <c r="E126">
+        <v>113000</v>
+      </c>
+      <c r="F126">
+        <v>17700</v>
+      </c>
+      <c r="G126">
+        <v>207172</v>
+      </c>
+      <c r="H126">
+        <v>169500</v>
+      </c>
+      <c r="I126">
+        <v>99500</v>
+      </c>
+      <c r="J126">
+        <v>72800</v>
+      </c>
+      <c r="K126">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>43287</v>
+      </c>
+      <c r="B127">
+        <v>16750</v>
+      </c>
+      <c r="C127">
+        <v>13800</v>
+      </c>
+      <c r="D127">
+        <v>19550</v>
+      </c>
+      <c r="E127">
+        <v>114500</v>
+      </c>
+      <c r="F127">
+        <v>18050</v>
+      </c>
+      <c r="G127">
+        <v>209565</v>
+      </c>
+      <c r="H127">
+        <v>168500</v>
+      </c>
+      <c r="I127">
+        <v>102500</v>
+      </c>
+      <c r="J127">
+        <v>75000</v>
+      </c>
+      <c r="K127">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>43290</v>
+      </c>
+      <c r="B128">
+        <v>17000</v>
+      </c>
+      <c r="C128">
+        <v>13850</v>
+      </c>
+      <c r="D128">
+        <v>19500</v>
+      </c>
+      <c r="E128">
+        <v>115500</v>
+      </c>
+      <c r="F128">
+        <v>17900</v>
+      </c>
+      <c r="G128">
+        <v>211000</v>
+      </c>
+      <c r="H128">
+        <v>173000</v>
+      </c>
+      <c r="I128">
+        <v>101500</v>
+      </c>
+      <c r="J128">
+        <v>75200</v>
+      </c>
+      <c r="K128">
+        <v>18150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>43291</v>
+      </c>
+      <c r="B129">
+        <v>16600</v>
+      </c>
+      <c r="C129">
+        <v>13700</v>
+      </c>
+      <c r="D129">
+        <v>19350</v>
+      </c>
+      <c r="E129">
+        <v>109000</v>
+      </c>
+      <c r="F129">
+        <v>18250</v>
+      </c>
+      <c r="G129">
+        <v>211478</v>
+      </c>
+      <c r="H129">
+        <v>173000</v>
+      </c>
+      <c r="I129">
+        <v>100000</v>
+      </c>
+      <c r="J129">
+        <v>75000</v>
+      </c>
+      <c r="K129">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>43292</v>
+      </c>
+      <c r="B130">
+        <v>16700</v>
+      </c>
+      <c r="C130">
+        <v>14350</v>
+      </c>
+      <c r="D130">
+        <v>19150</v>
+      </c>
+      <c r="E130">
+        <v>108500</v>
+      </c>
+      <c r="F130">
+        <v>19250</v>
+      </c>
+      <c r="G130">
+        <v>208129</v>
+      </c>
+      <c r="H130">
+        <v>172500</v>
+      </c>
+      <c r="I130">
+        <v>101000</v>
+      </c>
+      <c r="J130">
+        <v>75500</v>
+      </c>
+      <c r="K130">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>43293</v>
+      </c>
+      <c r="B131">
+        <v>16500</v>
+      </c>
+      <c r="C131">
+        <v>13950</v>
+      </c>
+      <c r="D131">
+        <v>19200</v>
+      </c>
+      <c r="E131">
+        <v>111000</v>
+      </c>
+      <c r="F131">
+        <v>18850</v>
+      </c>
+      <c r="G131">
+        <v>213392</v>
+      </c>
+      <c r="H131">
+        <v>170500</v>
+      </c>
+      <c r="I131">
+        <v>100500</v>
+      </c>
+      <c r="J131">
+        <v>74000</v>
+      </c>
+      <c r="K131">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>43294</v>
+      </c>
+      <c r="B132">
+        <v>16950</v>
+      </c>
+      <c r="C132">
+        <v>13850</v>
+      </c>
+      <c r="D132">
+        <v>18950</v>
+      </c>
+      <c r="E132">
+        <v>111500</v>
+      </c>
+      <c r="F132">
+        <v>18950</v>
+      </c>
+      <c r="G132">
+        <v>216263</v>
+      </c>
+      <c r="H132">
+        <v>170000</v>
+      </c>
+      <c r="I132">
+        <v>100000</v>
+      </c>
+      <c r="J132">
+        <v>75300</v>
+      </c>
+      <c r="K132">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>43297</v>
+      </c>
+      <c r="B133">
+        <v>16650</v>
+      </c>
+      <c r="C133">
+        <v>13700</v>
+      </c>
+      <c r="D133">
+        <v>18700</v>
+      </c>
+      <c r="E133">
+        <v>110500</v>
+      </c>
+      <c r="F133">
+        <v>18450</v>
+      </c>
+      <c r="G133">
+        <v>217220</v>
+      </c>
+      <c r="H133">
+        <v>168000</v>
+      </c>
+      <c r="I133">
+        <v>100000</v>
+      </c>
+      <c r="J133">
+        <v>74300</v>
+      </c>
+      <c r="K133">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>43298</v>
+      </c>
+      <c r="B134">
+        <v>16500</v>
+      </c>
+      <c r="C134">
+        <v>13750</v>
+      </c>
+      <c r="D134">
+        <v>18600</v>
+      </c>
+      <c r="E134">
+        <v>108000</v>
+      </c>
+      <c r="F134">
+        <v>18500</v>
+      </c>
+      <c r="G134">
+        <v>216263</v>
+      </c>
+      <c r="H134">
+        <v>167500</v>
+      </c>
+      <c r="I134">
+        <v>99300</v>
+      </c>
+      <c r="J134">
+        <v>75200</v>
+      </c>
+      <c r="K134">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>43299</v>
+      </c>
+      <c r="B135">
+        <v>16400</v>
+      </c>
+      <c r="C135">
+        <v>13750</v>
+      </c>
+      <c r="D135">
+        <v>18650</v>
+      </c>
+      <c r="E135">
+        <v>105500</v>
+      </c>
+      <c r="F135">
+        <v>18400</v>
+      </c>
+      <c r="G135">
+        <v>210522</v>
+      </c>
+      <c r="H135">
+        <v>167000</v>
+      </c>
+      <c r="I135">
+        <v>98300</v>
+      </c>
+      <c r="J135">
+        <v>73500</v>
+      </c>
+      <c r="K135">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>43300</v>
+      </c>
+      <c r="B136">
+        <v>16400</v>
+      </c>
+      <c r="C136">
+        <v>13400</v>
+      </c>
+      <c r="D136">
+        <v>18700</v>
+      </c>
+      <c r="E136">
+        <v>103500</v>
+      </c>
+      <c r="F136">
+        <v>18100</v>
+      </c>
+      <c r="G136">
+        <v>205737</v>
+      </c>
+      <c r="H136">
+        <v>155000</v>
+      </c>
+      <c r="I136">
+        <v>97300</v>
+      </c>
+      <c r="J136">
+        <v>73000</v>
+      </c>
+      <c r="K136">
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>43301</v>
+      </c>
+      <c r="B137">
+        <v>16500</v>
+      </c>
+      <c r="C137">
+        <v>13250</v>
+      </c>
+      <c r="D137">
+        <v>18250</v>
+      </c>
+      <c r="E137">
+        <v>102500</v>
+      </c>
+      <c r="F137">
+        <v>18150</v>
+      </c>
+      <c r="G137">
+        <v>210043</v>
+      </c>
+      <c r="H137">
+        <v>161500</v>
+      </c>
+      <c r="I137">
+        <v>96600</v>
+      </c>
+      <c r="J137">
+        <v>73000</v>
+      </c>
+      <c r="K137">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>43304</v>
+      </c>
+      <c r="B138">
+        <v>16600</v>
+      </c>
+      <c r="C138">
+        <v>13200</v>
+      </c>
+      <c r="D138">
+        <v>18350</v>
+      </c>
+      <c r="E138">
+        <v>105500</v>
+      </c>
+      <c r="F138">
+        <v>18250</v>
+      </c>
+      <c r="G138">
+        <v>207172</v>
+      </c>
+      <c r="H138">
+        <v>161000</v>
+      </c>
+      <c r="I138">
+        <v>96600</v>
+      </c>
+      <c r="J138">
+        <v>73900</v>
+      </c>
+      <c r="K138">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>43305</v>
+      </c>
+      <c r="B139">
+        <v>16500</v>
+      </c>
+      <c r="C139">
+        <v>13050</v>
+      </c>
+      <c r="D139">
+        <v>18550</v>
+      </c>
+      <c r="E139">
+        <v>111000</v>
+      </c>
+      <c r="F139">
+        <v>18300</v>
+      </c>
+      <c r="G139">
+        <v>210522</v>
+      </c>
+      <c r="H139">
+        <v>155500</v>
+      </c>
+      <c r="I139">
+        <v>98000</v>
+      </c>
+      <c r="J139">
+        <v>75800</v>
+      </c>
+      <c r="K139">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>43306</v>
+      </c>
+      <c r="B140">
+        <v>16750</v>
+      </c>
+      <c r="C140">
+        <v>12650</v>
+      </c>
+      <c r="D140">
+        <v>18700</v>
+      </c>
+      <c r="E140">
+        <v>110000</v>
+      </c>
+      <c r="F140">
+        <v>18000</v>
+      </c>
+      <c r="G140">
+        <v>207172</v>
+      </c>
+      <c r="H140">
+        <v>156500</v>
+      </c>
+      <c r="I140">
+        <v>99800</v>
+      </c>
+      <c r="J140">
+        <v>75700</v>
+      </c>
+      <c r="K140">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>43307</v>
+      </c>
+      <c r="B141">
+        <v>16700</v>
+      </c>
+      <c r="C141">
+        <v>12650</v>
+      </c>
+      <c r="D141">
+        <v>18300</v>
+      </c>
+      <c r="E141">
+        <v>112500</v>
+      </c>
+      <c r="F141">
+        <v>17850</v>
+      </c>
+      <c r="G141">
+        <v>214828</v>
+      </c>
+      <c r="H141">
+        <v>157500</v>
+      </c>
+      <c r="I141">
+        <v>100000</v>
+      </c>
+      <c r="J141">
+        <v>76400</v>
+      </c>
+      <c r="K141">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>43308</v>
+      </c>
+      <c r="B142">
+        <v>16850</v>
+      </c>
+      <c r="C142">
+        <v>12900</v>
+      </c>
+      <c r="D142">
+        <v>18650</v>
+      </c>
+      <c r="E142">
+        <v>113000</v>
+      </c>
+      <c r="F142">
+        <v>18050</v>
+      </c>
+      <c r="G142">
+        <v>212914</v>
+      </c>
+      <c r="H142">
+        <v>156500</v>
+      </c>
+      <c r="I142">
+        <v>101500</v>
+      </c>
+      <c r="J142">
+        <v>76100</v>
+      </c>
+      <c r="K142">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>43311</v>
+      </c>
+      <c r="B143">
+        <v>16800</v>
+      </c>
+      <c r="C143">
+        <v>12950</v>
+      </c>
+      <c r="D143">
+        <v>18650</v>
+      </c>
+      <c r="E143">
+        <v>113000</v>
+      </c>
+      <c r="F143">
+        <v>18150</v>
+      </c>
+      <c r="G143">
+        <v>212914</v>
+      </c>
+      <c r="H143">
+        <v>154000</v>
+      </c>
+      <c r="I143">
+        <v>101500</v>
+      </c>
+      <c r="J143">
+        <v>77300</v>
+      </c>
+      <c r="K143">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>43312</v>
+      </c>
+      <c r="B144">
+        <v>16900</v>
+      </c>
+      <c r="C144">
+        <v>12750</v>
+      </c>
+      <c r="D144">
+        <v>18400</v>
+      </c>
+      <c r="E144">
+        <v>114000</v>
+      </c>
+      <c r="F144">
+        <v>18200</v>
+      </c>
+      <c r="G144">
+        <v>213392</v>
+      </c>
+      <c r="H144">
+        <v>151000</v>
+      </c>
+      <c r="I144">
+        <v>104000</v>
+      </c>
+      <c r="J144">
+        <v>78400</v>
+      </c>
+      <c r="K144">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B145">
+        <v>17150</v>
+      </c>
+      <c r="C145">
+        <v>12850</v>
+      </c>
+      <c r="D145">
+        <v>18700</v>
+      </c>
+      <c r="E145">
+        <v>115000</v>
+      </c>
+      <c r="F145">
+        <v>18050</v>
+      </c>
+      <c r="G145">
+        <v>214349</v>
+      </c>
+      <c r="H145">
+        <v>152000</v>
+      </c>
+      <c r="I145">
+        <v>104500</v>
+      </c>
+      <c r="J145">
+        <v>79000</v>
+      </c>
+      <c r="K145">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>43314</v>
+      </c>
+      <c r="B146">
+        <v>16750</v>
+      </c>
+      <c r="C146">
+        <v>12850</v>
+      </c>
+      <c r="D146">
+        <v>18550</v>
+      </c>
+      <c r="E146">
+        <v>114500</v>
+      </c>
+      <c r="F146">
+        <v>17900</v>
+      </c>
+      <c r="G146">
+        <v>214349</v>
+      </c>
+      <c r="H146">
+        <v>151500</v>
+      </c>
+      <c r="I146">
+        <v>104000</v>
+      </c>
+      <c r="J146">
+        <v>79200</v>
+      </c>
+      <c r="K146">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>43315</v>
+      </c>
+      <c r="B147">
+        <v>16900</v>
+      </c>
+      <c r="C147">
+        <v>12950</v>
+      </c>
+      <c r="D147">
+        <v>18600</v>
+      </c>
+      <c r="E147">
+        <v>115000</v>
+      </c>
+      <c r="F147">
+        <v>18100</v>
+      </c>
+      <c r="G147">
+        <v>214349</v>
+      </c>
+      <c r="H147">
+        <v>154000</v>
+      </c>
+      <c r="I147">
+        <v>109000</v>
+      </c>
+      <c r="J147">
+        <v>79500</v>
+      </c>
+      <c r="K147">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>43318</v>
+      </c>
+      <c r="B148">
+        <v>16650</v>
+      </c>
+      <c r="C148">
+        <v>12850</v>
+      </c>
+      <c r="D148">
+        <v>19150</v>
+      </c>
+      <c r="E148">
+        <v>116500</v>
+      </c>
+      <c r="F148">
+        <v>17900</v>
+      </c>
+      <c r="G148">
+        <v>215306</v>
+      </c>
+      <c r="H148">
+        <v>151500</v>
+      </c>
+      <c r="I148">
+        <v>108500</v>
+      </c>
+      <c r="J148">
+        <v>79100</v>
+      </c>
+      <c r="K148">
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>43319</v>
+      </c>
+      <c r="B149">
+        <v>16300</v>
+      </c>
+      <c r="C149">
+        <v>13100</v>
+      </c>
+      <c r="D149">
+        <v>18750</v>
+      </c>
+      <c r="E149">
+        <v>116500</v>
+      </c>
+      <c r="F149">
+        <v>17950</v>
+      </c>
+      <c r="G149">
+        <v>218177</v>
+      </c>
+      <c r="H149">
+        <v>152500</v>
+      </c>
+      <c r="I149">
+        <v>107500</v>
+      </c>
+      <c r="J149">
+        <v>79800</v>
+      </c>
+      <c r="K149">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>43320</v>
+      </c>
+      <c r="B150">
+        <v>16800</v>
+      </c>
+      <c r="C150">
+        <v>13200</v>
+      </c>
+      <c r="D150">
+        <v>18800</v>
+      </c>
+      <c r="E150">
+        <v>107500</v>
+      </c>
+      <c r="F150">
+        <v>17850</v>
+      </c>
+      <c r="G150">
+        <v>214349</v>
+      </c>
+      <c r="H150">
+        <v>150500</v>
+      </c>
+      <c r="I150">
+        <v>109500</v>
+      </c>
+      <c r="J150">
+        <v>77000</v>
+      </c>
+      <c r="K150">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>43321</v>
+      </c>
+      <c r="B151">
+        <v>16550</v>
+      </c>
+      <c r="C151">
+        <v>13450</v>
+      </c>
+      <c r="D151">
+        <v>19350</v>
+      </c>
+      <c r="E151">
+        <v>105000</v>
+      </c>
+      <c r="F151">
+        <v>17550</v>
+      </c>
+      <c r="G151">
+        <v>216741</v>
+      </c>
+      <c r="H151">
+        <v>151000</v>
+      </c>
+      <c r="I151">
+        <v>109000</v>
+      </c>
+      <c r="J151">
+        <v>77500</v>
+      </c>
+      <c r="K151">
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>43322</v>
+      </c>
+      <c r="B152">
+        <v>16300</v>
+      </c>
+      <c r="C152">
+        <v>13500</v>
+      </c>
+      <c r="D152">
+        <v>19100</v>
+      </c>
+      <c r="E152">
+        <v>107000</v>
+      </c>
+      <c r="F152">
+        <v>17900</v>
+      </c>
+      <c r="G152">
+        <v>220091</v>
+      </c>
+      <c r="H152">
+        <v>150500</v>
+      </c>
+      <c r="I152">
+        <v>111000</v>
+      </c>
+      <c r="J152">
+        <v>79000</v>
+      </c>
+      <c r="K152">
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>43325</v>
+      </c>
+      <c r="B153">
+        <v>16100</v>
+      </c>
+      <c r="C153">
+        <v>13400</v>
+      </c>
+      <c r="D153">
+        <v>18600</v>
+      </c>
+      <c r="E153">
+        <v>103500</v>
+      </c>
+      <c r="F153">
+        <v>17600</v>
+      </c>
+      <c r="G153">
+        <v>214828</v>
+      </c>
+      <c r="H153">
+        <v>143500</v>
+      </c>
+      <c r="I153">
+        <v>107000</v>
+      </c>
+      <c r="J153">
+        <v>78000</v>
+      </c>
+      <c r="K153">
+        <v>18950</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B154">
+        <v>16400</v>
+      </c>
+      <c r="C154">
+        <v>13100</v>
+      </c>
+      <c r="D154">
+        <v>18950</v>
+      </c>
+      <c r="E154">
+        <v>103000</v>
+      </c>
+      <c r="F154">
+        <v>17500</v>
+      </c>
+      <c r="G154">
+        <v>215785</v>
+      </c>
+      <c r="H154">
+        <v>144500</v>
+      </c>
+      <c r="I154">
+        <v>109000</v>
+      </c>
+      <c r="J154">
+        <v>78700</v>
+      </c>
+      <c r="K154">
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>43328</v>
+      </c>
+      <c r="B155">
+        <v>16300</v>
+      </c>
+      <c r="C155">
+        <v>13450</v>
+      </c>
+      <c r="D155">
+        <v>18600</v>
+      </c>
+      <c r="E155">
+        <v>102000</v>
+      </c>
+      <c r="F155">
+        <v>16450</v>
+      </c>
+      <c r="G155">
+        <v>211478</v>
+      </c>
+      <c r="H155">
+        <v>145000</v>
+      </c>
+      <c r="I155">
+        <v>110000</v>
+      </c>
+      <c r="J155">
+        <v>78900</v>
+      </c>
+      <c r="K155">
+        <v>18550</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>43329</v>
+      </c>
+      <c r="B156">
+        <v>16250</v>
+      </c>
+      <c r="C156">
+        <v>13600</v>
+      </c>
+      <c r="D156">
+        <v>18650</v>
+      </c>
+      <c r="E156">
+        <v>102000</v>
+      </c>
+      <c r="F156">
+        <v>16500</v>
+      </c>
+      <c r="G156">
+        <v>216263</v>
+      </c>
+      <c r="H156">
+        <v>143500</v>
+      </c>
+      <c r="I156">
+        <v>109500</v>
+      </c>
+      <c r="J156">
+        <v>78300</v>
+      </c>
+      <c r="K156">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>43332</v>
+      </c>
+      <c r="B157">
+        <v>16250</v>
+      </c>
+      <c r="C157">
+        <v>13450</v>
+      </c>
+      <c r="D157">
+        <v>18800</v>
+      </c>
+      <c r="E157">
+        <v>104000</v>
+      </c>
+      <c r="F157">
+        <v>16450</v>
+      </c>
+      <c r="G157">
+        <v>216741</v>
+      </c>
+      <c r="H157">
+        <v>147500</v>
+      </c>
+      <c r="I157">
+        <v>109500</v>
+      </c>
+      <c r="J157">
+        <v>79400</v>
+      </c>
+      <c r="K157">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>43333</v>
+      </c>
+      <c r="B158">
+        <v>16350</v>
+      </c>
+      <c r="C158">
+        <v>13500</v>
+      </c>
+      <c r="D158">
+        <v>18950</v>
+      </c>
+      <c r="E158">
+        <v>103000</v>
+      </c>
+      <c r="F158">
+        <v>16600</v>
+      </c>
+      <c r="G158">
+        <v>217220</v>
+      </c>
+      <c r="H158">
+        <v>152000</v>
+      </c>
+      <c r="I158">
+        <v>107000</v>
+      </c>
+      <c r="J158">
+        <v>79700</v>
+      </c>
+      <c r="K158">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>43334</v>
+      </c>
+      <c r="B159">
+        <v>16300</v>
+      </c>
+      <c r="C159">
+        <v>13600</v>
+      </c>
+      <c r="D159">
+        <v>18350</v>
+      </c>
+      <c r="E159">
+        <v>100000</v>
+      </c>
+      <c r="F159">
+        <v>16750</v>
+      </c>
+      <c r="G159">
+        <v>217698</v>
+      </c>
+      <c r="H159">
+        <v>154500</v>
+      </c>
+      <c r="I159">
+        <v>106500</v>
+      </c>
+      <c r="J159">
+        <v>79900</v>
+      </c>
+      <c r="K159">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>43335</v>
+      </c>
+      <c r="B160">
+        <v>16250</v>
+      </c>
+      <c r="C160">
+        <v>13650</v>
+      </c>
+      <c r="D160">
+        <v>18550</v>
+      </c>
+      <c r="E160">
+        <v>104000</v>
+      </c>
+      <c r="F160">
+        <v>16600</v>
+      </c>
+      <c r="G160">
+        <v>220091</v>
+      </c>
+      <c r="H160">
+        <v>157000</v>
+      </c>
+      <c r="I160">
+        <v>109000</v>
+      </c>
+      <c r="J160">
+        <v>79700</v>
+      </c>
+      <c r="K160">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>43336</v>
+      </c>
+      <c r="B161">
+        <v>16350</v>
+      </c>
+      <c r="C161">
+        <v>13700</v>
+      </c>
+      <c r="D161">
+        <v>18550</v>
+      </c>
+      <c r="E161">
+        <v>101500</v>
+      </c>
+      <c r="F161">
+        <v>16700</v>
+      </c>
+      <c r="G161">
+        <v>220091</v>
+      </c>
+      <c r="H161">
+        <v>154500</v>
+      </c>
+      <c r="I161">
+        <v>108000</v>
+      </c>
+      <c r="J161">
+        <v>80400</v>
+      </c>
+      <c r="K161">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>43339</v>
+      </c>
+      <c r="B162">
+        <v>16350</v>
+      </c>
+      <c r="C162">
+        <v>13550</v>
+      </c>
+      <c r="D162">
+        <v>18150</v>
+      </c>
+      <c r="E162">
+        <v>101500</v>
+      </c>
+      <c r="F162">
+        <v>16550</v>
+      </c>
+      <c r="G162">
+        <v>221048</v>
+      </c>
+      <c r="H162">
+        <v>154000</v>
+      </c>
+      <c r="I162">
+        <v>107500</v>
+      </c>
+      <c r="J162">
+        <v>79400</v>
+      </c>
+      <c r="K162">
+        <v>18150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>43340</v>
+      </c>
+      <c r="B163">
+        <v>16500</v>
+      </c>
+      <c r="C163">
+        <v>13350</v>
+      </c>
+      <c r="D163">
+        <v>18150</v>
+      </c>
+      <c r="E163">
+        <v>102000</v>
+      </c>
+      <c r="F163">
+        <v>16750</v>
+      </c>
+      <c r="G163">
+        <v>219612</v>
+      </c>
+      <c r="H163">
+        <v>153500</v>
+      </c>
+      <c r="I163">
+        <v>112500</v>
+      </c>
+      <c r="J163">
+        <v>82000</v>
+      </c>
+      <c r="K163">
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>43341</v>
+      </c>
+      <c r="B164">
+        <v>16650</v>
+      </c>
+      <c r="C164">
+        <v>13300</v>
+      </c>
+      <c r="D164">
+        <v>17950</v>
+      </c>
+      <c r="E164">
+        <v>102000</v>
+      </c>
+      <c r="F164">
+        <v>16800</v>
+      </c>
+      <c r="G164">
+        <v>221526</v>
+      </c>
+      <c r="H164">
+        <v>153500</v>
+      </c>
+      <c r="I164">
+        <v>116000</v>
+      </c>
+      <c r="J164">
+        <v>82200</v>
+      </c>
+      <c r="K164">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>43342</v>
+      </c>
+      <c r="B165">
+        <v>16250</v>
+      </c>
+      <c r="C165">
+        <v>13400</v>
+      </c>
+      <c r="D165">
+        <v>18000</v>
+      </c>
+      <c r="E165">
+        <v>100000</v>
+      </c>
+      <c r="F165">
+        <v>16900</v>
+      </c>
+      <c r="G165">
+        <v>219134</v>
+      </c>
+      <c r="H165">
+        <v>153000</v>
+      </c>
+      <c r="I165">
+        <v>117500</v>
+      </c>
+      <c r="J165">
+        <v>82300</v>
+      </c>
+      <c r="K165">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>43343</v>
+      </c>
+      <c r="B166">
+        <v>16300</v>
+      </c>
+      <c r="C166">
+        <v>13750</v>
+      </c>
+      <c r="D166">
+        <v>18250</v>
+      </c>
+      <c r="E166">
+        <v>102000</v>
+      </c>
+      <c r="F166">
+        <v>16800</v>
+      </c>
+      <c r="G166">
+        <v>228703</v>
+      </c>
+      <c r="H166">
+        <v>154000</v>
+      </c>
+      <c r="I166">
+        <v>117000</v>
+      </c>
+      <c r="J166">
+        <v>81900</v>
+      </c>
+      <c r="K166">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>43346</v>
+      </c>
+      <c r="B167">
+        <v>16100</v>
+      </c>
+      <c r="C167">
+        <v>13600</v>
+      </c>
+      <c r="D167">
+        <v>18550</v>
+      </c>
+      <c r="E167">
+        <v>101500</v>
+      </c>
+      <c r="F167">
+        <v>16900</v>
+      </c>
+      <c r="G167">
+        <v>228224</v>
+      </c>
+      <c r="H167">
+        <v>152000</v>
+      </c>
+      <c r="I167">
+        <v>120500</v>
+      </c>
+      <c r="J167">
+        <v>81900</v>
+      </c>
+      <c r="K167">
+        <v>17750</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>43347</v>
+      </c>
+      <c r="B168">
+        <v>16100</v>
+      </c>
+      <c r="C168">
+        <v>13500</v>
+      </c>
+      <c r="D168">
+        <v>18400</v>
+      </c>
+      <c r="E168">
+        <v>104000</v>
+      </c>
+      <c r="F168">
+        <v>16500</v>
+      </c>
+      <c r="G168">
+        <v>228224</v>
+      </c>
+      <c r="H168">
+        <v>148000</v>
+      </c>
+      <c r="I168">
+        <v>120500</v>
+      </c>
+      <c r="J168">
+        <v>82200</v>
+      </c>
+      <c r="K168">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>43348</v>
+      </c>
+      <c r="B169">
+        <v>15750</v>
+      </c>
+      <c r="C169">
+        <v>13500</v>
+      </c>
+      <c r="D169">
+        <v>18400</v>
+      </c>
+      <c r="E169">
+        <v>104500</v>
+      </c>
+      <c r="F169">
+        <v>16650</v>
+      </c>
+      <c r="G169">
+        <v>230138</v>
+      </c>
+      <c r="H169">
+        <v>152000</v>
+      </c>
+      <c r="I169">
+        <v>121500</v>
+      </c>
+      <c r="J169">
+        <v>80800</v>
+      </c>
+      <c r="K169">
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>43349</v>
+      </c>
+      <c r="B170">
+        <v>15750</v>
+      </c>
+      <c r="C170">
+        <v>13150</v>
+      </c>
+      <c r="D170">
+        <v>18300</v>
+      </c>
+      <c r="E170">
+        <v>102000</v>
+      </c>
+      <c r="F170">
+        <v>16650</v>
+      </c>
+      <c r="G170">
+        <v>227746</v>
+      </c>
+      <c r="H170">
+        <v>155500</v>
+      </c>
+      <c r="I170">
+        <v>125000</v>
+      </c>
+      <c r="J170">
+        <v>81700</v>
+      </c>
+      <c r="K170">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>43350</v>
+      </c>
+      <c r="B171">
+        <v>16000</v>
+      </c>
+      <c r="C171">
+        <v>13250</v>
+      </c>
+      <c r="D171">
+        <v>18250</v>
+      </c>
+      <c r="E171">
+        <v>104500</v>
+      </c>
+      <c r="F171">
+        <v>16700</v>
+      </c>
+      <c r="G171">
+        <v>230617</v>
+      </c>
+      <c r="H171">
+        <v>161500</v>
+      </c>
+      <c r="I171">
+        <v>127500</v>
+      </c>
+      <c r="J171">
+        <v>82300</v>
+      </c>
+      <c r="K171">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>43353</v>
+      </c>
+      <c r="B172">
+        <v>16100</v>
+      </c>
+      <c r="C172">
+        <v>13250</v>
+      </c>
+      <c r="D172">
+        <v>18100</v>
+      </c>
+      <c r="E172">
+        <v>105000</v>
+      </c>
+      <c r="F172">
+        <v>16600</v>
+      </c>
+      <c r="G172">
+        <v>229181</v>
+      </c>
+      <c r="H172">
+        <v>167000</v>
+      </c>
+      <c r="I172">
+        <v>126000</v>
+      </c>
+      <c r="J172">
+        <v>84000</v>
+      </c>
+      <c r="K172">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>43354</v>
+      </c>
+      <c r="B173">
+        <v>16200</v>
+      </c>
+      <c r="C173">
+        <v>13200</v>
+      </c>
+      <c r="D173">
+        <v>17900</v>
+      </c>
+      <c r="E173">
+        <v>105000</v>
+      </c>
+      <c r="F173">
+        <v>16600</v>
+      </c>
+      <c r="G173">
+        <v>230138</v>
+      </c>
+      <c r="H173">
+        <v>165000</v>
+      </c>
+      <c r="I173">
+        <v>136000</v>
+      </c>
+      <c r="J173">
+        <v>84800</v>
+      </c>
+      <c r="K173">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>43355</v>
+      </c>
+      <c r="B174">
+        <v>16300</v>
+      </c>
+      <c r="C174">
+        <v>13350</v>
+      </c>
+      <c r="D174">
+        <v>17800</v>
+      </c>
+      <c r="E174">
+        <v>108500</v>
+      </c>
+      <c r="F174">
+        <v>16600</v>
+      </c>
+      <c r="G174">
+        <v>228703</v>
+      </c>
+      <c r="H174">
+        <v>166500</v>
+      </c>
+      <c r="I174">
+        <v>136500</v>
+      </c>
+      <c r="J174">
+        <v>84700</v>
+      </c>
+      <c r="K174">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>43356</v>
+      </c>
+      <c r="B175">
+        <v>16500</v>
+      </c>
+      <c r="C175">
+        <v>13400</v>
+      </c>
+      <c r="D175">
+        <v>18300</v>
+      </c>
+      <c r="E175">
+        <v>110000</v>
+      </c>
+      <c r="F175">
+        <v>17100</v>
+      </c>
+      <c r="G175">
+        <v>229660</v>
+      </c>
+      <c r="H175">
+        <v>166000</v>
+      </c>
+      <c r="I175">
+        <v>139000</v>
+      </c>
+      <c r="J175">
+        <v>83400</v>
+      </c>
+      <c r="K175">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>43357</v>
+      </c>
+      <c r="B176">
+        <v>16300</v>
+      </c>
+      <c r="C176">
+        <v>13350</v>
+      </c>
+      <c r="D176">
+        <v>18550</v>
+      </c>
+      <c r="E176">
+        <v>108500</v>
+      </c>
+      <c r="F176">
+        <v>17000</v>
+      </c>
+      <c r="G176">
+        <v>229660</v>
+      </c>
+      <c r="H176">
+        <v>165500</v>
+      </c>
+      <c r="I176">
+        <v>140500</v>
+      </c>
+      <c r="J176">
+        <v>84200</v>
+      </c>
+      <c r="K176">
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>43360</v>
+      </c>
+      <c r="B177">
+        <v>16300</v>
+      </c>
+      <c r="C177">
+        <v>13000</v>
+      </c>
+      <c r="D177">
+        <v>18350</v>
+      </c>
+      <c r="E177">
+        <v>104000</v>
+      </c>
+      <c r="F177">
+        <v>16850</v>
+      </c>
+      <c r="G177">
+        <v>229181</v>
+      </c>
+      <c r="H177">
+        <v>164500</v>
+      </c>
+      <c r="I177">
+        <v>139000</v>
+      </c>
+      <c r="J177">
+        <v>83600</v>
+      </c>
+      <c r="K177">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>43361</v>
+      </c>
+      <c r="B178">
+        <v>16100</v>
+      </c>
+      <c r="C178">
+        <v>13000</v>
+      </c>
+      <c r="D178">
+        <v>18400</v>
+      </c>
+      <c r="E178">
+        <v>101500</v>
+      </c>
+      <c r="F178">
+        <v>16900</v>
+      </c>
+      <c r="G178">
+        <v>226311</v>
+      </c>
+      <c r="H178">
+        <v>162000</v>
+      </c>
+      <c r="I178">
+        <v>143000</v>
+      </c>
+      <c r="J178">
+        <v>83500</v>
+      </c>
+      <c r="K178">
+        <v>17900</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>43362</v>
+      </c>
+      <c r="B179">
+        <v>16100</v>
+      </c>
+      <c r="C179">
+        <v>13250</v>
+      </c>
+      <c r="D179">
+        <v>18100</v>
+      </c>
+      <c r="E179">
+        <v>102000</v>
+      </c>
+      <c r="F179">
+        <v>16550</v>
+      </c>
+      <c r="G179">
+        <v>227746</v>
+      </c>
+      <c r="H179">
+        <v>162000</v>
+      </c>
+      <c r="I179">
+        <v>142500</v>
+      </c>
+      <c r="J179">
+        <v>82000</v>
+      </c>
+      <c r="K179">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>43363</v>
+      </c>
+      <c r="B180">
+        <v>16400</v>
+      </c>
+      <c r="C180">
+        <v>13100</v>
+      </c>
+      <c r="D180">
+        <v>18350</v>
+      </c>
+      <c r="E180">
+        <v>99500</v>
+      </c>
+      <c r="F180">
+        <v>16600</v>
+      </c>
+      <c r="G180">
+        <v>228224</v>
+      </c>
+      <c r="H180">
+        <v>158000</v>
+      </c>
+      <c r="I180">
+        <v>137500</v>
+      </c>
+      <c r="J180">
+        <v>81700</v>
+      </c>
+      <c r="K180">
+        <v>17800</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>43364</v>
+      </c>
+      <c r="B181">
+        <v>16650</v>
+      </c>
+      <c r="C181">
+        <v>12950</v>
+      </c>
+      <c r="D181">
+        <v>18550</v>
+      </c>
+      <c r="E181">
+        <v>100000</v>
+      </c>
+      <c r="F181">
+        <v>16600</v>
+      </c>
+      <c r="G181">
+        <v>227268</v>
+      </c>
+      <c r="H181">
+        <v>158000</v>
+      </c>
+      <c r="I181">
+        <v>136000</v>
+      </c>
+      <c r="J181">
+        <v>82000</v>
+      </c>
+      <c r="K181">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>43370</v>
+      </c>
+      <c r="B182">
+        <v>16700</v>
+      </c>
+      <c r="C182">
+        <v>13100</v>
+      </c>
+      <c r="D182">
+        <v>19600</v>
+      </c>
+      <c r="E182">
+        <v>101500</v>
+      </c>
+      <c r="F182">
+        <v>16700</v>
+      </c>
+      <c r="G182">
+        <v>232052</v>
+      </c>
+      <c r="H182">
+        <v>156000</v>
+      </c>
+      <c r="I182">
+        <v>138000</v>
+      </c>
+      <c r="J182">
+        <v>83000</v>
+      </c>
+      <c r="K182">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>43371</v>
+      </c>
+      <c r="B183">
+        <v>16900</v>
+      </c>
+      <c r="C183">
+        <v>13000</v>
+      </c>
+      <c r="D183">
+        <v>19350</v>
+      </c>
+      <c r="E183">
+        <v>101500</v>
+      </c>
+      <c r="F183">
+        <v>16850</v>
+      </c>
+      <c r="G183">
+        <v>232052</v>
+      </c>
+      <c r="H183">
+        <v>158000</v>
+      </c>
+      <c r="I183">
+        <v>136500</v>
+      </c>
+      <c r="J183">
+        <v>82600</v>
+      </c>
+      <c r="K183">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B184">
+        <v>16900</v>
+      </c>
+      <c r="C184">
+        <v>13000</v>
+      </c>
+      <c r="D184">
+        <v>19600</v>
+      </c>
+      <c r="E184">
+        <v>101000</v>
+      </c>
+      <c r="F184">
+        <v>17100</v>
+      </c>
+      <c r="G184">
+        <v>227746</v>
+      </c>
+      <c r="H184">
+        <v>158000</v>
+      </c>
+      <c r="I184">
+        <v>141000</v>
+      </c>
+      <c r="J184">
+        <v>82800</v>
+      </c>
+      <c r="K184">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>43375</v>
+      </c>
+      <c r="B185">
+        <v>16700</v>
+      </c>
+      <c r="C185">
+        <v>12950</v>
+      </c>
+      <c r="D185">
+        <v>19450</v>
+      </c>
+      <c r="E185">
+        <v>98500</v>
+      </c>
+      <c r="F185">
+        <v>16800</v>
+      </c>
+      <c r="G185">
+        <v>222961</v>
+      </c>
+      <c r="H185">
+        <v>161000</v>
+      </c>
+      <c r="I185">
+        <v>136500</v>
+      </c>
+      <c r="J185">
+        <v>85700</v>
+      </c>
+      <c r="K185">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>43377</v>
+      </c>
+      <c r="B186">
+        <v>17000</v>
+      </c>
+      <c r="C186">
+        <v>13000</v>
+      </c>
+      <c r="D186">
+        <v>19450</v>
+      </c>
+      <c r="E186">
+        <v>98400</v>
+      </c>
+      <c r="F186">
+        <v>16450</v>
+      </c>
+      <c r="G186">
+        <v>222961</v>
+      </c>
+      <c r="H186">
+        <v>151000</v>
+      </c>
+      <c r="I186">
+        <v>137000</v>
+      </c>
+      <c r="J186">
+        <v>87000</v>
+      </c>
+      <c r="K186">
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>43378</v>
+      </c>
+      <c r="B187">
+        <v>16800</v>
+      </c>
+      <c r="C187">
+        <v>13100</v>
+      </c>
+      <c r="D187">
+        <v>19450</v>
+      </c>
+      <c r="E187">
+        <v>97700</v>
+      </c>
+      <c r="F187">
+        <v>16600</v>
+      </c>
+      <c r="G187">
+        <v>214828</v>
+      </c>
+      <c r="H187">
+        <v>153500</v>
+      </c>
+      <c r="I187">
+        <v>132000</v>
+      </c>
+      <c r="J187">
+        <v>87800</v>
+      </c>
+      <c r="K187">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>43381</v>
+      </c>
+      <c r="B188">
+        <v>16900</v>
+      </c>
+      <c r="C188">
+        <v>13050</v>
+      </c>
+      <c r="D188">
+        <v>19450</v>
+      </c>
+      <c r="E188">
+        <v>96800</v>
+      </c>
+      <c r="F188">
+        <v>16400</v>
+      </c>
+      <c r="G188">
+        <v>211000</v>
+      </c>
+      <c r="H188">
+        <v>153000</v>
+      </c>
+      <c r="I188">
+        <v>134000</v>
+      </c>
+      <c r="J188">
+        <v>87400</v>
+      </c>
+      <c r="K188">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>43383</v>
+      </c>
+      <c r="B189">
+        <v>16950</v>
+      </c>
+      <c r="C189">
+        <v>12600</v>
+      </c>
+      <c r="D189">
+        <v>19250</v>
+      </c>
+      <c r="E189">
+        <v>95000</v>
+      </c>
+      <c r="F189">
+        <v>16300</v>
+      </c>
+      <c r="G189">
+        <v>206215</v>
+      </c>
+      <c r="H189">
+        <v>148000</v>
+      </c>
+      <c r="I189">
+        <v>130000</v>
+      </c>
+      <c r="J189">
+        <v>84500</v>
+      </c>
+      <c r="K189">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>43384</v>
+      </c>
+      <c r="B190">
+        <v>16150</v>
+      </c>
+      <c r="C190">
+        <v>11950</v>
+      </c>
+      <c r="D190">
+        <v>18750</v>
+      </c>
+      <c r="E190">
+        <v>90500</v>
+      </c>
+      <c r="F190">
+        <v>15650</v>
+      </c>
+      <c r="G190">
+        <v>197603</v>
+      </c>
+      <c r="H190">
+        <v>140000</v>
+      </c>
+      <c r="I190">
+        <v>127500</v>
+      </c>
+      <c r="J190">
+        <v>79600</v>
+      </c>
+      <c r="K190">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>43385</v>
+      </c>
+      <c r="B191">
+        <v>16150</v>
+      </c>
+      <c r="C191">
+        <v>12500</v>
+      </c>
+      <c r="D191">
+        <v>18500</v>
+      </c>
+      <c r="E191">
+        <v>90700</v>
+      </c>
+      <c r="F191">
+        <v>15800</v>
+      </c>
+      <c r="G191">
+        <v>199995</v>
+      </c>
+      <c r="H191">
+        <v>147500</v>
+      </c>
+      <c r="I191">
+        <v>130000</v>
+      </c>
+      <c r="J191">
+        <v>81800</v>
+      </c>
+      <c r="K191">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>43388</v>
+      </c>
+      <c r="B192">
+        <v>16200</v>
+      </c>
+      <c r="C192">
+        <v>12400</v>
+      </c>
+      <c r="D192">
+        <v>18400</v>
+      </c>
+      <c r="E192">
+        <v>89700</v>
+      </c>
+      <c r="F192">
+        <v>16050</v>
+      </c>
+      <c r="G192">
+        <v>199517</v>
+      </c>
+      <c r="H192">
+        <v>152000</v>
+      </c>
+      <c r="I192">
+        <v>129000</v>
+      </c>
+      <c r="J192">
+        <v>81600</v>
+      </c>
+      <c r="K192">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B193">
+        <v>16100</v>
+      </c>
+      <c r="C193">
+        <v>12050</v>
+      </c>
+      <c r="D193">
+        <v>18300</v>
+      </c>
+      <c r="E193">
+        <v>91200</v>
+      </c>
+      <c r="F193">
+        <v>15900</v>
+      </c>
+      <c r="G193">
+        <v>199517</v>
+      </c>
+      <c r="H193">
+        <v>150000</v>
+      </c>
+      <c r="I193">
+        <v>130500</v>
+      </c>
+      <c r="J193">
+        <v>82500</v>
+      </c>
+      <c r="K193">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>43390</v>
+      </c>
+      <c r="B194">
+        <v>16350</v>
+      </c>
+      <c r="C194">
+        <v>12100</v>
+      </c>
+      <c r="D194">
+        <v>18550</v>
+      </c>
+      <c r="E194">
+        <v>91200</v>
+      </c>
+      <c r="F194">
+        <v>16150</v>
+      </c>
+      <c r="G194">
+        <v>199995</v>
+      </c>
+      <c r="H194">
+        <v>151500</v>
+      </c>
+      <c r="I194">
+        <v>130500</v>
+      </c>
+      <c r="J194">
+        <v>82900</v>
+      </c>
+      <c r="K194">
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>43391</v>
+      </c>
+      <c r="B195">
+        <v>16300</v>
+      </c>
+      <c r="C195">
+        <v>12100</v>
+      </c>
+      <c r="D195">
+        <v>18450</v>
+      </c>
+      <c r="E195">
+        <v>90700</v>
+      </c>
+      <c r="F195">
+        <v>16100</v>
+      </c>
+      <c r="G195">
+        <v>200474</v>
+      </c>
+      <c r="H195">
+        <v>152500</v>
+      </c>
+      <c r="I195">
+        <v>128000</v>
+      </c>
+      <c r="J195">
+        <v>82900</v>
+      </c>
+      <c r="K195">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>43392</v>
+      </c>
+      <c r="B196">
+        <v>16350</v>
+      </c>
+      <c r="C196">
+        <v>12100</v>
+      </c>
+      <c r="D196">
+        <v>18400</v>
+      </c>
+      <c r="E196">
+        <v>90700</v>
+      </c>
+      <c r="F196">
+        <v>16000</v>
+      </c>
+      <c r="G196">
+        <v>202866</v>
+      </c>
+      <c r="H196">
+        <v>162000</v>
+      </c>
+      <c r="I196">
+        <v>127000</v>
+      </c>
+      <c r="J196">
+        <v>82900</v>
+      </c>
+      <c r="K196">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>43395</v>
+      </c>
+      <c r="B197">
+        <v>16550</v>
+      </c>
+      <c r="C197">
+        <v>11600</v>
+      </c>
+      <c r="D197">
+        <v>19000</v>
+      </c>
+      <c r="E197">
+        <v>89300</v>
+      </c>
+      <c r="F197">
+        <v>16250</v>
+      </c>
+      <c r="G197">
+        <v>198082</v>
+      </c>
+      <c r="H197">
+        <v>163000</v>
+      </c>
+      <c r="I197">
+        <v>130500</v>
+      </c>
+      <c r="J197">
+        <v>84200</v>
+      </c>
+      <c r="K197">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>43396</v>
+      </c>
+      <c r="B198">
+        <v>16150</v>
+      </c>
+      <c r="C198">
+        <v>11400</v>
+      </c>
+      <c r="D198">
+        <v>18400</v>
+      </c>
+      <c r="E198">
+        <v>87500</v>
+      </c>
+      <c r="F198">
+        <v>15850</v>
+      </c>
+      <c r="G198">
+        <v>192819</v>
+      </c>
+      <c r="H198">
+        <v>162000</v>
+      </c>
+      <c r="I198">
+        <v>126500</v>
+      </c>
+      <c r="J198">
+        <v>82200</v>
+      </c>
+      <c r="K198">
+        <v>16850</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>43397</v>
+      </c>
+      <c r="B199">
+        <v>16450</v>
+      </c>
+      <c r="C199">
+        <v>11450</v>
+      </c>
+      <c r="D199">
+        <v>18750</v>
+      </c>
+      <c r="E199">
+        <v>91600</v>
+      </c>
+      <c r="F199">
+        <v>16200</v>
+      </c>
+      <c r="G199">
+        <v>197603</v>
+      </c>
+      <c r="H199">
+        <v>161500</v>
+      </c>
+      <c r="I199">
+        <v>123500</v>
+      </c>
+      <c r="J199">
+        <v>82100</v>
+      </c>
+      <c r="K199">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>43398</v>
+      </c>
+      <c r="B200">
+        <v>16150</v>
+      </c>
+      <c r="C200">
+        <v>11100</v>
+      </c>
+      <c r="D200">
+        <v>18550</v>
+      </c>
+      <c r="E200">
+        <v>90600</v>
+      </c>
+      <c r="F200">
+        <v>16200</v>
+      </c>
+      <c r="G200">
+        <v>195689</v>
+      </c>
+      <c r="H200">
+        <v>162500</v>
+      </c>
+      <c r="I200">
+        <v>123500</v>
+      </c>
+      <c r="J200">
+        <v>80100</v>
+      </c>
+      <c r="K200">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>43399</v>
+      </c>
+      <c r="B201">
+        <v>16150</v>
+      </c>
+      <c r="C201">
+        <v>11000</v>
+      </c>
+      <c r="D201">
+        <v>18600</v>
+      </c>
+      <c r="E201">
+        <v>88300</v>
+      </c>
+      <c r="F201">
+        <v>15950</v>
+      </c>
+      <c r="G201">
+        <v>188991</v>
+      </c>
+      <c r="H201">
+        <v>157500</v>
+      </c>
+      <c r="I201">
+        <v>121500</v>
+      </c>
+      <c r="J201">
+        <v>77600</v>
+      </c>
+      <c r="K201">
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>43402</v>
+      </c>
+      <c r="B202">
+        <v>16100</v>
+      </c>
+      <c r="C202">
+        <v>10700</v>
+      </c>
+      <c r="D202">
+        <v>18100</v>
+      </c>
+      <c r="E202">
+        <v>85300</v>
+      </c>
+      <c r="F202">
+        <v>15600</v>
+      </c>
+      <c r="G202">
+        <v>181814</v>
+      </c>
+      <c r="H202">
+        <v>155000</v>
+      </c>
+      <c r="I202">
+        <v>122500</v>
+      </c>
+      <c r="J202">
+        <v>74900</v>
+      </c>
+      <c r="K202">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B203">
+        <v>15400</v>
+      </c>
+      <c r="C203">
+        <v>11300</v>
+      </c>
+      <c r="D203">
+        <v>17650</v>
+      </c>
+      <c r="E203">
+        <v>86900</v>
+      </c>
+      <c r="F203">
+        <v>15450</v>
+      </c>
+      <c r="G203">
+        <v>185642</v>
+      </c>
+      <c r="H203">
+        <v>152000</v>
+      </c>
+      <c r="I203">
+        <v>120500</v>
+      </c>
+      <c r="J203">
+        <v>75100</v>
+      </c>
+      <c r="K203">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B204">
+        <v>15750</v>
+      </c>
+      <c r="C204">
+        <v>11850</v>
+      </c>
+      <c r="D204">
+        <v>18200</v>
+      </c>
+      <c r="E204">
+        <v>86300</v>
+      </c>
+      <c r="F204">
+        <v>15750</v>
+      </c>
+      <c r="G204">
+        <v>160283</v>
+      </c>
+      <c r="H204">
+        <v>158500</v>
+      </c>
+      <c r="I204">
+        <v>119500</v>
+      </c>
+      <c r="J204">
+        <v>76000</v>
+      </c>
+      <c r="K204">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B205">
+        <v>15650</v>
+      </c>
+      <c r="C205">
+        <v>11500</v>
+      </c>
+      <c r="D205">
+        <v>17800</v>
+      </c>
+      <c r="E205">
+        <v>85800</v>
+      </c>
+      <c r="F205">
+        <v>15650</v>
+      </c>
+      <c r="G205">
+        <v>161719</v>
+      </c>
+      <c r="H205">
+        <v>157000</v>
+      </c>
+      <c r="I205">
+        <v>118500</v>
+      </c>
+      <c r="J205">
+        <v>75000</v>
+      </c>
+      <c r="K205">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>43406</v>
+      </c>
+      <c r="B206">
+        <v>15900</v>
+      </c>
+      <c r="C206">
+        <v>12000</v>
+      </c>
+      <c r="D206">
+        <v>17800</v>
+      </c>
+      <c r="E206">
+        <v>85400</v>
+      </c>
+      <c r="F206">
+        <v>15700</v>
+      </c>
+      <c r="G206">
+        <v>170331</v>
+      </c>
+      <c r="H206">
+        <v>159500</v>
+      </c>
+      <c r="I206">
+        <v>124000</v>
+      </c>
+      <c r="J206">
+        <v>78800</v>
+      </c>
+      <c r="K206">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>43409</v>
+      </c>
+      <c r="B207">
+        <v>15700</v>
+      </c>
+      <c r="C207">
+        <v>11500</v>
+      </c>
+      <c r="D207">
+        <v>17900</v>
+      </c>
+      <c r="E207">
+        <v>84100</v>
+      </c>
+      <c r="F207">
+        <v>15300</v>
+      </c>
+      <c r="G207">
+        <v>221048</v>
+      </c>
+      <c r="H207">
+        <v>155500</v>
+      </c>
+      <c r="I207">
+        <v>121000</v>
+      </c>
+      <c r="J207">
+        <v>77400</v>
+      </c>
+      <c r="K207">
+        <v>16150</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>43410</v>
+      </c>
+      <c r="B208">
+        <v>15850</v>
+      </c>
+      <c r="C208">
+        <v>11550</v>
+      </c>
+      <c r="D208">
+        <v>18000</v>
+      </c>
+      <c r="E208">
+        <v>84700</v>
+      </c>
+      <c r="F208">
+        <v>15500</v>
+      </c>
+      <c r="G208">
+        <v>239229</v>
+      </c>
+      <c r="H208">
+        <v>157000</v>
+      </c>
+      <c r="I208">
+        <v>121500</v>
+      </c>
+      <c r="J208">
+        <v>78700</v>
+      </c>
+      <c r="K208">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>43411</v>
+      </c>
+      <c r="B209">
+        <v>15750</v>
+      </c>
+      <c r="C209">
+        <v>11300</v>
+      </c>
+      <c r="D209">
+        <v>17950</v>
+      </c>
+      <c r="E209">
+        <v>73600</v>
+      </c>
+      <c r="F209">
+        <v>15600</v>
+      </c>
+      <c r="G209">
+        <v>227268</v>
+      </c>
+      <c r="H209">
+        <v>154500</v>
+      </c>
+      <c r="I209">
+        <v>121000</v>
+      </c>
+      <c r="J209">
+        <v>78100</v>
+      </c>
+      <c r="K209">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>43412</v>
+      </c>
+      <c r="B210">
+        <v>15950</v>
+      </c>
+      <c r="C210">
+        <v>11700</v>
+      </c>
+      <c r="D210">
+        <v>18000</v>
+      </c>
+      <c r="E210">
+        <v>77000</v>
+      </c>
+      <c r="F210">
+        <v>15650</v>
+      </c>
+      <c r="G210">
+        <v>229660</v>
+      </c>
+      <c r="H210">
+        <v>159000</v>
+      </c>
+      <c r="I210">
+        <v>124000</v>
+      </c>
+      <c r="J210">
+        <v>77200</v>
+      </c>
+      <c r="K210">
+        <v>15750</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>43413</v>
+      </c>
+      <c r="B211">
+        <v>15800</v>
+      </c>
+      <c r="C211">
+        <v>11650</v>
+      </c>
+      <c r="D211">
+        <v>18700</v>
+      </c>
+      <c r="E211">
+        <v>77800</v>
+      </c>
+      <c r="F211">
+        <v>15700</v>
+      </c>
+      <c r="G211">
+        <v>224875</v>
+      </c>
+      <c r="H211">
+        <v>155500</v>
+      </c>
+      <c r="I211">
+        <v>124500</v>
+      </c>
+      <c r="J211">
+        <v>78500</v>
+      </c>
+      <c r="K211">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>43416</v>
+      </c>
+      <c r="B212">
+        <v>16050</v>
+      </c>
+      <c r="C212">
+        <v>11500</v>
+      </c>
+      <c r="D212">
+        <v>20550</v>
+      </c>
+      <c r="E212">
+        <v>77000</v>
+      </c>
+      <c r="F212">
+        <v>15750</v>
+      </c>
+      <c r="G212">
+        <v>223440</v>
+      </c>
+      <c r="H212">
+        <v>148000</v>
+      </c>
+      <c r="I212">
+        <v>126000</v>
+      </c>
+      <c r="J212">
+        <v>80900</v>
+      </c>
+      <c r="K212">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>43417</v>
+      </c>
+      <c r="B213">
+        <v>16050</v>
+      </c>
+      <c r="C213">
+        <v>11600</v>
+      </c>
+      <c r="D213">
+        <v>20650</v>
+      </c>
+      <c r="E213">
+        <v>75000</v>
+      </c>
+      <c r="F213">
+        <v>15700</v>
+      </c>
+      <c r="G213">
+        <v>224875</v>
+      </c>
+      <c r="H213">
+        <v>149000</v>
+      </c>
+      <c r="I213">
+        <v>129000</v>
+      </c>
+      <c r="J213">
+        <v>81500</v>
+      </c>
+      <c r="K213">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B214">
+        <v>16000</v>
+      </c>
+      <c r="C214">
+        <v>11100</v>
+      </c>
+      <c r="D214">
+        <v>20500</v>
+      </c>
+      <c r="E214">
+        <v>76600</v>
+      </c>
+      <c r="F214">
+        <v>15800</v>
+      </c>
+      <c r="G214">
+        <v>223918</v>
+      </c>
+      <c r="H214">
+        <v>150000</v>
+      </c>
+      <c r="I214">
+        <v>127000</v>
+      </c>
+      <c r="J214">
+        <v>80800</v>
+      </c>
+      <c r="K214">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B215">
+        <v>16000</v>
+      </c>
+      <c r="C215">
+        <v>11250</v>
+      </c>
+      <c r="D215">
+        <v>20700</v>
+      </c>
+      <c r="E215">
+        <v>80800</v>
+      </c>
+      <c r="F215">
+        <v>16000</v>
+      </c>
+      <c r="G215">
+        <v>228703</v>
+      </c>
+      <c r="H215">
+        <v>150000</v>
+      </c>
+      <c r="I215">
+        <v>125500</v>
+      </c>
+      <c r="J215">
+        <v>84000</v>
+      </c>
+      <c r="K215">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>43420</v>
+      </c>
+      <c r="B216">
+        <v>15900</v>
+      </c>
+      <c r="C216">
+        <v>11300</v>
+      </c>
+      <c r="D216">
+        <v>21300</v>
+      </c>
+      <c r="E216">
+        <v>80000</v>
+      </c>
+      <c r="F216">
+        <v>17000</v>
+      </c>
+      <c r="G216">
+        <v>229660</v>
+      </c>
+      <c r="H216">
+        <v>149500</v>
+      </c>
+      <c r="I216">
+        <v>129500</v>
+      </c>
+      <c r="J216">
+        <v>86200</v>
+      </c>
+      <c r="K216">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>43423</v>
+      </c>
+      <c r="B217">
+        <v>15850</v>
+      </c>
+      <c r="C217">
+        <v>11650</v>
+      </c>
+      <c r="D217">
+        <v>20750</v>
+      </c>
+      <c r="E217">
+        <v>81000</v>
+      </c>
+      <c r="F217">
+        <v>17000</v>
+      </c>
+      <c r="G217">
+        <v>243535</v>
+      </c>
+      <c r="H217">
+        <v>149500</v>
+      </c>
+      <c r="I217">
+        <v>131000</v>
+      </c>
+      <c r="J217">
+        <v>88100</v>
+      </c>
+      <c r="K217">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>43424</v>
+      </c>
+      <c r="B218">
+        <v>16000</v>
+      </c>
+      <c r="C218">
+        <v>11450</v>
+      </c>
+      <c r="D218">
+        <v>21700</v>
+      </c>
+      <c r="E218">
+        <v>83000</v>
+      </c>
+      <c r="F218">
+        <v>17100</v>
+      </c>
+      <c r="G218">
+        <v>239229</v>
+      </c>
+      <c r="H218">
+        <v>147000</v>
+      </c>
+      <c r="I218">
+        <v>128500</v>
+      </c>
+      <c r="J218">
+        <v>88400</v>
+      </c>
+      <c r="K218">
+        <v>16650</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>43425</v>
+      </c>
+      <c r="B219">
+        <v>16000</v>
+      </c>
+      <c r="C219">
+        <v>11450</v>
+      </c>
+      <c r="D219">
+        <v>22000</v>
+      </c>
+      <c r="E219">
+        <v>86300</v>
+      </c>
+      <c r="F219">
+        <v>17300</v>
+      </c>
+      <c r="G219">
+        <v>233488</v>
+      </c>
+      <c r="H219">
+        <v>147500</v>
+      </c>
+      <c r="I219">
+        <v>127000</v>
+      </c>
+      <c r="J219">
+        <v>88000</v>
+      </c>
+      <c r="K219">
+        <v>16550</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>43426</v>
+      </c>
+      <c r="B220">
+        <v>16000</v>
+      </c>
+      <c r="C220">
+        <v>11450</v>
+      </c>
+      <c r="D220">
+        <v>22600</v>
+      </c>
+      <c r="E220">
+        <v>88900</v>
+      </c>
+      <c r="F220">
+        <v>17600</v>
+      </c>
+      <c r="G220">
+        <v>228224</v>
+      </c>
+      <c r="H220">
+        <v>145500</v>
+      </c>
+      <c r="I220">
+        <v>128000</v>
+      </c>
+      <c r="J220">
+        <v>87100</v>
+      </c>
+      <c r="K220">
+        <v>16300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>43427</v>
+      </c>
+      <c r="B221">
+        <v>16050</v>
+      </c>
+      <c r="C221">
+        <v>11050</v>
+      </c>
+      <c r="D221">
+        <v>22000</v>
+      </c>
+      <c r="E221">
+        <v>88800</v>
+      </c>
+      <c r="F221">
+        <v>17550</v>
+      </c>
+      <c r="G221">
+        <v>225832</v>
+      </c>
+      <c r="H221">
+        <v>145500</v>
+      </c>
+      <c r="I221">
+        <v>126000</v>
+      </c>
+      <c r="J221">
+        <v>87900</v>
+      </c>
+      <c r="K221">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>43430</v>
+      </c>
+      <c r="B222">
+        <v>15800</v>
+      </c>
+      <c r="C222">
+        <v>11200</v>
+      </c>
+      <c r="D222">
+        <v>22100</v>
+      </c>
+      <c r="E222">
+        <v>89000</v>
+      </c>
+      <c r="F222">
+        <v>17700</v>
+      </c>
+      <c r="G222">
+        <v>225832</v>
+      </c>
+      <c r="H222">
+        <v>147000</v>
+      </c>
+      <c r="I222">
+        <v>128500</v>
+      </c>
+      <c r="J222">
+        <v>89700</v>
+      </c>
+      <c r="K222">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>43431</v>
+      </c>
+      <c r="B223">
+        <v>15900</v>
+      </c>
+      <c r="C223">
+        <v>11200</v>
+      </c>
+      <c r="D223">
+        <v>21900</v>
+      </c>
+      <c r="E223">
+        <v>88800</v>
+      </c>
+      <c r="F223">
+        <v>17500</v>
+      </c>
+      <c r="G223">
+        <v>225832</v>
+      </c>
+      <c r="H223">
+        <v>151000</v>
+      </c>
+      <c r="I223">
+        <v>124500</v>
+      </c>
+      <c r="J223">
+        <v>90400</v>
+      </c>
+      <c r="K223">
+        <v>16550</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>43432</v>
+      </c>
+      <c r="B224">
+        <v>15700</v>
+      </c>
+      <c r="C224">
+        <v>11150</v>
+      </c>
+      <c r="D224">
+        <v>21800</v>
+      </c>
+      <c r="E224">
+        <v>88900</v>
+      </c>
+      <c r="F224">
+        <v>17450</v>
+      </c>
+      <c r="G224">
+        <v>223918</v>
+      </c>
+      <c r="H224">
+        <v>149000</v>
+      </c>
+      <c r="I224">
+        <v>119500</v>
+      </c>
+      <c r="J224">
+        <v>94500</v>
+      </c>
+      <c r="K224">
+        <v>16650</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>43433</v>
+      </c>
+      <c r="B225">
+        <v>15800</v>
+      </c>
+      <c r="C225">
+        <v>11150</v>
+      </c>
+      <c r="D225">
+        <v>21650</v>
+      </c>
+      <c r="E225">
+        <v>86900</v>
+      </c>
+      <c r="F225">
+        <v>17550</v>
+      </c>
+      <c r="G225">
+        <v>221048</v>
+      </c>
+      <c r="H225">
+        <v>155000</v>
+      </c>
+      <c r="I225">
+        <v>121000</v>
+      </c>
+      <c r="J225">
+        <v>95100</v>
+      </c>
+      <c r="K225">
+        <v>16850</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B226">
+        <v>15650</v>
+      </c>
+      <c r="C226">
+        <v>11250</v>
+      </c>
+      <c r="D226">
+        <v>21200</v>
+      </c>
+      <c r="E226">
+        <v>87500</v>
+      </c>
+      <c r="F226">
+        <v>17500</v>
+      </c>
+      <c r="G226">
+        <v>217698</v>
+      </c>
+      <c r="H226">
+        <v>159000</v>
+      </c>
+      <c r="I226">
+        <v>121500</v>
+      </c>
+      <c r="J226">
+        <v>94800</v>
+      </c>
+      <c r="K226">
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>43437</v>
+      </c>
+      <c r="B227">
+        <v>15700</v>
+      </c>
+      <c r="C227">
+        <v>11250</v>
+      </c>
+      <c r="D227">
+        <v>21200</v>
+      </c>
+      <c r="E227">
+        <v>87300</v>
+      </c>
+      <c r="F227">
+        <v>17650</v>
+      </c>
+      <c r="G227">
+        <v>219134</v>
+      </c>
+      <c r="H227">
+        <v>156500</v>
+      </c>
+      <c r="I227">
+        <v>124000</v>
+      </c>
+      <c r="J227">
+        <v>95400</v>
+      </c>
+      <c r="K227">
+        <v>17050</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>43438</v>
+      </c>
+      <c r="B228">
+        <v>15850</v>
+      </c>
+      <c r="C228">
+        <v>11100</v>
+      </c>
+      <c r="D228">
+        <v>21200</v>
+      </c>
+      <c r="E228">
+        <v>87300</v>
+      </c>
+      <c r="F228">
+        <v>17750</v>
+      </c>
+      <c r="G228">
+        <v>224875</v>
+      </c>
+      <c r="H228">
+        <v>158500</v>
+      </c>
+      <c r="I228">
+        <v>123000</v>
+      </c>
+      <c r="J228">
+        <v>95300</v>
+      </c>
+      <c r="K228">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>43439</v>
+      </c>
+      <c r="B229">
+        <v>15850</v>
+      </c>
+      <c r="C229">
+        <v>11100</v>
+      </c>
+      <c r="D229">
+        <v>22150</v>
+      </c>
+      <c r="E229">
+        <v>86800</v>
+      </c>
+      <c r="F229">
+        <v>17850</v>
+      </c>
+      <c r="G229">
+        <v>220091</v>
+      </c>
+      <c r="H229">
+        <v>156000</v>
+      </c>
+      <c r="I229">
+        <v>124000</v>
+      </c>
+      <c r="J229">
+        <v>96200</v>
+      </c>
+      <c r="K229">
+        <v>16450</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>43440</v>
+      </c>
+      <c r="B230">
+        <v>15700</v>
+      </c>
+      <c r="C230">
+        <v>10900</v>
+      </c>
+      <c r="D230">
+        <v>21800</v>
+      </c>
+      <c r="E230">
+        <v>85000</v>
+      </c>
+      <c r="F230">
+        <v>17350</v>
+      </c>
+      <c r="G230">
+        <v>207651</v>
+      </c>
+      <c r="H230">
+        <v>158000</v>
+      </c>
+      <c r="I230">
+        <v>121000</v>
+      </c>
+      <c r="J230">
+        <v>96200</v>
+      </c>
+      <c r="K230">
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>43441</v>
+      </c>
+      <c r="B231">
+        <v>15650</v>
+      </c>
+      <c r="C231">
+        <v>10950</v>
+      </c>
+      <c r="D231">
+        <v>21550</v>
+      </c>
+      <c r="E231">
+        <v>84800</v>
+      </c>
+      <c r="F231">
+        <v>17650</v>
+      </c>
+      <c r="G231">
+        <v>207172</v>
+      </c>
+      <c r="H231">
+        <v>160500</v>
+      </c>
+      <c r="I231">
+        <v>120000</v>
+      </c>
+      <c r="J231">
+        <v>97100</v>
+      </c>
+      <c r="K231">
+        <v>16550</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B232">
+        <v>15600</v>
+      </c>
+      <c r="C232">
+        <v>10600</v>
+      </c>
+      <c r="D232">
+        <v>21550</v>
+      </c>
+      <c r="E232">
+        <v>82600</v>
+      </c>
+      <c r="F232">
+        <v>17600</v>
+      </c>
+      <c r="G232">
+        <v>207172</v>
+      </c>
+      <c r="H232">
+        <v>159000</v>
+      </c>
+      <c r="I232">
+        <v>118500</v>
+      </c>
+      <c r="J232">
+        <v>97000</v>
+      </c>
+      <c r="K232">
+        <v>16150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B233">
+        <v>15650</v>
+      </c>
+      <c r="C233">
+        <v>10400</v>
+      </c>
+      <c r="D233">
+        <v>21500</v>
+      </c>
+      <c r="E233">
+        <v>83300</v>
+      </c>
+      <c r="F233">
+        <v>17600</v>
+      </c>
+      <c r="G233">
+        <v>203823</v>
+      </c>
+      <c r="H233">
+        <v>159500</v>
+      </c>
+      <c r="I233">
+        <v>120000</v>
+      </c>
+      <c r="J233">
+        <v>95700</v>
+      </c>
+      <c r="K233">
+        <v>16050</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>43446</v>
+      </c>
+      <c r="B234">
+        <v>15550</v>
+      </c>
+      <c r="C234">
+        <v>10500</v>
+      </c>
+      <c r="D234">
+        <v>21600</v>
+      </c>
+      <c r="E234">
+        <v>84000</v>
+      </c>
+      <c r="F234">
+        <v>17800</v>
+      </c>
+      <c r="G234">
+        <v>204780</v>
+      </c>
+      <c r="H234">
+        <v>162500</v>
+      </c>
+      <c r="I234">
+        <v>121000</v>
+      </c>
+      <c r="J234">
+        <v>99500</v>
+      </c>
+      <c r="K234">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>43447</v>
+      </c>
+      <c r="B235">
+        <v>15600</v>
+      </c>
+      <c r="C235">
+        <v>10500</v>
+      </c>
+      <c r="D235">
+        <v>21500</v>
+      </c>
+      <c r="E235">
+        <v>83400</v>
+      </c>
+      <c r="F235">
+        <v>17900</v>
+      </c>
+      <c r="G235">
+        <v>205737</v>
+      </c>
+      <c r="H235">
+        <v>166500</v>
+      </c>
+      <c r="I235">
+        <v>120000</v>
+      </c>
+      <c r="J235">
+        <v>104000</v>
+      </c>
+      <c r="K235">
+        <v>16600</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>43448</v>
+      </c>
+      <c r="B236">
+        <v>15700</v>
+      </c>
+      <c r="C236">
+        <v>10600</v>
+      </c>
+      <c r="D236">
+        <v>21800</v>
+      </c>
+      <c r="E236">
+        <v>84800</v>
+      </c>
+      <c r="F236">
+        <v>18050</v>
+      </c>
+      <c r="G236">
+        <v>202388</v>
+      </c>
+      <c r="H236">
+        <v>167000</v>
+      </c>
+      <c r="I236">
+        <v>123500</v>
+      </c>
+      <c r="J236">
+        <v>103500</v>
+      </c>
+      <c r="K236">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>43451</v>
+      </c>
+      <c r="B237">
+        <v>15900</v>
+      </c>
+      <c r="C237">
+        <v>10500</v>
+      </c>
+      <c r="D237">
+        <v>21250</v>
+      </c>
+      <c r="E237">
+        <v>85600</v>
+      </c>
+      <c r="F237">
+        <v>18000</v>
+      </c>
+      <c r="G237">
+        <v>202866</v>
+      </c>
+      <c r="H237">
+        <v>168000</v>
+      </c>
+      <c r="I237">
+        <v>118000</v>
+      </c>
+      <c r="J237">
+        <v>104500</v>
+      </c>
+      <c r="K237">
+        <v>17050</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>43452</v>
+      </c>
+      <c r="B238">
+        <v>16200</v>
+      </c>
+      <c r="C238">
+        <v>10450</v>
+      </c>
+      <c r="D238">
+        <v>20750</v>
+      </c>
+      <c r="E238">
+        <v>84300</v>
+      </c>
+      <c r="F238">
+        <v>18150</v>
+      </c>
+      <c r="G238">
+        <v>205259</v>
+      </c>
+      <c r="H238">
+        <v>169000</v>
+      </c>
+      <c r="I238">
+        <v>114500</v>
+      </c>
+      <c r="J238">
+        <v>104500</v>
+      </c>
+      <c r="K238">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>43453</v>
+      </c>
+      <c r="B239">
+        <v>16200</v>
+      </c>
+      <c r="C239">
+        <v>11400</v>
+      </c>
+      <c r="D239">
+        <v>21100</v>
+      </c>
+      <c r="E239">
+        <v>83900</v>
+      </c>
+      <c r="F239">
+        <v>17950</v>
+      </c>
+      <c r="G239">
+        <v>207651</v>
+      </c>
+      <c r="H239">
+        <v>171500</v>
+      </c>
+      <c r="I239">
+        <v>116000</v>
+      </c>
+      <c r="J239">
+        <v>103000</v>
+      </c>
+      <c r="K239">
+        <v>17550</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>43454</v>
+      </c>
+      <c r="B240">
+        <v>16250</v>
+      </c>
+      <c r="C240">
+        <v>11000</v>
+      </c>
+      <c r="D240">
+        <v>21800</v>
+      </c>
+      <c r="E240">
+        <v>82800</v>
+      </c>
+      <c r="F240">
+        <v>18200</v>
+      </c>
+      <c r="G240">
+        <v>206694</v>
+      </c>
+      <c r="H240">
+        <v>170500</v>
+      </c>
+      <c r="I240">
+        <v>119000</v>
+      </c>
+      <c r="J240">
+        <v>105500</v>
+      </c>
+      <c r="K240">
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>43455</v>
+      </c>
+      <c r="B241">
+        <v>16500</v>
+      </c>
+      <c r="C241">
+        <v>10950</v>
+      </c>
+      <c r="D241">
+        <v>21900</v>
+      </c>
+      <c r="E241">
+        <v>81200</v>
+      </c>
+      <c r="F241">
+        <v>18000</v>
+      </c>
+      <c r="G241">
+        <v>210043</v>
+      </c>
+      <c r="H241">
+        <v>170500</v>
+      </c>
+      <c r="I241">
+        <v>120000</v>
+      </c>
+      <c r="J241">
+        <v>103500</v>
+      </c>
+      <c r="K241">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B242">
+        <v>16350</v>
+      </c>
+      <c r="C242">
+        <v>11100</v>
+      </c>
+      <c r="D242">
+        <v>21700</v>
+      </c>
+      <c r="E242">
+        <v>80400</v>
+      </c>
+      <c r="F242">
+        <v>17750</v>
+      </c>
+      <c r="G242">
+        <v>210522</v>
+      </c>
+      <c r="H242">
+        <v>167000</v>
+      </c>
+      <c r="I242">
+        <v>115500</v>
+      </c>
+      <c r="J242">
+        <v>101000</v>
+      </c>
+      <c r="K242">
+        <v>17200</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>43460</v>
+      </c>
+      <c r="B243">
+        <v>16150</v>
+      </c>
+      <c r="C243">
+        <v>10850</v>
+      </c>
+      <c r="D243">
+        <v>21950</v>
+      </c>
+      <c r="E243">
+        <v>79000</v>
+      </c>
+      <c r="F243">
+        <v>17550</v>
+      </c>
+      <c r="G243">
+        <v>211000</v>
+      </c>
+      <c r="H243">
+        <v>165000</v>
+      </c>
+      <c r="I243">
+        <v>111000</v>
+      </c>
+      <c r="J243">
+        <v>100500</v>
+      </c>
+      <c r="K243">
+        <v>16950</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>43461</v>
+      </c>
+      <c r="B244">
+        <v>15700</v>
+      </c>
+      <c r="C244">
+        <v>10900</v>
+      </c>
+      <c r="D244">
+        <v>21550</v>
+      </c>
+      <c r="E244">
+        <v>77600</v>
+      </c>
+      <c r="F244">
+        <v>16950</v>
+      </c>
+      <c r="G244">
+        <v>205500</v>
+      </c>
+      <c r="H244">
+        <v>168500</v>
+      </c>
+      <c r="I244">
+        <v>109500</v>
+      </c>
+      <c r="J244">
+        <v>103000</v>
+      </c>
+      <c r="K244">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>43462</v>
+      </c>
+      <c r="B245">
+        <v>15600</v>
+      </c>
+      <c r="C245">
+        <v>10800</v>
+      </c>
+      <c r="D245">
+        <v>21850</v>
+      </c>
+      <c r="E245">
+        <v>78500</v>
+      </c>
+      <c r="F245">
+        <v>16600</v>
+      </c>
+      <c r="G245">
+        <v>204500</v>
+      </c>
+      <c r="H245">
+        <v>167000</v>
+      </c>
+      <c r="I245">
+        <v>111500</v>
+      </c>
+      <c r="J245">
+        <v>102500</v>
+      </c>
+      <c r="K245">
+        <v>16600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/X. Visualization/test_timeseries.xlsx
+++ b/X. Visualization/test_timeseries.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="results" sheetId="1" r:id="rId1"/>
     <sheet name="macro" sheetId="2" r:id="rId2"/>
     <sheet name="price" sheetId="3" r:id="rId3"/>
+    <sheet name="ETF" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="SpreadsheetBuilder_1" hidden="1">ETF!$A$1:$C$7</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="28">
   <si>
     <t>long</t>
   </si>
@@ -37,19 +41,19 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>OECD_CLI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>BSI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ESI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>A000030</t>
@@ -81,20 +85,54 @@
   <si>
     <t>A000240</t>
   </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>SPX Index</t>
+  </si>
+  <si>
+    <t>TWAR US Equity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>PX_LAST</t>
+  </si>
+  <si>
+    <t>#N/A N/A</t>
+  </si>
+  <si>
+    <t>NTSX US Equity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,30 +198,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -484,7 +535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3297"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -76311,7 +76364,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -79072,7 +79125,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -79081,7 +79134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -87663,7 +87716,6179 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D442"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="e">
+        <f ca="1">_xll.BFieldInfo(B$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" s="5" t="e">
+        <f ca="1">_xll.BFieldInfo(C$6)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="5" t="e">
+        <f ca="1">_xll.BFieldInfo(D$6)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="e">
+        <f ca="1">_xll.BDH(B$4,B$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=S","cols=2;rows=436")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2673.61</v>
+      </c>
+      <c r="C7" s="5" t="e">
+        <f ca="1">_xll.BDH(C$4,C$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=436")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D7" s="5" t="e">
+        <f ca="1">_xll.BDH(D$4,D$6,$B1,$B2,"Dir=V","CDR=5D","Days=A","Dts=H","cols=1;rows=435")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>43102</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2695.81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>43103</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2713.06</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43104</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2723.99</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43105</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2743.15</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>43108</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2747.71</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>43109</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2751.29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>43110</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2748.23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>43111</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2767.56</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>43112</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2786.24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43115</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2786.24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>43116</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2776.42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>43117</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2802.56</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>43118</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2798.03</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>43119</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2810.3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>43122</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2832.97</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>43123</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2839.13</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>43124</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2837.54</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>43125</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2839.25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>43126</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2872.87</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>43129</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2853.53</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>43130</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2822.43</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>43131</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2823.81</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>43132</v>
+      </c>
+      <c r="B30" s="5">
+        <v>2821.98</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>43133</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2762.13</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>43136</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2648.94</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>43137</v>
+      </c>
+      <c r="B33" s="5">
+        <v>2695.14</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>43138</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2681.66</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>43139</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2581</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>43140</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2619.5500000000002</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>43143</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2656</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>43144</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2662.94</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>43145</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2698.63</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
+        <v>43146</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2731.2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
+        <v>43147</v>
+      </c>
+      <c r="B41" s="5">
+        <v>2732.22</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
+        <v>43150</v>
+      </c>
+      <c r="B42" s="5">
+        <v>2732.22</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
+        <v>43151</v>
+      </c>
+      <c r="B43" s="5">
+        <v>2716.26</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
+        <v>43152</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2701.33</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
+        <v>43153</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2703.96</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
+        <v>43154</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2747.3</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
+        <v>43157</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2779.6</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
+        <v>43158</v>
+      </c>
+      <c r="B48" s="5">
+        <v>2744.28</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
+        <v>43159</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2713.83</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
+        <v>43160</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2677.67</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
+        <v>43161</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2691.25</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
+        <v>43164</v>
+      </c>
+      <c r="B52" s="5">
+        <v>2720.94</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
+        <v>43165</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2728.12</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
+        <v>43166</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2726.8</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
+        <v>43167</v>
+      </c>
+      <c r="B55" s="5">
+        <v>2738.97</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
+        <v>43168</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2786.57</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
+        <v>43171</v>
+      </c>
+      <c r="B57" s="5">
+        <v>2783.02</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
+        <v>43172</v>
+      </c>
+      <c r="B58" s="5">
+        <v>2765.31</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
+        <v>43173</v>
+      </c>
+      <c r="B59" s="5">
+        <v>2749.48</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
+        <v>43174</v>
+      </c>
+      <c r="B60" s="5">
+        <v>2747.33</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
+        <v>43175</v>
+      </c>
+      <c r="B61" s="5">
+        <v>2752.01</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
+        <v>43178</v>
+      </c>
+      <c r="B62" s="5">
+        <v>2712.92</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
+        <v>43179</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2716.94</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
+        <v>43180</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2711.93</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
+        <v>43181</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2643.69</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
+        <v>43182</v>
+      </c>
+      <c r="B66" s="5">
+        <v>2588.2600000000002</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
+        <v>43185</v>
+      </c>
+      <c r="B67" s="5">
+        <v>2658.55</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
+        <v>43186</v>
+      </c>
+      <c r="B68" s="5">
+        <v>2612.62</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
+        <v>43187</v>
+      </c>
+      <c r="B69" s="5">
+        <v>2605</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
+        <v>43188</v>
+      </c>
+      <c r="B70" s="5">
+        <v>2640.87</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
+        <v>43189</v>
+      </c>
+      <c r="B71" s="5">
+        <v>2640.87</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
+        <v>43192</v>
+      </c>
+      <c r="B72" s="5">
+        <v>2581.88</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
+        <v>43193</v>
+      </c>
+      <c r="B73" s="5">
+        <v>2614.4499999999998</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
+        <v>43194</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2644.69</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
+        <v>43195</v>
+      </c>
+      <c r="B75" s="5">
+        <v>2662.84</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
+        <v>43196</v>
+      </c>
+      <c r="B76" s="5">
+        <v>2604.4699999999998</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
+        <v>43199</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2613.16</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
+        <v>43200</v>
+      </c>
+      <c r="B78" s="5">
+        <v>2656.87</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
+        <v>43201</v>
+      </c>
+      <c r="B79" s="5">
+        <v>2642.19</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
+        <v>43202</v>
+      </c>
+      <c r="B80" s="5">
+        <v>2663.99</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
+        <v>43203</v>
+      </c>
+      <c r="B81" s="5">
+        <v>2656.3</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
+        <v>43206</v>
+      </c>
+      <c r="B82" s="5">
+        <v>2677.84</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
+        <v>43207</v>
+      </c>
+      <c r="B83" s="5">
+        <v>2706.39</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
+        <v>43208</v>
+      </c>
+      <c r="B84" s="5">
+        <v>2708.64</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
+        <v>43209</v>
+      </c>
+      <c r="B85" s="5">
+        <v>2693.13</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>43210</v>
+      </c>
+      <c r="B86" s="5">
+        <v>2670.14</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
+        <v>43213</v>
+      </c>
+      <c r="B87" s="5">
+        <v>2670.29</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
+        <v>43214</v>
+      </c>
+      <c r="B88" s="5">
+        <v>2634.56</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>43215</v>
+      </c>
+      <c r="B89" s="5">
+        <v>2639.4</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>43216</v>
+      </c>
+      <c r="B90" s="5">
+        <v>2666.94</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>43217</v>
+      </c>
+      <c r="B91" s="5">
+        <v>2669.91</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
+        <v>43220</v>
+      </c>
+      <c r="B92" s="5">
+        <v>2648.05</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
+        <v>43221</v>
+      </c>
+      <c r="B93" s="5">
+        <v>2654.8</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
+        <v>43222</v>
+      </c>
+      <c r="B94" s="5">
+        <v>2635.67</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>43223</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2629.73</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>43224</v>
+      </c>
+      <c r="B96" s="5">
+        <v>2663.42</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
+        <v>43227</v>
+      </c>
+      <c r="B97" s="5">
+        <v>2672.63</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
+        <v>43228</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2671.92</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>43229</v>
+      </c>
+      <c r="B99" s="5">
+        <v>2697.79</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>43230</v>
+      </c>
+      <c r="B100" s="5">
+        <v>2723.07</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
+        <v>43231</v>
+      </c>
+      <c r="B101" s="5">
+        <v>2727.72</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
+        <v>43234</v>
+      </c>
+      <c r="B102" s="5">
+        <v>2730.13</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="6">
+        <v>43235</v>
+      </c>
+      <c r="B103" s="5">
+        <v>2711.45</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="6">
+        <v>43236</v>
+      </c>
+      <c r="B104" s="5">
+        <v>2722.46</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="6">
+        <v>43237</v>
+      </c>
+      <c r="B105" s="5">
+        <v>2720.13</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="6">
+        <v>43238</v>
+      </c>
+      <c r="B106" s="5">
+        <v>2712.97</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="6">
+        <v>43241</v>
+      </c>
+      <c r="B107" s="5">
+        <v>2733.01</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="6">
+        <v>43242</v>
+      </c>
+      <c r="B108" s="5">
+        <v>2724.44</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="6">
+        <v>43243</v>
+      </c>
+      <c r="B109" s="5">
+        <v>2733.29</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
+        <v>43244</v>
+      </c>
+      <c r="B110" s="5">
+        <v>2727.76</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
+        <v>43245</v>
+      </c>
+      <c r="B111" s="5">
+        <v>2721.33</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
+        <v>43248</v>
+      </c>
+      <c r="B112" s="5">
+        <v>2721.33</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
+        <v>43249</v>
+      </c>
+      <c r="B113" s="5">
+        <v>2689.86</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
+        <v>43250</v>
+      </c>
+      <c r="B114" s="5">
+        <v>2724.01</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="6">
+        <v>43251</v>
+      </c>
+      <c r="B115" s="5">
+        <v>2705.27</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
+        <v>43252</v>
+      </c>
+      <c r="B116" s="5">
+        <v>2734.62</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
+        <v>43255</v>
+      </c>
+      <c r="B117" s="5">
+        <v>2746.87</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="6">
+        <v>43256</v>
+      </c>
+      <c r="B118" s="5">
+        <v>2748.8</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="6">
+        <v>43257</v>
+      </c>
+      <c r="B119" s="5">
+        <v>2772.35</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="6">
+        <v>43258</v>
+      </c>
+      <c r="B120" s="5">
+        <v>2770.37</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
+        <v>43259</v>
+      </c>
+      <c r="B121" s="5">
+        <v>2779.03</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="6">
+        <v>43262</v>
+      </c>
+      <c r="B122" s="5">
+        <v>2782</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>43263</v>
+      </c>
+      <c r="B123" s="5">
+        <v>2786.85</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
+        <v>43264</v>
+      </c>
+      <c r="B124" s="5">
+        <v>2775.63</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
+        <v>43265</v>
+      </c>
+      <c r="B125" s="5">
+        <v>2782.49</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="6">
+        <v>43266</v>
+      </c>
+      <c r="B126" s="5">
+        <v>2779.66</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="6">
+        <v>43269</v>
+      </c>
+      <c r="B127" s="5">
+        <v>2773.75</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="6">
+        <v>43270</v>
+      </c>
+      <c r="B128" s="5">
+        <v>2762.59</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="6">
+        <v>43271</v>
+      </c>
+      <c r="B129" s="5">
+        <v>2767.32</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="6">
+        <v>43272</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2749.76</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="6">
+        <v>43273</v>
+      </c>
+      <c r="B131" s="5">
+        <v>2754.88</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="6">
+        <v>43276</v>
+      </c>
+      <c r="B132" s="5">
+        <v>2717.07</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="6">
+        <v>43277</v>
+      </c>
+      <c r="B133" s="5">
+        <v>2723.06</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="6">
+        <v>43278</v>
+      </c>
+      <c r="B134" s="5">
+        <v>2699.63</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="6">
+        <v>43279</v>
+      </c>
+      <c r="B135" s="5">
+        <v>2716.31</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="6">
+        <v>43280</v>
+      </c>
+      <c r="B136" s="5">
+        <v>2718.37</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="6">
+        <v>43283</v>
+      </c>
+      <c r="B137" s="5">
+        <v>2726.71</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="6">
+        <v>43284</v>
+      </c>
+      <c r="B138" s="5">
+        <v>2713.22</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="6">
+        <v>43285</v>
+      </c>
+      <c r="B139" s="5">
+        <v>2713.22</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="6">
+        <v>43286</v>
+      </c>
+      <c r="B140" s="5">
+        <v>2736.61</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="6">
+        <v>43287</v>
+      </c>
+      <c r="B141" s="5">
+        <v>2759.82</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="6">
+        <v>43290</v>
+      </c>
+      <c r="B142" s="5">
+        <v>2784.17</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="6">
+        <v>43291</v>
+      </c>
+      <c r="B143" s="5">
+        <v>2793.84</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="6">
+        <v>43292</v>
+      </c>
+      <c r="B144" s="5">
+        <v>2774.02</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="6">
+        <v>43293</v>
+      </c>
+      <c r="B145" s="5">
+        <v>2798.29</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="6">
+        <v>43294</v>
+      </c>
+      <c r="B146" s="5">
+        <v>2801.31</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="6">
+        <v>43297</v>
+      </c>
+      <c r="B147" s="5">
+        <v>2798.43</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="6">
+        <v>43298</v>
+      </c>
+      <c r="B148" s="5">
+        <v>2809.55</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="6">
+        <v>43299</v>
+      </c>
+      <c r="B149" s="5">
+        <v>2815.62</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="6">
+        <v>43300</v>
+      </c>
+      <c r="B150" s="5">
+        <v>2804.49</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="6">
+        <v>43301</v>
+      </c>
+      <c r="B151" s="5">
+        <v>2801.83</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="6">
+        <v>43304</v>
+      </c>
+      <c r="B152" s="5">
+        <v>2806.98</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="6">
+        <v>43305</v>
+      </c>
+      <c r="B153" s="5">
+        <v>2820.4</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="6">
+        <v>43306</v>
+      </c>
+      <c r="B154" s="5">
+        <v>2846.07</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="6">
+        <v>43307</v>
+      </c>
+      <c r="B155" s="5">
+        <v>2837.44</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="6">
+        <v>43308</v>
+      </c>
+      <c r="B156" s="5">
+        <v>2818.82</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="6">
+        <v>43311</v>
+      </c>
+      <c r="B157" s="5">
+        <v>2802.6</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="6">
+        <v>43312</v>
+      </c>
+      <c r="B158" s="5">
+        <v>2816.29</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
+        <v>43313</v>
+      </c>
+      <c r="B159" s="5">
+        <v>2813.36</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="6">
+        <v>43314</v>
+      </c>
+      <c r="B160" s="5">
+        <v>2827.22</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D160" s="5">
+        <v>25.0991</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="6">
+        <v>43315</v>
+      </c>
+      <c r="B161" s="5">
+        <v>2840.35</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="6">
+        <v>43318</v>
+      </c>
+      <c r="B162" s="5">
+        <v>2850.4</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="5">
+        <v>25.280999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="6">
+        <v>43319</v>
+      </c>
+      <c r="B163" s="5">
+        <v>2858.45</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="5">
+        <v>25.419</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="6">
+        <v>43320</v>
+      </c>
+      <c r="B164" s="5">
+        <v>2857.7</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="5">
+        <v>25.41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="6">
+        <v>43321</v>
+      </c>
+      <c r="B165" s="5">
+        <v>2853.58</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" s="5">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="6">
+        <v>43322</v>
+      </c>
+      <c r="B166" s="5">
+        <v>2833.28</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166" s="5">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="6">
+        <v>43325</v>
+      </c>
+      <c r="B167" s="5">
+        <v>2821.93</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="5">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
+        <v>43326</v>
+      </c>
+      <c r="B168" s="5">
+        <v>2839.96</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" s="5">
+        <v>25.320900000000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="6">
+        <v>43327</v>
+      </c>
+      <c r="B169" s="5">
+        <v>2818.37</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="5">
+        <v>25.16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="6">
+        <v>43328</v>
+      </c>
+      <c r="B170" s="5">
+        <v>2840.69</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="5">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="6">
+        <v>43329</v>
+      </c>
+      <c r="B171" s="5">
+        <v>2850.13</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" s="5">
+        <v>25.46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="6">
+        <v>43332</v>
+      </c>
+      <c r="B172" s="5">
+        <v>2857.05</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="5">
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="6">
+        <v>43333</v>
+      </c>
+      <c r="B173" s="5">
+        <v>2862.96</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="6">
+        <v>43334</v>
+      </c>
+      <c r="B174" s="5">
+        <v>2861.82</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D174" s="5">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="6">
+        <v>43335</v>
+      </c>
+      <c r="B175" s="5">
+        <v>2856.98</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" s="5">
+        <v>25.539400000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="6">
+        <v>43336</v>
+      </c>
+      <c r="B176" s="5">
+        <v>2874.69</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" s="5">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="6">
+        <v>43339</v>
+      </c>
+      <c r="B177" s="5">
+        <v>2896.74</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="5">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="6">
+        <v>43340</v>
+      </c>
+      <c r="B178" s="5">
+        <v>2897.52</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" s="5">
+        <v>25.82</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="6">
+        <v>43341</v>
+      </c>
+      <c r="B179" s="5">
+        <v>2914.04</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" s="5">
+        <v>25.95</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="6">
+        <v>43342</v>
+      </c>
+      <c r="B180" s="5">
+        <v>2901.13</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D180" s="5">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="6">
+        <v>43343</v>
+      </c>
+      <c r="B181" s="5">
+        <v>2901.52</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" s="5">
+        <v>25.819600000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="6">
+        <v>43346</v>
+      </c>
+      <c r="B182" s="5">
+        <v>2901.52</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D182" s="5">
+        <v>25.819600000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="6">
+        <v>43347</v>
+      </c>
+      <c r="B183" s="5">
+        <v>2896.72</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" s="5">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="6">
+        <v>43348</v>
+      </c>
+      <c r="B184" s="5">
+        <v>2888.6</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D184" s="5">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="6">
+        <v>43349</v>
+      </c>
+      <c r="B185" s="5">
+        <v>2878.05</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D185" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="6">
+        <v>43350</v>
+      </c>
+      <c r="B186" s="5">
+        <v>2871.68</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186" s="5">
+        <v>25.610399999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="6">
+        <v>43353</v>
+      </c>
+      <c r="B187" s="5">
+        <v>2877.13</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D187" s="5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="6">
+        <v>43354</v>
+      </c>
+      <c r="B188" s="5">
+        <v>2887.89</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D188" s="5">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="6">
+        <v>43355</v>
+      </c>
+      <c r="B189" s="5">
+        <v>2888.92</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D189" s="5">
+        <v>25.62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="6">
+        <v>43356</v>
+      </c>
+      <c r="B190" s="5">
+        <v>2904.18</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D190" s="5">
+        <v>25.62</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="6">
+        <v>43357</v>
+      </c>
+      <c r="B191" s="5">
+        <v>2904.98</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191" s="5">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="6">
+        <v>43360</v>
+      </c>
+      <c r="B192" s="5">
+        <v>2888.8</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" s="5">
+        <v>25.7057</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="6">
+        <v>43361</v>
+      </c>
+      <c r="B193" s="5">
+        <v>2904.31</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193" s="5">
+        <v>25.777000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="6">
+        <v>43362</v>
+      </c>
+      <c r="B194" s="5">
+        <v>2907.95</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D194" s="5">
+        <v>25.76</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="6">
+        <v>43363</v>
+      </c>
+      <c r="B195" s="5">
+        <v>2930.75</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="5">
+        <v>25.96</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="6">
+        <v>43364</v>
+      </c>
+      <c r="B196" s="5">
+        <v>2929.67</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" s="5">
+        <v>25.9297</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="6">
+        <v>43367</v>
+      </c>
+      <c r="B197" s="5">
+        <v>2919.37</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D197" s="5">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="6">
+        <v>43368</v>
+      </c>
+      <c r="B198" s="5">
+        <v>2915.56</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198" s="5">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="6">
+        <v>43369</v>
+      </c>
+      <c r="B199" s="5">
+        <v>2905.97</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D199" s="5">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="6">
+        <v>43370</v>
+      </c>
+      <c r="B200" s="5">
+        <v>2914</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D200" s="5">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="6">
+        <v>43371</v>
+      </c>
+      <c r="B201" s="5">
+        <v>2913.98</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201" s="5">
+        <v>25.73</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="6">
+        <v>43374</v>
+      </c>
+      <c r="B202" s="5">
+        <v>2924.59</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D202" s="5">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="6">
+        <v>43375</v>
+      </c>
+      <c r="B203" s="5">
+        <v>2923.43</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D203" s="5">
+        <v>25.84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="6">
+        <v>43376</v>
+      </c>
+      <c r="B204" s="5">
+        <v>2925.51</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" s="5">
+        <v>25.82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="6">
+        <v>43377</v>
+      </c>
+      <c r="B205" s="5">
+        <v>2901.61</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D205" s="5">
+        <v>25.52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="6">
+        <v>43378</v>
+      </c>
+      <c r="B206" s="5">
+        <v>2885.57</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206" s="5">
+        <v>25.36</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="6">
+        <v>43381</v>
+      </c>
+      <c r="B207" s="5">
+        <v>2884.43</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D207" s="5">
+        <v>25.361999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="6">
+        <v>43382</v>
+      </c>
+      <c r="B208" s="5">
+        <v>2880.34</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208" s="5">
+        <v>25.338000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="6">
+        <v>43383</v>
+      </c>
+      <c r="B209" s="5">
+        <v>2785.68</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D209" s="5">
+        <v>24.601299999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="6">
+        <v>43384</v>
+      </c>
+      <c r="B210" s="5">
+        <v>2728.37</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D210" s="5">
+        <v>24.41</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="6">
+        <v>43385</v>
+      </c>
+      <c r="B211" s="5">
+        <v>2767.13</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211" s="5">
+        <v>24.283999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="6">
+        <v>43388</v>
+      </c>
+      <c r="B212" s="5">
+        <v>2750.79</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D212" s="5">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="6">
+        <v>43389</v>
+      </c>
+      <c r="B213" s="5">
+        <v>2809.92</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213" s="5">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="6">
+        <v>43390</v>
+      </c>
+      <c r="B214" s="5">
+        <v>2809.21</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D214" s="5">
+        <v>24.79</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="6">
+        <v>43391</v>
+      </c>
+      <c r="B215" s="5">
+        <v>2768.78</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D215" s="5">
+        <v>24.76</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="6">
+        <v>43392</v>
+      </c>
+      <c r="B216" s="5">
+        <v>2767.78</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216" s="5">
+        <v>24.669899999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="6">
+        <v>43395</v>
+      </c>
+      <c r="B217" s="5">
+        <v>2755.88</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D217" s="5">
+        <v>24.38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="6">
+        <v>43396</v>
+      </c>
+      <c r="B218" s="5">
+        <v>2740.69</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218" s="5">
+        <v>24.359000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="6">
+        <v>43397</v>
+      </c>
+      <c r="B219" s="5">
+        <v>2656.1</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D219" s="5">
+        <v>23.8963</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="6">
+        <v>43398</v>
+      </c>
+      <c r="B220" s="5">
+        <v>2705.57</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" s="5">
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="6">
+        <v>43399</v>
+      </c>
+      <c r="B221" s="5">
+        <v>2658.69</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D221" s="5">
+        <v>23.74</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="6">
+        <v>43402</v>
+      </c>
+      <c r="B222" s="5">
+        <v>2641.25</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" s="5">
+        <v>23.569900000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="6">
+        <v>43403</v>
+      </c>
+      <c r="B223" s="5">
+        <v>2682.63</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223" s="5">
+        <v>23.81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="6">
+        <v>43404</v>
+      </c>
+      <c r="B224" s="5">
+        <v>2711.74</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" s="5">
+        <v>24.199000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="6">
+        <v>43405</v>
+      </c>
+      <c r="B225" s="5">
+        <v>2740.37</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D225" s="5">
+        <v>24.28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="6">
+        <v>43406</v>
+      </c>
+      <c r="B226" s="5">
+        <v>2723.06</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D226" s="5">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="6">
+        <v>43409</v>
+      </c>
+      <c r="B227" s="5">
+        <v>2738.31</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D227" s="5">
+        <v>24.19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="6">
+        <v>43410</v>
+      </c>
+      <c r="B228" s="5">
+        <v>2755.45</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228" s="5">
+        <v>24.265699999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="6">
+        <v>43411</v>
+      </c>
+      <c r="B229" s="5">
+        <v>2813.89</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D229" s="5">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="6">
+        <v>43412</v>
+      </c>
+      <c r="B230" s="5">
+        <v>2806.83</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D230" s="5">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="6">
+        <v>43413</v>
+      </c>
+      <c r="B231" s="5">
+        <v>2781.01</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" s="5">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="6">
+        <v>43416</v>
+      </c>
+      <c r="B232" s="5">
+        <v>2726.22</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D232" s="5">
+        <v>24.56</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="6">
+        <v>43417</v>
+      </c>
+      <c r="B233" s="5">
+        <v>2722.18</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D233" s="5">
+        <v>24.255099999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="6">
+        <v>43418</v>
+      </c>
+      <c r="B234" s="5">
+        <v>2701.58</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" s="5">
+        <v>24.164000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="6">
+        <v>43419</v>
+      </c>
+      <c r="B235" s="5">
+        <v>2730.2</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" s="5">
+        <v>24.24</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="6">
+        <v>43420</v>
+      </c>
+      <c r="B236" s="5">
+        <v>2736.27</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" s="5">
+        <v>24.24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="6">
+        <v>43423</v>
+      </c>
+      <c r="B237" s="5">
+        <v>2690.73</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D237" s="5">
+        <v>24.12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="6">
+        <v>43424</v>
+      </c>
+      <c r="B238" s="5">
+        <v>2641.89</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D238" s="5">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="6">
+        <v>43425</v>
+      </c>
+      <c r="B239" s="5">
+        <v>2649.93</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D239" s="5">
+        <v>23.79</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="6">
+        <v>43426</v>
+      </c>
+      <c r="B240" s="5">
+        <v>2649.93</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" s="5">
+        <v>23.79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="6">
+        <v>43427</v>
+      </c>
+      <c r="B241" s="5">
+        <v>2632.56</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241" s="5">
+        <v>23.79</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="6">
+        <v>43430</v>
+      </c>
+      <c r="B242" s="5">
+        <v>2673.45</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D242" s="5">
+        <v>23.839199999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="6">
+        <v>43431</v>
+      </c>
+      <c r="B243" s="5">
+        <v>2682.17</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D243" s="5">
+        <v>23.85</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="6">
+        <v>43432</v>
+      </c>
+      <c r="B244" s="5">
+        <v>2743.79</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D244" s="5">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="6">
+        <v>43433</v>
+      </c>
+      <c r="B245" s="5">
+        <v>2737.76</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D245" s="5">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="6">
+        <v>43434</v>
+      </c>
+      <c r="B246" s="5">
+        <v>2760.17</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" s="5">
+        <v>24.559899999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="6">
+        <v>43437</v>
+      </c>
+      <c r="B247" s="5">
+        <v>2790.37</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D247" s="5">
+        <v>24.559899999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="6">
+        <v>43438</v>
+      </c>
+      <c r="B248" s="5">
+        <v>2700.06</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D248" s="5">
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="6">
+        <v>43439</v>
+      </c>
+      <c r="B249" s="5">
+        <v>2700.06</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D249" s="5">
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="6">
+        <v>43440</v>
+      </c>
+      <c r="B250" s="5">
+        <v>2695.95</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250" s="5">
+        <v>23.9832</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="6">
+        <v>43441</v>
+      </c>
+      <c r="B251" s="5">
+        <v>2633.08</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251" s="5">
+        <v>23.832699999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="6">
+        <v>43444</v>
+      </c>
+      <c r="B252" s="5">
+        <v>2637.72</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252" s="5">
+        <v>23.8322</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="6">
+        <v>43445</v>
+      </c>
+      <c r="B253" s="5">
+        <v>2636.78</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D253" s="5">
+        <v>23.779599999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="6">
+        <v>43446</v>
+      </c>
+      <c r="B254" s="5">
+        <v>2651.07</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D254" s="5">
+        <v>23.879799999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="6">
+        <v>43447</v>
+      </c>
+      <c r="B255" s="5">
+        <v>2650.54</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D255" s="5">
+        <v>23.862200000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="6">
+        <v>43448</v>
+      </c>
+      <c r="B256" s="5">
+        <v>2599.9499999999998</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256" s="5">
+        <v>23.485199999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="6">
+        <v>43451</v>
+      </c>
+      <c r="B257" s="5">
+        <v>2545.94</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257" s="5">
+        <v>23.059799999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="6">
+        <v>43452</v>
+      </c>
+      <c r="B258" s="5">
+        <v>2546.16</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D258" s="5">
+        <v>23.143000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="6">
+        <v>43453</v>
+      </c>
+      <c r="B259" s="5">
+        <v>2506.96</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D259" s="5">
+        <v>22.880500000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="6">
+        <v>43454</v>
+      </c>
+      <c r="B260" s="5">
+        <v>2467.42</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D260" s="5">
+        <v>22.452000000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="6">
+        <v>43455</v>
+      </c>
+      <c r="B261" s="5">
+        <v>2416.62</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261" s="5">
+        <v>22.1126</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="6">
+        <v>43458</v>
+      </c>
+      <c r="B262" s="5">
+        <v>2351.1</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D262" s="5">
+        <v>21.5639</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="6">
+        <v>43459</v>
+      </c>
+      <c r="B263" s="5">
+        <v>2351.1</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D263" s="5">
+        <v>21.5639</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="6">
+        <v>43460</v>
+      </c>
+      <c r="B264" s="5">
+        <v>2467.6999999999998</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264" s="5">
+        <v>22.3932</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="6">
+        <v>43461</v>
+      </c>
+      <c r="B265" s="5">
+        <v>2488.83</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D265" s="5">
+        <v>22.542200000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="6">
+        <v>43462</v>
+      </c>
+      <c r="B266" s="5">
+        <v>2485.7399999999998</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D266" s="5">
+        <v>22.6235</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="6">
+        <v>43465</v>
+      </c>
+      <c r="B267" s="5">
+        <v>2506.85</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D267" s="5">
+        <v>22.775600000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="6">
+        <v>43466</v>
+      </c>
+      <c r="B268" s="5">
+        <v>2506.85</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" s="5">
+        <v>22.775600000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="6">
+        <v>43467</v>
+      </c>
+      <c r="B269" s="5">
+        <v>2510.0300000000002</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D269" s="5">
+        <v>22.900500000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="6">
+        <v>43468</v>
+      </c>
+      <c r="B270" s="5">
+        <v>2447.89</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D270" s="5">
+        <v>22.5243</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="6">
+        <v>43469</v>
+      </c>
+      <c r="B271" s="5">
+        <v>2531.94</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D271" s="5">
+        <v>23.099299999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="6">
+        <v>43472</v>
+      </c>
+      <c r="B272" s="5">
+        <v>2549.69</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D272" s="5">
+        <v>23.235700000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="6">
+        <v>43473</v>
+      </c>
+      <c r="B273" s="5">
+        <v>2574.41</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D273" s="5">
+        <v>23.381499999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="6">
+        <v>43474</v>
+      </c>
+      <c r="B274" s="5">
+        <v>2584.96</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D274" s="5">
+        <v>23.459199999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="6">
+        <v>43475</v>
+      </c>
+      <c r="B275" s="5">
+        <v>2596.64</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D275" s="5">
+        <v>23.5534</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B276" s="5">
+        <v>2596.2600000000002</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D276" s="5">
+        <v>23.578700000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="6">
+        <v>43479</v>
+      </c>
+      <c r="B277" s="5">
+        <v>2582.61</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D277" s="5">
+        <v>23.4633</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="6">
+        <v>43480</v>
+      </c>
+      <c r="B278" s="5">
+        <v>2610.3000000000002</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D278" s="5">
+        <v>23.675799999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="6">
+        <v>43481</v>
+      </c>
+      <c r="B279" s="5">
+        <v>2616.1</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D279" s="5">
+        <v>23.750499999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="6">
+        <v>43482</v>
+      </c>
+      <c r="B280" s="5">
+        <v>2635.96</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D280" s="5">
+        <v>23.858499999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="6">
+        <v>43483</v>
+      </c>
+      <c r="B281" s="5">
+        <v>2670.71</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D281" s="5">
+        <v>24.088799999999999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="6">
+        <v>43486</v>
+      </c>
+      <c r="B282" s="5">
+        <v>2670.71</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D282" s="5">
+        <v>24.088799999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="6">
+        <v>43487</v>
+      </c>
+      <c r="B283" s="5">
+        <v>2632.9</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D283" s="5">
+        <v>23.7852</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="6">
+        <v>43488</v>
+      </c>
+      <c r="B284" s="5">
+        <v>2638.7</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D284" s="5">
+        <v>23.877099999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="6">
+        <v>43489</v>
+      </c>
+      <c r="B285" s="5">
+        <v>2642.33</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D285" s="5">
+        <v>23.954999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="6">
+        <v>43490</v>
+      </c>
+      <c r="B286" s="5">
+        <v>2664.76</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D286" s="5">
+        <v>24.1051</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="6">
+        <v>43493</v>
+      </c>
+      <c r="B287" s="5">
+        <v>2643.85</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D287" s="5">
+        <v>23.920200000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="6">
+        <v>43494</v>
+      </c>
+      <c r="B288" s="5">
+        <v>2640</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D288" s="5">
+        <v>23.926200000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="6">
+        <v>43495</v>
+      </c>
+      <c r="B289" s="5">
+        <v>2681.05</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D289" s="5">
+        <v>24.2957</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="6">
+        <v>43496</v>
+      </c>
+      <c r="B290" s="5">
+        <v>2704.1</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D290" s="5">
+        <v>24.574100000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="6">
+        <v>43497</v>
+      </c>
+      <c r="B291" s="5">
+        <v>2706.53</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D291" s="5">
+        <v>24.5124</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="6">
+        <v>43500</v>
+      </c>
+      <c r="B292" s="5">
+        <v>2724.87</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D292" s="5">
+        <v>24.631399999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="6">
+        <v>43501</v>
+      </c>
+      <c r="B293" s="5">
+        <v>2737.7</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D293" s="5">
+        <v>24.764499999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="6">
+        <v>43502</v>
+      </c>
+      <c r="B294" s="5">
+        <v>2731.61</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D294" s="5">
+        <v>24.7362</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="6">
+        <v>43503</v>
+      </c>
+      <c r="B295" s="5">
+        <v>2706.05</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D295" s="5">
+        <v>24.546600000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="6">
+        <v>43504</v>
+      </c>
+      <c r="B296" s="5">
+        <v>2707.88</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D296" s="5">
+        <v>24.558199999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="6">
+        <v>43507</v>
+      </c>
+      <c r="B297" s="5">
+        <v>2709.8</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D297" s="5">
+        <v>24.606999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="6">
+        <v>43508</v>
+      </c>
+      <c r="B298" s="5">
+        <v>2744.73</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D298" s="5">
+        <v>24.866900000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="6">
+        <v>43509</v>
+      </c>
+      <c r="B299" s="5">
+        <v>2753.03</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D299" s="5">
+        <v>24.9116</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="6">
+        <v>43510</v>
+      </c>
+      <c r="B300" s="5">
+        <v>2745.73</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D300" s="5">
+        <v>24.9087</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="6">
+        <v>43511</v>
+      </c>
+      <c r="B301" s="5">
+        <v>2775.6</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D301" s="5">
+        <v>25.125800000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="6">
+        <v>43514</v>
+      </c>
+      <c r="B302" s="5">
+        <v>2775.6</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D302" s="5">
+        <v>25.125800000000002</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="6">
+        <v>43515</v>
+      </c>
+      <c r="B303" s="5">
+        <v>2779.76</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D303" s="5">
+        <v>25.201499999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="6">
+        <v>43516</v>
+      </c>
+      <c r="B304" s="5">
+        <v>2784.7</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D304" s="5">
+        <v>25.212800000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="6">
+        <v>43517</v>
+      </c>
+      <c r="B305" s="5">
+        <v>2774.88</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D305" s="5">
+        <v>25.101700000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="6">
+        <v>43518</v>
+      </c>
+      <c r="B306" s="5">
+        <v>2792.67</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D306" s="5">
+        <v>25.282900000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="6">
+        <v>43521</v>
+      </c>
+      <c r="B307" s="5">
+        <v>2796.11</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D307" s="5">
+        <v>25.309899999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="6">
+        <v>43522</v>
+      </c>
+      <c r="B308" s="5">
+        <v>2793.9</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D308" s="5">
+        <v>25.338100000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="6">
+        <v>43523</v>
+      </c>
+      <c r="B309" s="5">
+        <v>2792.38</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D309" s="5">
+        <v>25.265000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="6">
+        <v>43524</v>
+      </c>
+      <c r="B310" s="5">
+        <v>2784.49</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D310" s="5">
+        <v>25.175899999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B311" s="5">
+        <v>2803.69</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D311" s="5">
+        <v>25.285</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="6">
+        <v>43528</v>
+      </c>
+      <c r="B312" s="5">
+        <v>2792.81</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D312" s="5">
+        <v>25.2133</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="6">
+        <v>43529</v>
+      </c>
+      <c r="B313" s="5">
+        <v>2789.65</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D313" s="5">
+        <v>25.238199999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="6">
+        <v>43530</v>
+      </c>
+      <c r="B314" s="5">
+        <v>2771.45</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D314" s="5">
+        <v>25.118300000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="6">
+        <v>43531</v>
+      </c>
+      <c r="B315" s="5">
+        <v>2748.93</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D315" s="5">
+        <v>24.957699999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="6">
+        <v>43532</v>
+      </c>
+      <c r="B316" s="5">
+        <v>2743.07</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D316" s="5">
+        <v>24.9331</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="6">
+        <v>43535</v>
+      </c>
+      <c r="B317" s="5">
+        <v>2783.3</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D317" s="5">
+        <v>25.254999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="6">
+        <v>43536</v>
+      </c>
+      <c r="B318" s="5">
+        <v>2791.52</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D318" s="5">
+        <v>25.360199999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="6">
+        <v>43537</v>
+      </c>
+      <c r="B319" s="5">
+        <v>2810.92</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D319" s="5">
+        <v>25.520099999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="6">
+        <v>43538</v>
+      </c>
+      <c r="B320" s="5">
+        <v>2808.48</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D320" s="5">
+        <v>25.485199999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="6">
+        <v>43539</v>
+      </c>
+      <c r="B321" s="5">
+        <v>2822.48</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D321" s="5">
+        <v>25.613600000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="6">
+        <v>43542</v>
+      </c>
+      <c r="B322" s="5">
+        <v>2832.94</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D322" s="5">
+        <v>25.7057</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="6">
+        <v>43543</v>
+      </c>
+      <c r="B323" s="5">
+        <v>2832.57</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D323" s="5">
+        <v>25.667899999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="6">
+        <v>43544</v>
+      </c>
+      <c r="B324" s="5">
+        <v>2824.23</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D324" s="5">
+        <v>25.7074</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="6">
+        <v>43545</v>
+      </c>
+      <c r="B325" s="5">
+        <v>2854.88</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D325" s="5">
+        <v>25.952999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="6">
+        <v>43546</v>
+      </c>
+      <c r="B326" s="5">
+        <v>2800.71</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D326" s="5">
+        <v>25.6172</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="6">
+        <v>43549</v>
+      </c>
+      <c r="B327" s="5">
+        <v>2798.36</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D327" s="5">
+        <v>25.609400000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="6">
+        <v>43550</v>
+      </c>
+      <c r="B328" s="5">
+        <v>2818.46</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D328" s="5">
+        <v>25.655100000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="6">
+        <v>43551</v>
+      </c>
+      <c r="B329" s="5">
+        <v>2805.37</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D329" s="5">
+        <v>25.595199999999998</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="6">
+        <v>43552</v>
+      </c>
+      <c r="B330" s="5">
+        <v>2815.44</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D330" s="5">
+        <v>25.694500000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="6">
+        <v>43553</v>
+      </c>
+      <c r="B331" s="5">
+        <v>2834.4</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D331" s="5">
+        <v>25.811900000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="6">
+        <v>43556</v>
+      </c>
+      <c r="B332" s="5">
+        <v>2867.19</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D332" s="5">
+        <v>26.0139</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="6">
+        <v>43557</v>
+      </c>
+      <c r="B333" s="5">
+        <v>2867.24</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D333" s="5">
+        <v>26.031300000000002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="6">
+        <v>43558</v>
+      </c>
+      <c r="B334" s="5">
+        <v>2873.4</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D334" s="5">
+        <v>26.033799999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="6">
+        <v>43559</v>
+      </c>
+      <c r="B335" s="5">
+        <v>2879.39</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D335" s="5">
+        <v>26.075299999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="6">
+        <v>43560</v>
+      </c>
+      <c r="B336" s="5">
+        <v>2892.74</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" s="5">
+        <v>26.182700000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="6">
+        <v>43563</v>
+      </c>
+      <c r="B337" s="5">
+        <v>2895.77</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D337" s="5">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="6">
+        <v>43564</v>
+      </c>
+      <c r="B338" s="5">
+        <v>2878.2</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D338" s="5">
+        <v>26.084900000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="6">
+        <v>43565</v>
+      </c>
+      <c r="B339" s="5">
+        <v>2888.21</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D339" s="5">
+        <v>26.184000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="6">
+        <v>43566</v>
+      </c>
+      <c r="B340" s="5">
+        <v>2888.32</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D340" s="5">
+        <v>26.185099999999998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="6">
+        <v>43567</v>
+      </c>
+      <c r="B341" s="5">
+        <v>2907.41</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D341" s="5">
+        <v>26.270399999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="6">
+        <v>43570</v>
+      </c>
+      <c r="B342" s="5">
+        <v>2905.58</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D342" s="5">
+        <v>26.2807</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="6">
+        <v>43571</v>
+      </c>
+      <c r="B343" s="5">
+        <v>2907.06</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D343" s="5">
+        <v>26.245999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="6">
+        <v>43572</v>
+      </c>
+      <c r="B344" s="5">
+        <v>2900.45</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D344" s="5">
+        <v>26.209800000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="6">
+        <v>43573</v>
+      </c>
+      <c r="B345" s="5">
+        <v>2905.03</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D345" s="5">
+        <v>26.263000000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="6">
+        <v>43574</v>
+      </c>
+      <c r="B346" s="5">
+        <v>2905.03</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D346" s="5">
+        <v>26.263000000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="6">
+        <v>43577</v>
+      </c>
+      <c r="B347" s="5">
+        <v>2907.97</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D347" s="5">
+        <v>26.2773</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="6">
+        <v>43578</v>
+      </c>
+      <c r="B348" s="5">
+        <v>2933.68</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D348" s="5">
+        <v>26.5138</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="6">
+        <v>43579</v>
+      </c>
+      <c r="B349" s="5">
+        <v>2927.25</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D349" s="5">
+        <v>26.5261</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="6">
+        <v>43580</v>
+      </c>
+      <c r="B350" s="5">
+        <v>2926.17</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D350" s="5">
+        <v>26.52</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="6">
+        <v>43581</v>
+      </c>
+      <c r="B351" s="5">
+        <v>2939.88</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D351" s="5">
+        <v>26.6158</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="6">
+        <v>43584</v>
+      </c>
+      <c r="B352" s="5">
+        <v>2943.03</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D352" s="5">
+        <v>26.65</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="6">
+        <v>43585</v>
+      </c>
+      <c r="B353" s="5">
+        <v>2945.83</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D353" s="5">
+        <v>26.697199999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="6">
+        <v>43586</v>
+      </c>
+      <c r="B354" s="5">
+        <v>2923.73</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D354" s="5">
+        <v>26.536200000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="6">
+        <v>43587</v>
+      </c>
+      <c r="B355" s="5">
+        <v>2917.52</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D355" s="5">
+        <v>26.4194</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="6">
+        <v>43588</v>
+      </c>
+      <c r="B356" s="5">
+        <v>2945.64</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D356" s="5">
+        <v>26.685400000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="6">
+        <v>43591</v>
+      </c>
+      <c r="B357" s="5">
+        <v>2932.47</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D357" s="5">
+        <v>26.6112</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="6">
+        <v>43592</v>
+      </c>
+      <c r="B358" s="5">
+        <v>2884.05</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D358" s="5">
+        <v>26.2455</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="6">
+        <v>43593</v>
+      </c>
+      <c r="B359" s="5">
+        <v>2879.42</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D359" s="5">
+        <v>26.201899999999998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="6">
+        <v>43594</v>
+      </c>
+      <c r="B360" s="5">
+        <v>2870.72</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D360" s="5">
+        <v>26.1492</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="6">
+        <v>43595</v>
+      </c>
+      <c r="B361" s="5">
+        <v>2881.4</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D361" s="5">
+        <v>26.204999999999998</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="6">
+        <v>43598</v>
+      </c>
+      <c r="B362" s="5">
+        <v>2811.87</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D362" s="5">
+        <v>25.7302</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="6">
+        <v>43599</v>
+      </c>
+      <c r="B363" s="5">
+        <v>2834.41</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D363" s="5">
+        <v>25.927800000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="6">
+        <v>43600</v>
+      </c>
+      <c r="B364" s="5">
+        <v>2850.96</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D364" s="5">
+        <v>26.110700000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="6">
+        <v>43601</v>
+      </c>
+      <c r="B365" s="5">
+        <v>2876.32</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D365" s="5">
+        <v>26.276900000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="6">
+        <v>43602</v>
+      </c>
+      <c r="B366" s="5">
+        <v>2859.53</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D366" s="5">
+        <v>26.181000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="6">
+        <v>43605</v>
+      </c>
+      <c r="B367" s="5">
+        <v>2840.23</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D367" s="5">
+        <v>25.9893</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="6">
+        <v>43606</v>
+      </c>
+      <c r="B368" s="5">
+        <v>2864.36</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D368" s="5">
+        <v>26.154299999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="6">
+        <v>43607</v>
+      </c>
+      <c r="B369" s="5">
+        <v>2856.27</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D369" s="5">
+        <v>26.1477</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="6">
+        <v>43608</v>
+      </c>
+      <c r="B370" s="5">
+        <v>2822.24</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D370" s="5">
+        <v>25.9085</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="6">
+        <v>43609</v>
+      </c>
+      <c r="B371" s="5">
+        <v>2826.06</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D371" s="5">
+        <v>25.9754</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="6">
+        <v>43612</v>
+      </c>
+      <c r="B372" s="5">
+        <v>2826.06</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D372" s="5">
+        <v>25.9754</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="6">
+        <v>43613</v>
+      </c>
+      <c r="B373" s="5">
+        <v>2802.39</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D373" s="5">
+        <v>25.845300000000002</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="6">
+        <v>43614</v>
+      </c>
+      <c r="B374" s="5">
+        <v>2783.02</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D374" s="5">
+        <v>25.669499999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="6">
+        <v>43615</v>
+      </c>
+      <c r="B375" s="5">
+        <v>2788.86</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D375" s="5">
+        <v>25.750499999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="6">
+        <v>43616</v>
+      </c>
+      <c r="B376" s="5">
+        <v>2752.06</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D376" s="5">
+        <v>25.5596</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="6">
+        <v>43619</v>
+      </c>
+      <c r="B377" s="5">
+        <v>2744.45</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D377" s="5">
+        <v>25.520700000000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="6">
+        <v>43620</v>
+      </c>
+      <c r="B378" s="5">
+        <v>2803.27</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D378" s="5">
+        <v>25.956600000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="6">
+        <v>43621</v>
+      </c>
+      <c r="B379" s="5">
+        <v>2826.15</v>
+      </c>
+      <c r="C379" s="5">
+        <v>25.7654</v>
+      </c>
+      <c r="D379" s="5">
+        <v>26.156300000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="6">
+        <v>43622</v>
+      </c>
+      <c r="B380" s="5">
+        <v>2843.49</v>
+      </c>
+      <c r="C380" s="5">
+        <v>25.846299999999999</v>
+      </c>
+      <c r="D380" s="5">
+        <v>26.294699999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="6">
+        <v>43623</v>
+      </c>
+      <c r="B381" s="5">
+        <v>2873.34</v>
+      </c>
+      <c r="C381" s="5">
+        <v>26.280100000000001</v>
+      </c>
+      <c r="D381" s="5">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="6">
+        <v>43626</v>
+      </c>
+      <c r="B382" s="5">
+        <v>2886.73</v>
+      </c>
+      <c r="C382" s="5">
+        <v>26.4071</v>
+      </c>
+      <c r="D382" s="5">
+        <v>26.671299999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="6">
+        <v>43627</v>
+      </c>
+      <c r="B383" s="5">
+        <v>2885.72</v>
+      </c>
+      <c r="C383" s="5">
+        <v>26.400600000000001</v>
+      </c>
+      <c r="D383" s="5">
+        <v>26.646699999999999</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="6">
+        <v>43628</v>
+      </c>
+      <c r="B384" s="5">
+        <v>2879.84</v>
+      </c>
+      <c r="C384" s="5">
+        <v>26.2454</v>
+      </c>
+      <c r="D384" s="5">
+        <v>26.626200000000001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="6">
+        <v>43629</v>
+      </c>
+      <c r="B385" s="5">
+        <v>2891.64</v>
+      </c>
+      <c r="C385" s="5">
+        <v>26.2852</v>
+      </c>
+      <c r="D385" s="5">
+        <v>26.708500000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="6">
+        <v>43630</v>
+      </c>
+      <c r="B386" s="5">
+        <v>2886.98</v>
+      </c>
+      <c r="C386" s="5">
+        <v>26.145700000000001</v>
+      </c>
+      <c r="D386" s="5">
+        <v>26.740300000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="6">
+        <v>43633</v>
+      </c>
+      <c r="B387" s="5">
+        <v>2889.67</v>
+      </c>
+      <c r="C387" s="5">
+        <v>26.121600000000001</v>
+      </c>
+      <c r="D387" s="5">
+        <v>26.741900000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="6">
+        <v>43634</v>
+      </c>
+      <c r="B388" s="5">
+        <v>2917.75</v>
+      </c>
+      <c r="C388" s="5">
+        <v>26.534600000000001</v>
+      </c>
+      <c r="D388" s="5">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="6">
+        <v>43635</v>
+      </c>
+      <c r="B389" s="5">
+        <v>2926.46</v>
+      </c>
+      <c r="C389" s="5">
+        <v>26.6815</v>
+      </c>
+      <c r="D389" s="5">
+        <v>27.1296</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="6">
+        <v>43636</v>
+      </c>
+      <c r="B390" s="5">
+        <v>2954.18</v>
+      </c>
+      <c r="C390" s="5">
+        <v>27.0077</v>
+      </c>
+      <c r="D390" s="5">
+        <v>27.392900000000001</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="6">
+        <v>43637</v>
+      </c>
+      <c r="B391" s="5">
+        <v>2950.46</v>
+      </c>
+      <c r="C391" s="5">
+        <v>26.9589</v>
+      </c>
+      <c r="D391" s="5">
+        <v>27.2942</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="6">
+        <v>43640</v>
+      </c>
+      <c r="B392" s="5">
+        <v>2945.35</v>
+      </c>
+      <c r="C392" s="5">
+        <v>26.850300000000001</v>
+      </c>
+      <c r="D392" s="5">
+        <v>27.182300000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="6">
+        <v>43641</v>
+      </c>
+      <c r="B393" s="5">
+        <v>2917.38</v>
+      </c>
+      <c r="C393" s="5">
+        <v>26.675599999999999</v>
+      </c>
+      <c r="D393" s="5">
+        <v>26.992000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="6">
+        <v>43642</v>
+      </c>
+      <c r="B394" s="5">
+        <v>2913.78</v>
+      </c>
+      <c r="C394" s="5">
+        <v>26.795100000000001</v>
+      </c>
+      <c r="D394" s="5">
+        <v>26.8993</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="6">
+        <v>43643</v>
+      </c>
+      <c r="B395" s="5">
+        <v>2924.92</v>
+      </c>
+      <c r="C395" s="5">
+        <v>26.940899999999999</v>
+      </c>
+      <c r="D395" s="5">
+        <v>27.0351</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="6">
+        <v>43644</v>
+      </c>
+      <c r="B396" s="5">
+        <v>2941.76</v>
+      </c>
+      <c r="C396" s="5">
+        <v>27.1145</v>
+      </c>
+      <c r="D396" s="5">
+        <v>27.16</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="6">
+        <v>43647</v>
+      </c>
+      <c r="B397" s="5">
+        <v>2964.33</v>
+      </c>
+      <c r="C397" s="5">
+        <v>27.385400000000001</v>
+      </c>
+      <c r="D397" s="5">
+        <v>27.305900000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="6">
+        <v>43648</v>
+      </c>
+      <c r="B398" s="5">
+        <v>2973.01</v>
+      </c>
+      <c r="C398" s="5">
+        <v>27.380700000000001</v>
+      </c>
+      <c r="D398" s="5">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="6">
+        <v>43649</v>
+      </c>
+      <c r="B399" s="5">
+        <v>2995.82</v>
+      </c>
+      <c r="C399" s="5">
+        <v>27.507999999999999</v>
+      </c>
+      <c r="D399" s="5">
+        <v>27.639900000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="6">
+        <v>43650</v>
+      </c>
+      <c r="B400" s="5">
+        <v>2995.82</v>
+      </c>
+      <c r="C400" s="5">
+        <v>27.507999999999999</v>
+      </c>
+      <c r="D400" s="5">
+        <v>27.639900000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="6">
+        <v>43651</v>
+      </c>
+      <c r="B401" s="5">
+        <v>2990.41</v>
+      </c>
+      <c r="C401" s="5">
+        <v>27.341100000000001</v>
+      </c>
+      <c r="D401" s="5">
+        <v>27.511800000000001</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="6">
+        <v>43654</v>
+      </c>
+      <c r="B402" s="5">
+        <v>2975.95</v>
+      </c>
+      <c r="C402" s="5">
+        <v>27.196100000000001</v>
+      </c>
+      <c r="D402" s="5">
+        <v>27.411100000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="6">
+        <v>43655</v>
+      </c>
+      <c r="B403" s="5">
+        <v>2979.63</v>
+      </c>
+      <c r="C403" s="5">
+        <v>27.1662</v>
+      </c>
+      <c r="D403" s="5">
+        <v>27.444400000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="6">
+        <v>43656</v>
+      </c>
+      <c r="B404" s="5">
+        <v>2993.07</v>
+      </c>
+      <c r="C404" s="5">
+        <v>27.249600000000001</v>
+      </c>
+      <c r="D404" s="5">
+        <v>27.568999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="6">
+        <v>43657</v>
+      </c>
+      <c r="B405" s="5">
+        <v>2999.91</v>
+      </c>
+      <c r="C405" s="5">
+        <v>27.193200000000001</v>
+      </c>
+      <c r="D405" s="5">
+        <v>27.555099999999999</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="6">
+        <v>43658</v>
+      </c>
+      <c r="B406" s="5">
+        <v>3013.77</v>
+      </c>
+      <c r="C406" s="5">
+        <v>27.340699999999998</v>
+      </c>
+      <c r="D406" s="5">
+        <v>27.6845</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="6">
+        <v>43661</v>
+      </c>
+      <c r="B407" s="5">
+        <v>3014.3</v>
+      </c>
+      <c r="C407" s="5">
+        <v>27.3432</v>
+      </c>
+      <c r="D407" s="5">
+        <v>27.7224</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="6">
+        <v>43662</v>
+      </c>
+      <c r="B408" s="5">
+        <v>3004.04</v>
+      </c>
+      <c r="C408" s="5">
+        <v>27.248799999999999</v>
+      </c>
+      <c r="D408" s="5">
+        <v>27.612100000000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="6">
+        <v>43663</v>
+      </c>
+      <c r="B409" s="5">
+        <v>2984.42</v>
+      </c>
+      <c r="C409" s="5">
+        <v>27.072399999999998</v>
+      </c>
+      <c r="D409" s="5">
+        <v>27.5197</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="6">
+        <v>43664</v>
+      </c>
+      <c r="B410" s="5">
+        <v>2995.11</v>
+      </c>
+      <c r="C410" s="5">
+        <v>27.1342</v>
+      </c>
+      <c r="D410" s="5">
+        <v>27.606100000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="6">
+        <v>43665</v>
+      </c>
+      <c r="B411" s="5">
+        <v>2976.61</v>
+      </c>
+      <c r="C411" s="5">
+        <v>27.1447</v>
+      </c>
+      <c r="D411" s="5">
+        <v>27.460699999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="6">
+        <v>43668</v>
+      </c>
+      <c r="B412" s="5">
+        <v>2985.03</v>
+      </c>
+      <c r="C412" s="5">
+        <v>27.241199999999999</v>
+      </c>
+      <c r="D412" s="5">
+        <v>27.535</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="6">
+        <v>43669</v>
+      </c>
+      <c r="B413" s="5">
+        <v>3005.47</v>
+      </c>
+      <c r="C413" s="5">
+        <v>27.510100000000001</v>
+      </c>
+      <c r="D413" s="5">
+        <v>27.656199999999998</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="6">
+        <v>43670</v>
+      </c>
+      <c r="B414" s="5">
+        <v>3019.56</v>
+      </c>
+      <c r="C414" s="5">
+        <v>27.726400000000002</v>
+      </c>
+      <c r="D414" s="5">
+        <v>27.8019</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="6">
+        <v>43671</v>
+      </c>
+      <c r="B415" s="5">
+        <v>3003.67</v>
+      </c>
+      <c r="C415" s="5">
+        <v>27.4971</v>
+      </c>
+      <c r="D415" s="5">
+        <v>27.6554</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="6">
+        <v>43672</v>
+      </c>
+      <c r="B416" s="5">
+        <v>3025.86</v>
+      </c>
+      <c r="C416" s="5">
+        <v>27.6022</v>
+      </c>
+      <c r="D416" s="5">
+        <v>27.856300000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="6">
+        <v>43675</v>
+      </c>
+      <c r="B417" s="5">
+        <v>3020.97</v>
+      </c>
+      <c r="C417" s="5">
+        <v>27.561900000000001</v>
+      </c>
+      <c r="D417" s="5">
+        <v>27.84</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="6">
+        <v>43676</v>
+      </c>
+      <c r="B418" s="5">
+        <v>3013.18</v>
+      </c>
+      <c r="C418" s="5">
+        <v>27.472100000000001</v>
+      </c>
+      <c r="D418" s="5">
+        <v>27.740600000000001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="6">
+        <v>43677</v>
+      </c>
+      <c r="B419" s="5">
+        <v>2980.38</v>
+      </c>
+      <c r="C419" s="5">
+        <v>27.171500000000002</v>
+      </c>
+      <c r="D419" s="5">
+        <v>27.515599999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="6">
+        <v>43678</v>
+      </c>
+      <c r="B420" s="5">
+        <v>2953.56</v>
+      </c>
+      <c r="C420" s="5">
+        <v>26.928000000000001</v>
+      </c>
+      <c r="D420" s="5">
+        <v>27.435500000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="6">
+        <v>43679</v>
+      </c>
+      <c r="B421" s="5">
+        <v>2932.05</v>
+      </c>
+      <c r="C421" s="5">
+        <v>26.692900000000002</v>
+      </c>
+      <c r="D421" s="5">
+        <v>27.285399999999999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="6">
+        <v>43682</v>
+      </c>
+      <c r="B422" s="5">
+        <v>2844.74</v>
+      </c>
+      <c r="C422" s="5">
+        <v>25.939499999999999</v>
+      </c>
+      <c r="D422" s="5">
+        <v>26.7042</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="6">
+        <v>43683</v>
+      </c>
+      <c r="B423" s="5">
+        <v>2881.77</v>
+      </c>
+      <c r="C423" s="5">
+        <v>26.161799999999999</v>
+      </c>
+      <c r="D423" s="5">
+        <v>27.0244</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="6">
+        <v>43684</v>
+      </c>
+      <c r="B424" s="5">
+        <v>2883.98</v>
+      </c>
+      <c r="C424" s="5">
+        <v>26.260400000000001</v>
+      </c>
+      <c r="D424" s="5">
+        <v>27.066700000000001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="6">
+        <v>43685</v>
+      </c>
+      <c r="B425" s="5">
+        <v>2938.09</v>
+      </c>
+      <c r="C425" s="5">
+        <v>26.749199999999998</v>
+      </c>
+      <c r="D425" s="5">
+        <v>27.477799999999998</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="6">
+        <v>43686</v>
+      </c>
+      <c r="B426" s="5">
+        <v>2918.65</v>
+      </c>
+      <c r="C426" s="5">
+        <v>26.5259</v>
+      </c>
+      <c r="D426" s="5">
+        <v>27.349399999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="6">
+        <v>43689</v>
+      </c>
+      <c r="B427" s="5">
+        <v>2883.75</v>
+      </c>
+      <c r="C427" s="5">
+        <v>26.2</v>
+      </c>
+      <c r="D427" s="5">
+        <v>27.158999999999999</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="6">
+        <v>43690</v>
+      </c>
+      <c r="B428" s="5">
+        <v>2926.32</v>
+      </c>
+      <c r="C428" s="5">
+        <v>26.581099999999999</v>
+      </c>
+      <c r="D428" s="5">
+        <v>27.427199999999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="6">
+        <v>43691</v>
+      </c>
+      <c r="B429" s="5">
+        <v>2840.6</v>
+      </c>
+      <c r="C429" s="5">
+        <v>25.825800000000001</v>
+      </c>
+      <c r="D429" s="5">
+        <v>26.8766</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="6">
+        <v>43692</v>
+      </c>
+      <c r="B430" s="5">
+        <v>2847.6</v>
+      </c>
+      <c r="C430" s="5">
+        <v>25.8276</v>
+      </c>
+      <c r="D430" s="5">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="6">
+        <v>43693</v>
+      </c>
+      <c r="B431" s="5">
+        <v>2888.68</v>
+      </c>
+      <c r="C431" s="5">
+        <v>26.232700000000001</v>
+      </c>
+      <c r="D431" s="5">
+        <v>27.292999999999999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="6">
+        <v>43696</v>
+      </c>
+      <c r="B432" s="5">
+        <v>2923.65</v>
+      </c>
+      <c r="C432" s="5">
+        <v>26.487200000000001</v>
+      </c>
+      <c r="D432" s="5">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="6">
+        <v>43697</v>
+      </c>
+      <c r="B433" s="5">
+        <v>2900.51</v>
+      </c>
+      <c r="C433" s="5">
+        <v>26.324100000000001</v>
+      </c>
+      <c r="D433" s="5">
+        <v>27.389700000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="6">
+        <v>43698</v>
+      </c>
+      <c r="B434" s="5">
+        <v>2924.43</v>
+      </c>
+      <c r="C434" s="5">
+        <v>26.597200000000001</v>
+      </c>
+      <c r="D434" s="5">
+        <v>27.535299999999999</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="6">
+        <v>43699</v>
+      </c>
+      <c r="B435" s="5">
+        <v>2922.95</v>
+      </c>
+      <c r="C435" s="5">
+        <v>26.591100000000001</v>
+      </c>
+      <c r="D435" s="5">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="6">
+        <v>43700</v>
+      </c>
+      <c r="B436" s="5">
+        <v>2847.11</v>
+      </c>
+      <c r="C436" s="5">
+        <v>25.847799999999999</v>
+      </c>
+      <c r="D436" s="5">
+        <v>26.897600000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="6">
+        <v>43703</v>
+      </c>
+      <c r="B437" s="5">
+        <v>2878.38</v>
+      </c>
+      <c r="C437" s="5">
+        <v>26.116800000000001</v>
+      </c>
+      <c r="D437" s="5">
+        <v>27.22</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="6">
+        <v>43704</v>
+      </c>
+      <c r="B438" s="5">
+        <v>2869.16</v>
+      </c>
+      <c r="C438" s="5">
+        <v>26.082000000000001</v>
+      </c>
+      <c r="D438" s="5">
+        <v>27.214500000000001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="6">
+        <v>43705</v>
+      </c>
+      <c r="B439" s="5">
+        <v>2887.94</v>
+      </c>
+      <c r="C439" s="5">
+        <v>26.202200000000001</v>
+      </c>
+      <c r="D439" s="5">
+        <v>27.3354</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="6">
+        <v>43706</v>
+      </c>
+      <c r="B440" s="5">
+        <v>2924.58</v>
+      </c>
+      <c r="C440" s="5">
+        <v>26.497499999999999</v>
+      </c>
+      <c r="D440" s="5">
+        <v>27.629300000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="6">
+        <v>43707</v>
+      </c>
+      <c r="B441" s="5">
+        <v>2926.46</v>
+      </c>
+      <c r="C441" s="5">
+        <v>26.618200000000002</v>
+      </c>
+      <c r="D441" s="5">
+        <v>27.629300000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>